--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3AEE3-A562-48A6-A744-0F0FC58FB0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585C666F-CFD5-4ECF-8BBD-EC84953654CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ Round" sheetId="1" r:id="rId1"/>
@@ -1645,24 +1645,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1686,6 +1668,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2983,11 +2983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C4752F-4862-4AAC-89D4-23390BDC41C0}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4348,10 +4348,10 @@
       <c r="E2" s="6">
         <v>30</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="45">
         <v>120</v>
       </c>
       <c r="H2" s="7">
@@ -4374,8 +4374,8 @@
       <c r="E3" s="9">
         <v>30</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="10">
         <v>10</v>
       </c>
@@ -4396,8 +4396,8 @@
       <c r="E4" s="13">
         <v>30</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="16">
         <v>10</v>
       </c>
@@ -4418,10 +4418,10 @@
       <c r="E5" s="6">
         <v>30</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="45">
         <v>120</v>
       </c>
       <c r="H5" s="7">
@@ -4444,8 +4444,8 @@
       <c r="E6" s="9">
         <v>30</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="10">
         <v>10</v>
       </c>
@@ -4466,8 +4466,8 @@
       <c r="E7" s="13">
         <v>30</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="16">
         <v>10</v>
       </c>
@@ -4488,10 +4488,10 @@
       <c r="E8" s="6">
         <v>30</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="45">
         <v>120</v>
       </c>
       <c r="H8" s="7">
@@ -4514,8 +4514,8 @@
       <c r="E9" s="9">
         <v>30</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="10">
         <v>10</v>
       </c>
@@ -4536,8 +4536,8 @@
       <c r="E10" s="13">
         <v>30</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="16">
         <v>10</v>
       </c>
@@ -4558,10 +4558,10 @@
       <c r="E11" s="6">
         <v>30</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="45">
         <v>120</v>
       </c>
       <c r="H11" s="7">
@@ -4584,8 +4584,8 @@
       <c r="E12" s="9">
         <v>30</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="10">
         <v>10</v>
       </c>
@@ -4606,8 +4606,8 @@
       <c r="E13" s="13">
         <v>30</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="16">
         <v>10</v>
       </c>
@@ -4628,10 +4628,10 @@
       <c r="E14" s="6">
         <v>30</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="45">
         <v>120</v>
       </c>
       <c r="H14" s="7">
@@ -4654,8 +4654,8 @@
       <c r="E15" s="9">
         <v>30</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="10">
         <v>10</v>
       </c>
@@ -4676,8 +4676,8 @@
       <c r="E16" s="13">
         <v>30</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="16">
         <v>10</v>
       </c>
@@ -4698,10 +4698,10 @@
       <c r="E17" s="6">
         <v>30</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="45">
         <v>120</v>
       </c>
       <c r="H17" s="7">
@@ -4724,8 +4724,8 @@
       <c r="E18" s="9">
         <v>30</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10">
         <v>10</v>
       </c>
@@ -4746,26 +4746,26 @@
       <c r="E19" s="13">
         <v>30</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="16">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4776,18 +4776,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF476FA-922C-4D84-A345-0E6E6133C9F8}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.21875" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
@@ -4801,7 +4801,7 @@
       <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="25" t="s">
@@ -4815,27 +4815,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="45">
         <v>60</v>
       </c>
       <c r="F2" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -4847,13 +4847,13 @@
       <c r="D3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -4865,13 +4865,13 @@
       <c r="D4" s="9">
         <v>1930</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -4883,13 +4883,13 @@
       <c r="D5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -4901,7 +4901,7 @@
       <c r="D6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="10">
         <v>10</v>
       </c>
@@ -4910,7 +4910,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -4922,7 +4922,7 @@
       <c r="D7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="10">
         <v>10</v>
       </c>
@@ -4931,7 +4931,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4943,7 +4943,7 @@
       <c r="D8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="10">
         <v>10</v>
       </c>
@@ -4952,7 +4952,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4964,13 +4964,13 @@
       <c r="D9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -4982,13 +4982,13 @@
       <c r="D10" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -5000,25 +5000,25 @@
       <c r="D11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="39" t="s">
         <v>340</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="45">
         <v>60</v>
       </c>
       <c r="F12" s="7">
@@ -5026,7 +5026,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -5038,13 +5038,13 @@
       <c r="D13" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -5056,13 +5056,13 @@
       <c r="D14" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -5074,13 +5074,13 @@
       <c r="D15" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -5092,13 +5092,13 @@
       <c r="D16" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -5110,13 +5110,13 @@
       <c r="D17" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -5128,13 +5128,13 @@
       <c r="D18" s="9">
         <v>46</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -5146,13 +5146,13 @@
       <c r="D19" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -5164,13 +5164,13 @@
       <c r="D20" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -5182,25 +5182,25 @@
       <c r="D21" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="39" t="s">
         <v>359</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="45">
         <v>60</v>
       </c>
       <c r="F22" s="7">
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -5220,13 +5220,13 @@
       <c r="D23" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -5238,13 +5238,13 @@
       <c r="D24" s="9">
         <v>1905</v>
       </c>
-      <c r="E24" s="37"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -5256,13 +5256,13 @@
       <c r="D25" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -5274,13 +5274,13 @@
       <c r="D26" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -5292,13 +5292,13 @@
       <c r="D27" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -5310,13 +5310,13 @@
       <c r="D28" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -5328,13 +5328,13 @@
       <c r="D29" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -5346,13 +5346,13 @@
       <c r="D30" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -5364,25 +5364,25 @@
       <c r="D31" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="39" t="s">
         <v>376</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="45">
         <v>60</v>
       </c>
       <c r="F32" s="7">
@@ -5390,7 +5390,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -5402,13 +5402,13 @@
       <c r="D33" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="E33" s="37"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -5420,13 +5420,13 @@
       <c r="D34" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E34" s="37"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -5438,13 +5438,13 @@
       <c r="D35" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="37"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -5456,13 +5456,13 @@
       <c r="D36" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -5474,13 +5474,13 @@
       <c r="D37" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E37" s="37"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -5492,13 +5492,13 @@
       <c r="D38" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E38" s="37"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -5510,13 +5510,13 @@
       <c r="D39" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="37"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -5528,13 +5528,13 @@
       <c r="D40" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E40" s="37"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -5546,25 +5546,25 @@
       <c r="D41" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+    <row r="42" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="39" t="s">
         <v>396</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="45">
         <v>60</v>
       </c>
       <c r="F42" s="7">
@@ -5572,7 +5572,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -5584,13 +5584,13 @@
       <c r="D43" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E43" s="37"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -5602,13 +5602,13 @@
       <c r="D44" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="E44" s="37"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -5620,13 +5620,13 @@
       <c r="D45" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E45" s="37"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -5638,13 +5638,13 @@
       <c r="D46" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E46" s="37"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -5656,13 +5656,13 @@
       <c r="D47" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="E47" s="37"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -5674,13 +5674,13 @@
       <c r="D48" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="37"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -5692,13 +5692,13 @@
       <c r="D49" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="E49" s="37"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -5710,13 +5710,13 @@
       <c r="D50" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E50" s="37"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="41" t="s">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -5728,25 +5728,25 @@
       <c r="D51" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="E51" s="39"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="39" t="s">
         <v>414</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="45">
         <v>60</v>
       </c>
       <c r="F52" s="7">
@@ -5754,7 +5754,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -5766,13 +5766,13 @@
       <c r="D53" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E53" s="37"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -5784,13 +5784,13 @@
       <c r="D54" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="E54" s="37"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -5802,13 +5802,13 @@
       <c r="D55" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="37"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -5820,13 +5820,13 @@
       <c r="D56" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="37"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -5838,13 +5838,13 @@
       <c r="D57" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="E57" s="37"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -5856,13 +5856,13 @@
       <c r="D58" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="E58" s="37"/>
+      <c r="E58" s="46"/>
       <c r="F58" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -5874,13 +5874,13 @@
       <c r="D59" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="E59" s="37"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -5892,13 +5892,13 @@
       <c r="D60" s="9">
         <v>7</v>
       </c>
-      <c r="E60" s="37"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="13" t="s">
@@ -5910,7 +5910,7 @@
       <c r="D61" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="E61" s="39"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="16">
         <v>10</v>
       </c>
@@ -5972,7 +5972,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5992,7 +5992,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -6012,7 +6012,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -6032,7 +6032,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6052,7 +6052,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -6072,7 +6072,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -6092,7 +6092,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -6112,7 +6112,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -6132,7 +6132,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -6152,7 +6152,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="37" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -6172,7 +6172,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="37" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -6192,7 +6192,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="37" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -6212,7 +6212,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="37" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -6232,7 +6232,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -6252,7 +6252,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="37" t="s">
         <v>139</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -6272,7 +6272,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="38" t="s">
         <v>140</v>
       </c>
       <c r="B17" s="13" t="s">

--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quiz-app\public\inputQuiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\QUIZ\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585C666F-CFD5-4ECF-8BBD-EC84953654CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F0B50-3964-4747-B969-AA9B9E9FD26F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ Round" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="RapidFire Round" sheetId="5" r:id="rId5"/>
     <sheet name="Buzzer Round" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1562,7 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,6 +1676,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2983,7 +2992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C4752F-4862-4AAC-89D4-23390BDC41C0}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4286,11 +4295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8547F5E1-314B-4971-91FD-BE41512E171B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4333,19 +4342,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="45">
         <v>30</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -4359,19 +4368,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="46">
         <v>30</v>
       </c>
       <c r="F3" s="43"/>
@@ -4381,19 +4390,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="47">
         <v>30</v>
       </c>
       <c r="F4" s="44"/>
@@ -4403,19 +4412,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="45">
         <v>30</v>
       </c>
       <c r="F5" s="42" t="s">
@@ -4429,19 +4438,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="46">
         <v>30</v>
       </c>
       <c r="F6" s="43"/>
@@ -4451,19 +4460,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="47">
         <v>30</v>
       </c>
       <c r="F7" s="44"/>
@@ -4473,19 +4482,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="45">
         <v>30</v>
       </c>
       <c r="F8" s="42" t="s">
@@ -4499,19 +4508,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="46">
         <v>30</v>
       </c>
       <c r="F9" s="43"/>
@@ -4521,19 +4530,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="47">
         <v>30</v>
       </c>
       <c r="F10" s="44"/>
@@ -4543,19 +4552,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="45">
         <v>30</v>
       </c>
       <c r="F11" s="42" t="s">
@@ -4569,19 +4578,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="46">
         <v>30</v>
       </c>
       <c r="F12" s="43"/>
@@ -4591,19 +4600,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="47">
         <v>30</v>
       </c>
       <c r="F13" s="44"/>
@@ -4613,19 +4622,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="45">
         <v>30</v>
       </c>
       <c r="F14" s="42" t="s">
@@ -4639,19 +4648,19 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="46">
         <v>30</v>
       </c>
       <c r="F15" s="43"/>
@@ -4661,19 +4670,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="47">
         <v>30</v>
       </c>
       <c r="F16" s="44"/>
@@ -4683,19 +4692,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="45">
         <v>30</v>
       </c>
       <c r="F17" s="42" t="s">
@@ -4709,19 +4718,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="46">
         <v>30</v>
       </c>
       <c r="F18" s="43"/>
@@ -4731,19 +4740,19 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="47">
         <v>30</v>
       </c>
       <c r="F19" s="44"/>
@@ -4753,20 +4762,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4827,7 +4822,7 @@
       <c r="D2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="48">
         <v>60</v>
       </c>
       <c r="F2" s="7">
@@ -4847,7 +4842,7 @@
       <c r="D3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="10">
         <v>10</v>
       </c>
@@ -4865,7 +4860,7 @@
       <c r="D4" s="9">
         <v>1930</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="10">
         <v>10</v>
       </c>
@@ -4883,7 +4878,7 @@
       <c r="D5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="10">
         <v>10</v>
       </c>
@@ -4901,7 +4896,7 @@
       <c r="D6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="10">
         <v>10</v>
       </c>
@@ -4922,7 +4917,7 @@
       <c r="D7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="10">
         <v>10</v>
       </c>
@@ -4943,7 +4938,7 @@
       <c r="D8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="10">
         <v>10</v>
       </c>
@@ -4964,7 +4959,7 @@
       <c r="D9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="10">
         <v>10</v>
       </c>
@@ -4982,7 +4977,7 @@
       <c r="D10" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="10">
         <v>10</v>
       </c>
@@ -5000,7 +4995,7 @@
       <c r="D11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="16">
         <v>10</v>
       </c>
@@ -5018,7 +5013,7 @@
       <c r="D12" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="48">
         <v>60</v>
       </c>
       <c r="F12" s="7">
@@ -5038,7 +5033,7 @@
       <c r="D13" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="10">
         <v>10</v>
       </c>
@@ -5056,7 +5051,7 @@
       <c r="D14" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="10">
         <v>10</v>
       </c>
@@ -5074,7 +5069,7 @@
       <c r="D15" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="10">
         <v>10</v>
       </c>
@@ -5092,7 +5087,7 @@
       <c r="D16" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="10">
         <v>10</v>
       </c>
@@ -5110,7 +5105,7 @@
       <c r="D17" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="10">
         <v>10</v>
       </c>
@@ -5128,7 +5123,7 @@
       <c r="D18" s="9">
         <v>46</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="10">
         <v>10</v>
       </c>
@@ -5146,7 +5141,7 @@
       <c r="D19" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="10">
         <v>10</v>
       </c>
@@ -5164,7 +5159,7 @@
       <c r="D20" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="10">
         <v>10</v>
       </c>
@@ -5182,7 +5177,7 @@
       <c r="D21" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="16">
         <v>10</v>
       </c>
@@ -5200,7 +5195,7 @@
       <c r="D22" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="48">
         <v>60</v>
       </c>
       <c r="F22" s="7">
@@ -5220,7 +5215,7 @@
       <c r="D23" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="10">
         <v>10</v>
       </c>
@@ -5238,7 +5233,7 @@
       <c r="D24" s="9">
         <v>1905</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="10">
         <v>10</v>
       </c>
@@ -5256,7 +5251,7 @@
       <c r="D25" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="10">
         <v>10</v>
       </c>
@@ -5274,7 +5269,7 @@
       <c r="D26" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="10">
         <v>10</v>
       </c>
@@ -5292,7 +5287,7 @@
       <c r="D27" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="E27" s="46"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="10">
         <v>10</v>
       </c>
@@ -5310,7 +5305,7 @@
       <c r="D28" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="10">
         <v>10</v>
       </c>
@@ -5328,7 +5323,7 @@
       <c r="D29" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="10">
         <v>10</v>
       </c>
@@ -5346,7 +5341,7 @@
       <c r="D30" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="10">
         <v>10</v>
       </c>
@@ -5364,7 +5359,7 @@
       <c r="D31" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E31" s="47"/>
+      <c r="E31" s="50"/>
       <c r="F31" s="16">
         <v>10</v>
       </c>
@@ -5382,7 +5377,7 @@
       <c r="D32" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="48">
         <v>60</v>
       </c>
       <c r="F32" s="7">
@@ -5402,7 +5397,7 @@
       <c r="D33" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="E33" s="46"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="10">
         <v>10</v>
       </c>
@@ -5420,7 +5415,7 @@
       <c r="D34" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="10">
         <v>10</v>
       </c>
@@ -5438,7 +5433,7 @@
       <c r="D35" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="10">
         <v>10</v>
       </c>
@@ -5456,7 +5451,7 @@
       <c r="D36" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="10">
         <v>10</v>
       </c>
@@ -5474,7 +5469,7 @@
       <c r="D37" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="10">
         <v>10</v>
       </c>
@@ -5492,7 +5487,7 @@
       <c r="D38" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="10">
         <v>10</v>
       </c>
@@ -5510,7 +5505,7 @@
       <c r="D39" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="10">
         <v>10</v>
       </c>
@@ -5528,7 +5523,7 @@
       <c r="D40" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="10">
         <v>10</v>
       </c>
@@ -5546,7 +5541,7 @@
       <c r="D41" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E41" s="47"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="16">
         <v>10</v>
       </c>
@@ -5564,7 +5559,7 @@
       <c r="D42" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="48">
         <v>60</v>
       </c>
       <c r="F42" s="7">
@@ -5584,7 +5579,7 @@
       <c r="D43" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E43" s="46"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="10">
         <v>10</v>
       </c>
@@ -5602,7 +5597,7 @@
       <c r="D44" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="E44" s="46"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="10">
         <v>10</v>
       </c>
@@ -5620,7 +5615,7 @@
       <c r="D45" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E45" s="46"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="10">
         <v>10</v>
       </c>
@@ -5638,7 +5633,7 @@
       <c r="D46" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E46" s="46"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="10">
         <v>10</v>
       </c>
@@ -5656,7 +5651,7 @@
       <c r="D47" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="E47" s="46"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="10">
         <v>10</v>
       </c>
@@ -5674,7 +5669,7 @@
       <c r="D48" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="46"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="10">
         <v>10</v>
       </c>
@@ -5692,7 +5687,7 @@
       <c r="D49" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="10">
         <v>10</v>
       </c>
@@ -5710,7 +5705,7 @@
       <c r="D50" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="10">
         <v>10</v>
       </c>
@@ -5728,7 +5723,7 @@
       <c r="D51" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="16">
         <v>10</v>
       </c>
@@ -5746,7 +5741,7 @@
       <c r="D52" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="48">
         <v>60</v>
       </c>
       <c r="F52" s="7">
@@ -5766,7 +5761,7 @@
       <c r="D53" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="10">
         <v>10</v>
       </c>
@@ -5784,7 +5779,7 @@
       <c r="D54" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="E54" s="46"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="10">
         <v>10</v>
       </c>
@@ -5802,7 +5797,7 @@
       <c r="D55" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="46"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="10">
         <v>10</v>
       </c>
@@ -5820,7 +5815,7 @@
       <c r="D56" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="46"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="10">
         <v>10</v>
       </c>
@@ -5838,7 +5833,7 @@
       <c r="D57" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="E57" s="46"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="10">
         <v>10</v>
       </c>
@@ -5856,7 +5851,7 @@
       <c r="D58" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="E58" s="46"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="10">
         <v>10</v>
       </c>
@@ -5874,7 +5869,7 @@
       <c r="D59" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="E59" s="46"/>
+      <c r="E59" s="49"/>
       <c r="F59" s="10">
         <v>10</v>
       </c>
@@ -5892,7 +5887,7 @@
       <c r="D60" s="9">
         <v>7</v>
       </c>
-      <c r="E60" s="46"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="10">
         <v>10</v>
       </c>
@@ -5910,7 +5905,7 @@
       <c r="D61" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="E61" s="47"/>
+      <c r="E61" s="50"/>
       <c r="F61" s="16">
         <v>10</v>
       </c>

--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\QUIZ\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F0B50-3964-4747-B969-AA9B9E9FD26F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B4F80B-9D1E-4A95-9C00-D6E61EF76BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ Round" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="428">
   <si>
     <t>Q1</t>
   </si>
@@ -409,15 +409,6 @@
   </si>
   <si>
     <t>after tht ques/ans will be shown</t>
-  </si>
-  <si>
-    <t>ques will shown in full</t>
-  </si>
-  <si>
-    <t>yes/no/pass</t>
-  </si>
-  <si>
-    <t>on the basis of rslt next quest will be shown</t>
   </si>
   <si>
     <t>in buzzeer round extra ques are needed, 15 max, 5 will be treated as extras</t>
@@ -1562,7 +1553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1679,22 +1670,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2182,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J5" s="10">
         <v>5</v>
@@ -2196,19 +2178,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="H6" s="13">
         <v>60</v>
@@ -2226,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="H7" s="9">
         <v>30</v>
@@ -2256,19 +2238,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="H8" s="9">
         <v>30</v>
@@ -2286,19 +2268,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="H9" s="9">
         <v>30</v>
@@ -2316,25 +2298,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="9">
+        <v>30</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="9">
-        <v>30</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="J10" s="10">
         <v>5</v>
@@ -2348,19 +2330,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="H11" s="9">
         <v>60</v>
@@ -2378,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="H12" s="6">
         <v>30</v>
@@ -2408,19 +2390,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="9">
         <v>30</v>
@@ -2438,19 +2420,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="H14" s="9">
         <v>30</v>
@@ -2468,25 +2450,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="H15" s="9">
         <v>30</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J15" s="10">
         <v>5</v>
@@ -2500,19 +2482,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="H16" s="9">
         <v>60</v>
@@ -2530,19 +2512,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="6">
         <v>30</v>
@@ -2560,19 +2542,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="H18" s="9">
         <v>30</v>
@@ -2590,19 +2572,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="H19" s="9">
         <v>30</v>
@@ -2620,25 +2602,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H20" s="9">
         <v>30</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J20" s="10">
         <v>5</v>
@@ -2652,19 +2634,19 @@
         <v>4</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="H21" s="9">
         <v>60</v>
@@ -2682,19 +2664,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="H22" s="6">
         <v>30</v>
@@ -2712,19 +2694,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="H23" s="9">
         <v>30</v>
@@ -2742,19 +2724,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="H24" s="9">
         <v>30</v>
@@ -2772,25 +2754,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H25" s="9">
         <v>30</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J25" s="10">
         <v>5</v>
@@ -2804,19 +2786,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H26" s="9">
         <v>60</v>
@@ -2834,19 +2816,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="H27" s="6">
         <v>30</v>
@@ -2864,19 +2846,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="H28" s="9">
         <v>30</v>
@@ -2894,19 +2876,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="H29" s="9">
         <v>30</v>
@@ -2924,25 +2906,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="H30" s="9">
         <v>30</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J30" s="10">
         <v>5</v>
@@ -2956,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D31" s="13">
         <v>254</v>
@@ -3054,7 +3036,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G2" s="6">
         <v>15</v>
@@ -3080,7 +3062,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G3" s="9">
         <v>15</v>
@@ -3106,7 +3088,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G4" s="9">
         <v>15</v>
@@ -3132,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G5" s="9">
         <v>15</v>
@@ -3158,7 +3140,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G6" s="9">
         <v>15</v>
@@ -3184,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G7" s="9">
         <v>15</v>
@@ -3210,7 +3192,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G8" s="9">
         <v>15</v>
@@ -3227,16 +3209,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E9" s="6">
         <v>15</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" s="6">
         <v>15</v>
@@ -3253,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>47</v>
@@ -3262,7 +3244,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G10" s="9">
         <v>15</v>
@@ -3279,16 +3261,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E11" s="9">
         <v>15</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G11" s="9">
         <v>15</v>
@@ -3305,16 +3287,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E12" s="9">
         <v>15</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G12" s="9">
         <v>15</v>
@@ -3331,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>54</v>
@@ -3340,7 +3322,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G13" s="9">
         <v>15</v>
@@ -3357,7 +3339,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>114</v>
@@ -3366,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G14" s="9">
         <v>15</v>
@@ -3386,13 +3368,13 @@
         <v>56</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E15" s="9">
         <v>15</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G15" s="9">
         <v>15</v>
@@ -3409,16 +3391,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E16" s="6">
         <v>15</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G16" s="6">
         <v>15</v>
@@ -3435,16 +3417,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E17" s="9">
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G17" s="9">
         <v>15</v>
@@ -3461,16 +3443,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E18" s="9">
         <v>15</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G18" s="9">
         <v>15</v>
@@ -3487,16 +3469,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E19" s="9">
         <v>15</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G19" s="9">
         <v>15</v>
@@ -3513,16 +3495,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E20" s="9">
         <v>15</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G20" s="9">
         <v>15</v>
@@ -3539,16 +3521,16 @@
         <v>41</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E21" s="9">
         <v>15</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G21" s="9">
         <v>15</v>
@@ -3565,16 +3547,16 @@
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="9">
+        <v>15</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="E22" s="9">
-        <v>15</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="G22" s="9">
         <v>15</v>
@@ -3591,16 +3573,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E23" s="6">
         <v>15</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G23" s="6">
         <v>15</v>
@@ -3617,16 +3599,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E24" s="9">
         <v>15</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G24" s="9">
         <v>15</v>
@@ -3643,16 +3625,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E25" s="9">
         <v>15</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G25" s="9">
         <v>15</v>
@@ -3669,16 +3651,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E26" s="9">
         <v>15</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G26" s="9">
         <v>15</v>
@@ -3695,16 +3677,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E27" s="9">
         <v>15</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G27" s="9">
         <v>15</v>
@@ -3721,16 +3703,16 @@
         <v>41</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" s="9">
+        <v>15</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="E28" s="9">
-        <v>15</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="G28" s="9">
         <v>15</v>
@@ -3747,16 +3729,16 @@
         <v>42</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="9">
+        <v>15</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="E29" s="9">
-        <v>15</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="G29" s="9">
         <v>15</v>
@@ -3773,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E30" s="6">
         <v>15</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G30" s="6">
         <v>15</v>
@@ -3799,16 +3781,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E31" s="9">
         <v>15</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G31" s="9">
         <v>15</v>
@@ -3825,16 +3807,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E32" s="9">
         <v>15</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G32" s="9">
         <v>15</v>
@@ -3851,16 +3833,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E33" s="9">
         <v>15</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G33" s="9">
         <v>15</v>
@@ -3877,16 +3859,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E34" s="9">
         <v>15</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G34" s="9">
         <v>15</v>
@@ -3903,16 +3885,16 @@
         <v>41</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="9">
+        <v>15</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="E35" s="9">
-        <v>15</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="G35" s="9">
         <v>15</v>
@@ -3932,13 +3914,13 @@
         <v>56</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" s="9">
+        <v>15</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="E36" s="9">
-        <v>15</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="G36" s="9">
         <v>15</v>
@@ -3955,16 +3937,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E37" s="6">
         <v>15</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G37" s="6">
         <v>15</v>
@@ -3981,16 +3963,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E38" s="9">
         <v>15</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G38" s="9">
         <v>15</v>
@@ -4007,16 +3989,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E39" s="9">
         <v>15</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G39" s="9">
         <v>15</v>
@@ -4033,16 +4015,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E40" s="9">
         <v>15</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G40" s="9">
         <v>15</v>
@@ -4059,16 +4041,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E41" s="9">
         <v>15</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G41" s="9">
         <v>15</v>
@@ -4085,16 +4067,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E42" s="9">
         <v>15</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G42" s="9">
         <v>15</v>
@@ -4114,13 +4096,13 @@
         <v>56</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E43" s="13">
         <v>15</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G43" s="13">
         <v>15</v>
@@ -4295,11 +4277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8547F5E1-314B-4971-91FD-BE41512E171B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4345,22 +4327,22 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="6">
         <v>30</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="45">
+        <v>144</v>
+      </c>
+      <c r="G2" s="6">
         <v>120</v>
       </c>
       <c r="H2" s="7">
@@ -4371,20 +4353,20 @@
       <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="9">
         <v>30</v>
       </c>
       <c r="F3" s="43"/>
-      <c r="G3" s="46"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="10">
         <v>10</v>
       </c>
@@ -4393,20 +4375,20 @@
       <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="13">
         <v>30</v>
       </c>
       <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="16">
         <v>10</v>
       </c>
@@ -4415,22 +4397,22 @@
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="6">
         <v>30</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="45">
+        <v>144</v>
+      </c>
+      <c r="G5" s="6">
         <v>120</v>
       </c>
       <c r="H5" s="7">
@@ -4441,20 +4423,20 @@
       <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="9">
         <v>30</v>
       </c>
       <c r="F6" s="43"/>
-      <c r="G6" s="46"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="10">
         <v>10</v>
       </c>
@@ -4463,20 +4445,20 @@
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="13">
         <v>30</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="47"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="16">
         <v>10</v>
       </c>
@@ -4485,22 +4467,22 @@
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="6">
         <v>30</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="45">
+        <v>144</v>
+      </c>
+      <c r="G8" s="6">
         <v>120</v>
       </c>
       <c r="H8" s="7">
@@ -4511,20 +4493,20 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="9">
         <v>30</v>
       </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="10">
         <v>10</v>
       </c>
@@ -4533,20 +4515,20 @@
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="13">
         <v>30</v>
       </c>
       <c r="F10" s="44"/>
-      <c r="G10" s="47"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="16">
         <v>10</v>
       </c>
@@ -4555,22 +4537,22 @@
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="6">
         <v>30</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="45">
+        <v>144</v>
+      </c>
+      <c r="G11" s="6">
         <v>120</v>
       </c>
       <c r="H11" s="7">
@@ -4581,20 +4563,20 @@
       <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="9">
         <v>30</v>
       </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="10">
         <v>10</v>
       </c>
@@ -4603,20 +4585,20 @@
       <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="13">
         <v>30</v>
       </c>
       <c r="F13" s="44"/>
-      <c r="G13" s="47"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="16">
         <v>10</v>
       </c>
@@ -4625,22 +4607,22 @@
       <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="6">
         <v>30</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="45">
+        <v>144</v>
+      </c>
+      <c r="G14" s="6">
         <v>120</v>
       </c>
       <c r="H14" s="7">
@@ -4651,20 +4633,20 @@
       <c r="A15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="9">
         <v>30</v>
       </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="10">
         <v>10</v>
       </c>
@@ -4673,20 +4655,20 @@
       <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="13">
         <v>30</v>
       </c>
       <c r="F16" s="44"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="16">
         <v>10</v>
       </c>
@@ -4695,22 +4677,22 @@
       <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="6">
         <v>30</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="45">
+        <v>144</v>
+      </c>
+      <c r="G17" s="6">
         <v>120</v>
       </c>
       <c r="H17" s="7">
@@ -4721,20 +4703,20 @@
       <c r="A18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="9">
         <v>30</v>
       </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="10">
         <v>10</v>
       </c>
@@ -4743,20 +4725,20 @@
       <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="13">
         <v>30</v>
       </c>
       <c r="F19" s="44"/>
-      <c r="G19" s="47"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="16">
         <v>10</v>
       </c>
@@ -4769,13 +4751,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF476FA-922C-4D84-A345-0E6E6133C9F8}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42:E51"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4789,7 +4771,7 @@
     <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
@@ -4809,7 +4791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
@@ -4822,14 +4804,14 @@
       <c r="D2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="45">
         <v>60</v>
       </c>
       <c r="F2" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
@@ -4842,12 +4824,12 @@
       <c r="D3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
@@ -4860,12 +4842,12 @@
       <c r="D4" s="9">
         <v>1930</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>6</v>
       </c>
@@ -4878,12 +4860,12 @@
       <c r="D5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
@@ -4896,15 +4878,12 @@
       <c r="D6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -4917,15 +4896,12 @@
       <c r="D7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="10">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>6</v>
       </c>
@@ -4938,15 +4914,12 @@
       <c r="D8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="10">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>6</v>
       </c>
@@ -4959,12 +4932,12 @@
       <c r="D9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>6</v>
       </c>
@@ -4977,12 +4950,12 @@
       <c r="D10" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>6</v>
       </c>
@@ -4995,12 +4968,12 @@
       <c r="D11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
@@ -5008,19 +4981,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="48">
+        <v>338</v>
+      </c>
+      <c r="E12" s="45">
         <v>60</v>
       </c>
       <c r="F12" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>7</v>
       </c>
@@ -5028,17 +5001,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E13" s="49"/>
+        <v>340</v>
+      </c>
+      <c r="E13" s="46"/>
       <c r="F13" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>7</v>
       </c>
@@ -5046,17 +5019,17 @@
         <v>2</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="E14" s="49"/>
+        <v>342</v>
+      </c>
+      <c r="E14" s="46"/>
       <c r="F14" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
@@ -5064,17 +5037,17 @@
         <v>3</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E15" s="49"/>
+        <v>344</v>
+      </c>
+      <c r="E15" s="46"/>
       <c r="F15" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -5082,12 +5055,12 @@
         <v>4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E16" s="49"/>
+        <v>346</v>
+      </c>
+      <c r="E16" s="46"/>
       <c r="F16" s="10">
         <v>10</v>
       </c>
@@ -5100,12 +5073,12 @@
         <v>41</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E17" s="49"/>
+        <v>348</v>
+      </c>
+      <c r="E17" s="46"/>
       <c r="F17" s="10">
         <v>10</v>
       </c>
@@ -5118,12 +5091,12 @@
         <v>42</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D18" s="9">
         <v>46</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="10">
         <v>10</v>
       </c>
@@ -5136,12 +5109,12 @@
         <v>80</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19" s="49"/>
+        <v>351</v>
+      </c>
+      <c r="E19" s="46"/>
       <c r="F19" s="10">
         <v>10</v>
       </c>
@@ -5154,12 +5127,12 @@
         <v>81</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E20" s="49"/>
+        <v>353</v>
+      </c>
+      <c r="E20" s="46"/>
       <c r="F20" s="10">
         <v>10</v>
       </c>
@@ -5172,12 +5145,12 @@
         <v>82</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21" s="50"/>
+        <v>355</v>
+      </c>
+      <c r="E21" s="47"/>
       <c r="F21" s="16">
         <v>10</v>
       </c>
@@ -5190,12 +5163,12 @@
         <v>0</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E22" s="48">
+        <v>357</v>
+      </c>
+      <c r="E22" s="45">
         <v>60</v>
       </c>
       <c r="F22" s="7">
@@ -5210,12 +5183,12 @@
         <v>1</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E23" s="49"/>
+        <v>359</v>
+      </c>
+      <c r="E23" s="46"/>
       <c r="F23" s="10">
         <v>10</v>
       </c>
@@ -5228,12 +5201,12 @@
         <v>2</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D24" s="9">
         <v>1905</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="10">
         <v>10</v>
       </c>
@@ -5246,12 +5219,12 @@
         <v>3</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E25" s="49"/>
+        <v>362</v>
+      </c>
+      <c r="E25" s="46"/>
       <c r="F25" s="10">
         <v>10</v>
       </c>
@@ -5264,12 +5237,12 @@
         <v>4</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E26" s="49"/>
+        <v>364</v>
+      </c>
+      <c r="E26" s="46"/>
       <c r="F26" s="10">
         <v>10</v>
       </c>
@@ -5282,12 +5255,12 @@
         <v>41</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E27" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="E27" s="46"/>
       <c r="F27" s="10">
         <v>10</v>
       </c>
@@ -5300,12 +5273,12 @@
         <v>42</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="49"/>
+        <v>282</v>
+      </c>
+      <c r="E28" s="46"/>
       <c r="F28" s="10">
         <v>10</v>
       </c>
@@ -5318,12 +5291,12 @@
         <v>80</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E29" s="49"/>
+        <v>369</v>
+      </c>
+      <c r="E29" s="46"/>
       <c r="F29" s="10">
         <v>10</v>
       </c>
@@ -5336,12 +5309,12 @@
         <v>81</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E30" s="49"/>
+        <v>254</v>
+      </c>
+      <c r="E30" s="46"/>
       <c r="F30" s="10">
         <v>10</v>
       </c>
@@ -5354,12 +5327,12 @@
         <v>82</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E31" s="50"/>
+        <v>372</v>
+      </c>
+      <c r="E31" s="47"/>
       <c r="F31" s="16">
         <v>10</v>
       </c>
@@ -5372,12 +5345,12 @@
         <v>0</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E32" s="48">
+        <v>374</v>
+      </c>
+      <c r="E32" s="45">
         <v>60</v>
       </c>
       <c r="F32" s="7">
@@ -5392,12 +5365,12 @@
         <v>1</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="E33" s="49"/>
+        <v>376</v>
+      </c>
+      <c r="E33" s="46"/>
       <c r="F33" s="10">
         <v>10</v>
       </c>
@@ -5410,12 +5383,12 @@
         <v>2</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E34" s="49"/>
+        <v>378</v>
+      </c>
+      <c r="E34" s="46"/>
       <c r="F34" s="10">
         <v>10</v>
       </c>
@@ -5428,12 +5401,12 @@
         <v>3</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E35" s="49"/>
+        <v>380</v>
+      </c>
+      <c r="E35" s="46"/>
       <c r="F35" s="10">
         <v>10</v>
       </c>
@@ -5446,12 +5419,12 @@
         <v>4</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E36" s="49"/>
+        <v>382</v>
+      </c>
+      <c r="E36" s="46"/>
       <c r="F36" s="10">
         <v>10</v>
       </c>
@@ -5464,12 +5437,12 @@
         <v>41</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="E37" s="49"/>
+        <v>384</v>
+      </c>
+      <c r="E37" s="46"/>
       <c r="F37" s="10">
         <v>10</v>
       </c>
@@ -5482,12 +5455,12 @@
         <v>42</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E38" s="49"/>
+        <v>386</v>
+      </c>
+      <c r="E38" s="46"/>
       <c r="F38" s="10">
         <v>10</v>
       </c>
@@ -5500,12 +5473,12 @@
         <v>80</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="E39" s="49"/>
+        <v>388</v>
+      </c>
+      <c r="E39" s="46"/>
       <c r="F39" s="10">
         <v>10</v>
       </c>
@@ -5518,12 +5491,12 @@
         <v>81</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E40" s="49"/>
+        <v>390</v>
+      </c>
+      <c r="E40" s="46"/>
       <c r="F40" s="10">
         <v>10</v>
       </c>
@@ -5536,12 +5509,12 @@
         <v>82</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E41" s="50"/>
+        <v>392</v>
+      </c>
+      <c r="E41" s="47"/>
       <c r="F41" s="16">
         <v>10</v>
       </c>
@@ -5554,12 +5527,12 @@
         <v>0</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E42" s="48">
+        <v>394</v>
+      </c>
+      <c r="E42" s="45">
         <v>60</v>
       </c>
       <c r="F42" s="7">
@@ -5574,12 +5547,12 @@
         <v>1</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="E43" s="49"/>
+        <v>396</v>
+      </c>
+      <c r="E43" s="46"/>
       <c r="F43" s="10">
         <v>10</v>
       </c>
@@ -5592,12 +5565,12 @@
         <v>2</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E44" s="49"/>
+        <v>398</v>
+      </c>
+      <c r="E44" s="46"/>
       <c r="F44" s="10">
         <v>10</v>
       </c>
@@ -5610,12 +5583,12 @@
         <v>3</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" s="49"/>
+        <v>243</v>
+      </c>
+      <c r="E45" s="46"/>
       <c r="F45" s="10">
         <v>10</v>
       </c>
@@ -5628,12 +5601,12 @@
         <v>4</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E46" s="49"/>
+        <v>401</v>
+      </c>
+      <c r="E46" s="46"/>
       <c r="F46" s="10">
         <v>10</v>
       </c>
@@ -5646,12 +5619,12 @@
         <v>41</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="E47" s="49"/>
+        <v>403</v>
+      </c>
+      <c r="E47" s="46"/>
       <c r="F47" s="10">
         <v>10</v>
       </c>
@@ -5664,12 +5637,12 @@
         <v>42</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E48" s="49"/>
+        <v>405</v>
+      </c>
+      <c r="E48" s="46"/>
       <c r="F48" s="10">
         <v>10</v>
       </c>
@@ -5682,12 +5655,12 @@
         <v>80</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="E49" s="49"/>
+        <v>407</v>
+      </c>
+      <c r="E49" s="46"/>
       <c r="F49" s="10">
         <v>10</v>
       </c>
@@ -5700,12 +5673,12 @@
         <v>81</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E50" s="49"/>
+        <v>253</v>
+      </c>
+      <c r="E50" s="46"/>
       <c r="F50" s="10">
         <v>10</v>
       </c>
@@ -5718,12 +5691,12 @@
         <v>82</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="E51" s="50"/>
+        <v>410</v>
+      </c>
+      <c r="E51" s="47"/>
       <c r="F51" s="16">
         <v>10</v>
       </c>
@@ -5736,12 +5709,12 @@
         <v>0</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="E52" s="48">
+        <v>412</v>
+      </c>
+      <c r="E52" s="45">
         <v>60</v>
       </c>
       <c r="F52" s="7">
@@ -5756,12 +5729,12 @@
         <v>1</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="E53" s="49"/>
+        <v>414</v>
+      </c>
+      <c r="E53" s="46"/>
       <c r="F53" s="10">
         <v>10</v>
       </c>
@@ -5774,12 +5747,12 @@
         <v>2</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E54" s="49"/>
+        <v>416</v>
+      </c>
+      <c r="E54" s="46"/>
       <c r="F54" s="10">
         <v>10</v>
       </c>
@@ -5792,12 +5765,12 @@
         <v>3</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E55" s="49"/>
+        <v>203</v>
+      </c>
+      <c r="E55" s="46"/>
       <c r="F55" s="10">
         <v>10</v>
       </c>
@@ -5810,12 +5783,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="49"/>
+        <v>204</v>
+      </c>
+      <c r="E56" s="46"/>
       <c r="F56" s="10">
         <v>10</v>
       </c>
@@ -5828,12 +5801,12 @@
         <v>41</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="E57" s="49"/>
+        <v>420</v>
+      </c>
+      <c r="E57" s="46"/>
       <c r="F57" s="10">
         <v>10</v>
       </c>
@@ -5846,12 +5819,12 @@
         <v>42</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="E58" s="49"/>
+        <v>422</v>
+      </c>
+      <c r="E58" s="46"/>
       <c r="F58" s="10">
         <v>10</v>
       </c>
@@ -5864,12 +5837,12 @@
         <v>80</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="E59" s="49"/>
+        <v>424</v>
+      </c>
+      <c r="E59" s="46"/>
       <c r="F59" s="10">
         <v>10</v>
       </c>
@@ -5882,12 +5855,12 @@
         <v>81</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D60" s="9">
         <v>7</v>
       </c>
-      <c r="E60" s="49"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="10">
         <v>10</v>
       </c>
@@ -5900,25 +5873,17 @@
         <v>82</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="E61" s="50"/>
+        <v>427</v>
+      </c>
+      <c r="E61" s="47"/>
       <c r="F61" s="16">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E52:E61"/>
-    <mergeCell ref="E42:E51"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="E22:E31"/>
-    <mergeCell ref="E32:E41"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6168,13 +6133,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D12" s="9">
         <v>30</v>
@@ -6188,10 +6153,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>114</v>
@@ -6208,13 +6173,13 @@
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D14" s="9">
         <v>30</v>
@@ -6228,7 +6193,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>117</v>
@@ -6248,13 +6213,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D16" s="9">
         <v>30</v>
@@ -6268,7 +6233,7 @@
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>121</v>
@@ -6298,7 +6263,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\QUIZ\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B4F80B-9D1E-4A95-9C00-D6E61EF76BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A791D00-BF32-4124-AFC6-F9C371FDB666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ Round" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="425">
   <si>
     <t>Q1</t>
   </si>
@@ -403,15 +403,6 @@
   </si>
   <si>
     <t>Thinking</t>
-  </si>
-  <si>
-    <t>don't have to show ques, it would be audio round, once buzzer has been pressend it will depend upon team ans correct or wrng</t>
-  </si>
-  <si>
-    <t>after tht ques/ans will be shown</t>
-  </si>
-  <si>
-    <t>in buzzeer round extra ques are needed, 15 max, 5 will be treated as extras</t>
   </si>
   <si>
     <t>कमला, मोहन व सुरेश के बीच में है. रमेश, सुरेश के बायीं तरफ और सोहन, मोहन के दायीं तरफ है. सबके बीच में कौन है?</t>
@@ -1999,7 +1990,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2164,7 +2155,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J5" s="10">
         <v>5</v>
@@ -2178,19 +2169,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="H6" s="13">
         <v>60</v>
@@ -2208,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="H7" s="9">
         <v>30</v>
@@ -2238,19 +2229,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="9">
         <v>30</v>
@@ -2268,19 +2259,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="H9" s="9">
         <v>30</v>
@@ -2298,25 +2289,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="9">
+        <v>30</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="9">
-        <v>30</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="J10" s="10">
         <v>5</v>
@@ -2330,19 +2321,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="H11" s="9">
         <v>60</v>
@@ -2360,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="H12" s="6">
         <v>30</v>
@@ -2390,19 +2381,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="H13" s="9">
         <v>30</v>
@@ -2420,19 +2411,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="9">
         <v>30</v>
@@ -2450,25 +2441,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="H15" s="9">
         <v>30</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J15" s="10">
         <v>5</v>
@@ -2482,19 +2473,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="H16" s="9">
         <v>60</v>
@@ -2512,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="H17" s="6">
         <v>30</v>
@@ -2542,19 +2533,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="H18" s="9">
         <v>30</v>
@@ -2572,19 +2563,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="9">
         <v>30</v>
@@ -2602,25 +2593,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>219</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H20" s="9">
         <v>30</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J20" s="10">
         <v>5</v>
@@ -2634,19 +2625,19 @@
         <v>4</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H21" s="9">
         <v>60</v>
@@ -2664,19 +2655,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="H22" s="6">
         <v>30</v>
@@ -2694,19 +2685,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="H23" s="9">
         <v>30</v>
@@ -2724,19 +2715,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="H24" s="9">
         <v>30</v>
@@ -2754,25 +2745,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H25" s="9">
         <v>30</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J25" s="10">
         <v>5</v>
@@ -2786,19 +2777,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H26" s="9">
         <v>60</v>
@@ -2816,19 +2807,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="H27" s="6">
         <v>30</v>
@@ -2846,19 +2837,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="H28" s="9">
         <v>30</v>
@@ -2876,19 +2867,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="H29" s="9">
         <v>30</v>
@@ -2906,25 +2897,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="H30" s="9">
         <v>30</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J30" s="10">
         <v>5</v>
@@ -2938,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D31" s="13">
         <v>254</v>
@@ -2975,10 +2966,10 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3036,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G2" s="6">
         <v>15</v>
@@ -3062,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G3" s="9">
         <v>15</v>
@@ -3088,7 +3079,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G4" s="9">
         <v>15</v>
@@ -3114,7 +3105,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G5" s="9">
         <v>15</v>
@@ -3140,7 +3131,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G6" s="9">
         <v>15</v>
@@ -3166,7 +3157,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G7" s="9">
         <v>15</v>
@@ -3192,7 +3183,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G8" s="9">
         <v>15</v>
@@ -3209,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E9" s="6">
         <v>15</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G9" s="6">
         <v>15</v>
@@ -3235,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>47</v>
@@ -3244,7 +3235,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G10" s="9">
         <v>15</v>
@@ -3261,16 +3252,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E11" s="9">
         <v>15</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G11" s="9">
         <v>15</v>
@@ -3287,16 +3278,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E12" s="9">
         <v>15</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G12" s="9">
         <v>15</v>
@@ -3313,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>54</v>
@@ -3322,7 +3313,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G13" s="9">
         <v>15</v>
@@ -3339,7 +3330,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>114</v>
@@ -3348,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G14" s="9">
         <v>15</v>
@@ -3368,13 +3359,13 @@
         <v>56</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E15" s="9">
         <v>15</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G15" s="9">
         <v>15</v>
@@ -3391,16 +3382,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E16" s="6">
         <v>15</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G16" s="6">
         <v>15</v>
@@ -3417,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E17" s="9">
         <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G17" s="9">
         <v>15</v>
@@ -3443,16 +3434,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E18" s="9">
         <v>15</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G18" s="9">
         <v>15</v>
@@ -3469,16 +3460,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E19" s="9">
         <v>15</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G19" s="9">
         <v>15</v>
@@ -3495,16 +3486,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E20" s="9">
         <v>15</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G20" s="9">
         <v>15</v>
@@ -3521,16 +3512,16 @@
         <v>41</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E21" s="9">
         <v>15</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G21" s="9">
         <v>15</v>
@@ -3547,16 +3538,16 @@
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="9">
+        <v>15</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="E22" s="9">
-        <v>15</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="G22" s="9">
         <v>15</v>
@@ -3573,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E23" s="6">
         <v>15</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G23" s="6">
         <v>15</v>
@@ -3599,16 +3590,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E24" s="9">
         <v>15</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G24" s="9">
         <v>15</v>
@@ -3625,16 +3616,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E25" s="9">
         <v>15</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G25" s="9">
         <v>15</v>
@@ -3651,16 +3642,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E26" s="9">
         <v>15</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G26" s="9">
         <v>15</v>
@@ -3677,16 +3668,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E27" s="9">
         <v>15</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G27" s="9">
         <v>15</v>
@@ -3703,16 +3694,16 @@
         <v>41</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="9">
+        <v>15</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="E28" s="9">
-        <v>15</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="G28" s="9">
         <v>15</v>
@@ -3729,16 +3720,16 @@
         <v>42</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29" s="9">
+        <v>15</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="E29" s="9">
-        <v>15</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="G29" s="9">
         <v>15</v>
@@ -3755,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E30" s="6">
         <v>15</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G30" s="6">
         <v>15</v>
@@ -3781,16 +3772,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E31" s="9">
         <v>15</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G31" s="9">
         <v>15</v>
@@ -3807,16 +3798,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E32" s="9">
         <v>15</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G32" s="9">
         <v>15</v>
@@ -3833,16 +3824,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E33" s="9">
         <v>15</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G33" s="9">
         <v>15</v>
@@ -3859,16 +3850,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E34" s="9">
         <v>15</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G34" s="9">
         <v>15</v>
@@ -3885,16 +3876,16 @@
         <v>41</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" s="9">
+        <v>15</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="E35" s="9">
-        <v>15</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="G35" s="9">
         <v>15</v>
@@ -3914,13 +3905,13 @@
         <v>56</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E36" s="9">
+        <v>15</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="E36" s="9">
-        <v>15</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="G36" s="9">
         <v>15</v>
@@ -3937,16 +3928,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E37" s="6">
         <v>15</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G37" s="6">
         <v>15</v>
@@ -3963,16 +3954,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E38" s="9">
         <v>15</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G38" s="9">
         <v>15</v>
@@ -3989,16 +3980,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E39" s="9">
         <v>15</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G39" s="9">
         <v>15</v>
@@ -4015,16 +4006,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E40" s="9">
         <v>15</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G40" s="9">
         <v>15</v>
@@ -4041,16 +4032,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E41" s="9">
         <v>15</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G41" s="9">
         <v>15</v>
@@ -4067,16 +4058,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E42" s="9">
         <v>15</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G42" s="9">
         <v>15</v>
@@ -4096,13 +4087,13 @@
         <v>56</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E43" s="13">
         <v>15</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G43" s="13">
         <v>15</v>
@@ -4134,7 +4125,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4278,10 +4269,10 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4340,7 +4331,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G2" s="6">
         <v>120</v>
@@ -4410,7 +4401,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -4480,7 +4471,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -4550,7 +4541,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G11" s="6">
         <v>120</v>
@@ -4620,7 +4611,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="6">
         <v>120</v>
@@ -4690,7 +4681,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G17" s="6">
         <v>120</v>
@@ -4753,11 +4744,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF476FA-922C-4D84-A345-0E6E6133C9F8}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4981,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E12" s="45">
         <v>60</v>
@@ -5001,10 +4992,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="10">
@@ -5019,10 +5010,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="10">
@@ -5037,10 +5028,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="10">
@@ -5055,10 +5046,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="10">
@@ -5073,10 +5064,10 @@
         <v>41</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="10">
@@ -5091,7 +5082,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D18" s="9">
         <v>46</v>
@@ -5109,10 +5100,10 @@
         <v>80</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="10">
@@ -5127,10 +5118,10 @@
         <v>81</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="10">
@@ -5145,10 +5136,10 @@
         <v>82</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="16">
@@ -5163,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E22" s="45">
         <v>60</v>
@@ -5183,10 +5174,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="10">
@@ -5201,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D24" s="9">
         <v>1905</v>
@@ -5219,10 +5210,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="10">
@@ -5237,10 +5228,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="10">
@@ -5255,10 +5246,10 @@
         <v>41</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="10">
@@ -5273,10 +5264,10 @@
         <v>42</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="10">
@@ -5291,10 +5282,10 @@
         <v>80</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="10">
@@ -5309,10 +5300,10 @@
         <v>81</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="10">
@@ -5327,10 +5318,10 @@
         <v>82</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="16">
@@ -5345,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E32" s="45">
         <v>60</v>
@@ -5365,10 +5356,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="10">
@@ -5383,10 +5374,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="10">
@@ -5401,10 +5392,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="10">
@@ -5419,10 +5410,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="10">
@@ -5437,10 +5428,10 @@
         <v>41</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="10">
@@ -5455,10 +5446,10 @@
         <v>42</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="10">
@@ -5473,10 +5464,10 @@
         <v>80</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="10">
@@ -5491,10 +5482,10 @@
         <v>81</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="10">
@@ -5509,10 +5500,10 @@
         <v>82</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="16">
@@ -5527,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E42" s="45">
         <v>60</v>
@@ -5547,10 +5538,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="10">
@@ -5565,10 +5556,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="10">
@@ -5583,10 +5574,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="10">
@@ -5601,10 +5592,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="10">
@@ -5619,10 +5610,10 @@
         <v>41</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="10">
@@ -5637,10 +5628,10 @@
         <v>42</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="10">
@@ -5655,10 +5646,10 @@
         <v>80</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="10">
@@ -5673,10 +5664,10 @@
         <v>81</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="10">
@@ -5691,10 +5682,10 @@
         <v>82</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="16">
@@ -5709,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E52" s="45">
         <v>60</v>
@@ -5729,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="10">
@@ -5747,10 +5738,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E54" s="46"/>
       <c r="F54" s="10">
@@ -5765,10 +5756,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E55" s="46"/>
       <c r="F55" s="10">
@@ -5783,10 +5774,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E56" s="46"/>
       <c r="F56" s="10">
@@ -5801,10 +5792,10 @@
         <v>41</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E57" s="46"/>
       <c r="F57" s="10">
@@ -5819,10 +5810,10 @@
         <v>42</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E58" s="46"/>
       <c r="F58" s="10">
@@ -5837,10 +5828,10 @@
         <v>80</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E59" s="46"/>
       <c r="F59" s="10">
@@ -5855,7 +5846,7 @@
         <v>81</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D60" s="9">
         <v>7</v>
@@ -5873,10 +5864,10 @@
         <v>82</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E61" s="47"/>
       <c r="F61" s="16">
@@ -5891,13 +5882,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C11C15-25E5-485C-A705-83AFDD377AA7}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6133,13 +6124,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="9">
         <v>30</v>
@@ -6153,10 +6144,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>114</v>
@@ -6173,13 +6164,13 @@
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D14" s="9">
         <v>30</v>
@@ -6193,7 +6184,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>117</v>
@@ -6213,13 +6204,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D16" s="9">
         <v>30</v>
@@ -6233,7 +6224,7 @@
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>121</v>
@@ -6252,19 +6243,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
-        <v>126</v>
-      </c>
+      <c r="B20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\QUIZ\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12979348-0B46-4A4E-AF08-F92553896874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFB460C-2A1C-44B2-9D6B-FE6080849AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="440">
   <si>
     <t>Q1</t>
   </si>
@@ -104,48 +104,15 @@
     <t>Answers</t>
   </si>
   <si>
-    <t>उक्त चित्र को पहचाने?</t>
-  </si>
-  <si>
-    <t>सेंट्रल विस्टा</t>
-  </si>
-  <si>
-    <t>यह कहाँ स्थित है? (शहर)</t>
-  </si>
-  <si>
-    <t>नई दिल्ली</t>
-  </si>
-  <si>
-    <t>सेंट्रल विस्टा की आधारशिला किसने रखी?</t>
-  </si>
-  <si>
-    <t>प्रधानमंत्री श्री नरेन्द्र मोदी (10 दिसम्बर 2020)</t>
-  </si>
-  <si>
     <t>उक्त चित्र किस महापुरुष का है?</t>
   </si>
   <si>
-    <t>यह उत्तराखण्ड राज्य के किस जनपद से हैं?</t>
-  </si>
-  <si>
-    <t>1957 में इन्हें कौन सा सर्वोच्च सम्मान दिया गया?</t>
-  </si>
-  <si>
-    <t>श्री गोविन्द वल्लभ पन्त</t>
-  </si>
-  <si>
     <t>अल्मोड़ा</t>
   </si>
   <si>
-    <t>भारत रत्न</t>
-  </si>
-  <si>
     <t>उक्त लोगो किस संस्था का है?</t>
   </si>
   <si>
-    <t>बी0 सी0 सी0 आई0 (Board of Control for Cricket in India)</t>
-  </si>
-  <si>
     <t>Marks</t>
   </si>
   <si>
@@ -188,9 +155,6 @@
     <t>Negative Marking</t>
   </si>
   <si>
-    <t>थॉमस कप</t>
-  </si>
-  <si>
     <t>1947 में जब भारत आज़ाद हुआ, उस समय ब्रिटेन के प्रधानमंत्री कौन थे?</t>
   </si>
   <si>
@@ -230,9 +194,6 @@
     <t>नीलम संजीवा रेड्डी</t>
   </si>
   <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual_Team1.m4v</t>
-  </si>
-  <si>
     <t>ग्लास्गो</t>
   </si>
   <si>
@@ -245,235 +206,10 @@
     <t>टोक्यो</t>
   </si>
   <si>
-    <t>कर्नाटक</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team1_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team1_Pic2.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team1_Pic3.jpg</t>
-  </si>
-  <si>
-    <t>उक्त चित्र को पहचाने?उक्त स्मारक क नाम बताएं?</t>
-  </si>
-  <si>
-    <t>नेशनल वार मेमोरियल</t>
-  </si>
-  <si>
-    <t>यह स्मारक किस शहर में स्थित है?</t>
-  </si>
-  <si>
-    <t>इसके पूर्व स्मारक की लौ दिल्ली में कहाँ प्रज्जवलित होती थी?</t>
-  </si>
-  <si>
-    <t>इंडिया गेट</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team2_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team2_Pic2.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team2_Pic3.jpg</t>
-  </si>
-  <si>
-    <t>उक्त चित्र किसका है?</t>
-  </si>
-  <si>
-    <t>लक्ष्य सेन</t>
-  </si>
-  <si>
-    <t>लक्ष्य सेन मूलतः उत्तराखण्ड के किस जनपद के हैं?</t>
-  </si>
-  <si>
-    <t>2022 में इनके सहयोग से भारत ने इंडोनेशिया में कौन सा ख़िताब जीता?</t>
-  </si>
-  <si>
-    <t>कॉमन वेल्थ</t>
-  </si>
-  <si>
-    <t>उक्त प्रतिमा किसकी है?</t>
-  </si>
-  <si>
-    <t>नेता जी सुभाष चन्द्र बोस</t>
-  </si>
-  <si>
-    <t>नई दिल्ली में किस स्थान पर स्थापित की गयी है?</t>
-  </si>
-  <si>
-    <t>उक्त प्रतिमा के मूर्तिकार का नाम बताएं?</t>
-  </si>
-  <si>
-    <t>श्री अरुण योगिराज</t>
-  </si>
-  <si>
-    <t>डा0 सी0 वी0 रमन</t>
-  </si>
-  <si>
-    <t>इन्हें किस सन में भौतिकी का नोबेल पुरस्कार दिया गया?</t>
-  </si>
-  <si>
-    <t>1930 में.</t>
-  </si>
-  <si>
-    <t>यह मूलतः किस राज्य के थे?</t>
-  </si>
-  <si>
-    <t>चेन्नई</t>
-  </si>
-  <si>
-    <t>उक्त लोगो पहचाने?</t>
-  </si>
-  <si>
-    <t>IAEA (International Atomic Energy Agency)</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team3_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team3_Pic2.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team3_Pic3.jpg</t>
-  </si>
-  <si>
-    <t>उक्त प्रतिमा किस संत की है?</t>
-  </si>
-  <si>
-    <t>आदि गुरु शंकराचार्य</t>
-  </si>
-  <si>
-    <t>यह प्रतिमा कहाँ स्थापित है?</t>
-  </si>
-  <si>
-    <t>केदारनाथ (रुद्रप्रयाग)</t>
-  </si>
-  <si>
-    <t>इस प्रतिमा के मुख्य मूर्तिकार कौन थे?</t>
-  </si>
-  <si>
-    <t>योगिराज शिल्पी</t>
-  </si>
-  <si>
-    <t>उक्त चित्र किस व्यक्ति का है?</t>
-  </si>
-  <si>
-    <t>CDS अनिल चौहान</t>
-  </si>
-  <si>
-    <t>सी0दी0एस0 बनने से पूर्व सेना के किस पद से सेवानिवृत्त हुए थे?</t>
-  </si>
-  <si>
-    <t>लेफ्टिनेंट जनरल</t>
-  </si>
-  <si>
-    <t>मूलतः उत्तराखण्ड के किस जनपद से हैं?</t>
-  </si>
-  <si>
     <t>पौड़ी गढ़वाल</t>
   </si>
   <si>
-    <t>अंतर्राष्ट्रीय योग दिवस</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team4_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team4_Pic2.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team4_Pic3.jpg</t>
-  </si>
-  <si>
-    <t>उक्त चित्र किस मंदिर का है?</t>
-  </si>
-  <si>
-    <t>राम मंदिर (अयोध्या)</t>
-  </si>
-  <si>
-    <t>इस मंदिर के वास्तुकार का नाम बताएं?</t>
-  </si>
-  <si>
-    <t>चन्द्र कान्त सोमपुरा</t>
-  </si>
-  <si>
-    <t>प्रधानमंत्री नरेंद्र मोदी जी ने इसका शिलान्यास किस तिथि को किया?</t>
-  </si>
-  <si>
-    <t>5 अगस्त को</t>
-  </si>
-  <si>
-    <t>एस० जयशंकर</t>
-  </si>
-  <si>
-    <t>यह वर्तमान में किस पद पर हैं?</t>
-  </si>
-  <si>
-    <t>भारत केविदेश मंत्री</t>
-  </si>
-  <si>
-    <t>इनका पूरा नाम बताएं?</t>
-  </si>
-  <si>
-    <t>सुब्रह्मण्यम जयशंकर</t>
-  </si>
-  <si>
-    <t>भारतीय वायु सेना</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team5_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team5_Pic2.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team5_Pic3.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team6_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team6_Pic2.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\Visual\Visual_Team6_Pic3.jpg</t>
-  </si>
-  <si>
     <t>उक्त ईमारत का नाम बताएं?</t>
-  </si>
-  <si>
-    <t>मैसूर महल</t>
-  </si>
-  <si>
-    <t>यह किस राज्य में स्थित है?</t>
-  </si>
-  <si>
-    <t>इसका निर्माण किस वंश ने करवाया?</t>
-  </si>
-  <si>
-    <t>वाडियार वंश</t>
-  </si>
-  <si>
-    <t>होमी जहाँगीर भाभा</t>
-  </si>
-  <si>
-    <t>इन्होने विज्ञान के किस क्षेत्र में कार्य किया?</t>
-  </si>
-  <si>
-    <t>नाभिकीय/परमाणु ऊर्जा</t>
-  </si>
-  <si>
-    <t>भाभा जी का निधन विमान दुर्घटना में किस सन में हुआ?</t>
-  </si>
-  <si>
-    <t>1966 में.</t>
-  </si>
-  <si>
-    <t>ILO (International Labour Organization)</t>
   </si>
   <si>
     <t xml:space="preserve">SUTTER </t>
@@ -1347,22 +1083,280 @@
     <t>धारा-370</t>
   </si>
   <si>
-    <t>E:\quiz-app\public\inputQuiz\MCQ\MCQ_Team1.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\MCQ\MCQ_Team2.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\MCQ\MCQ_Team3.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\MCQ\MCQ_Team4.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\MCQ\MCQ_Team5.jpg</t>
-  </si>
-  <si>
-    <t>E:\quiz-app\public\inputQuiz\MCQ\MCQ_Team6.jpg</t>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team1.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team2.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team3.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team4.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team5.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team6.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic2.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic3.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic1.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic1.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic2.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic1.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic3.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic1.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic2.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic3.png</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic1.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic2.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic3.png</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic1.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic2.png</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic3.png</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic3.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic2.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual_Team1.m4v</t>
+  </si>
+  <si>
+    <t>डॉ. एम. एस. स्वामीनाथन</t>
+  </si>
+  <si>
+    <t>अल-अक्सा मस्जिद</t>
+  </si>
+  <si>
+    <t>चेन्नई, तमिलनाडु</t>
+  </si>
+  <si>
+    <t>कृषि वैज्ञानिक</t>
+  </si>
+  <si>
+    <t>यह किस देश में स्थित है?</t>
+  </si>
+  <si>
+    <t>इज़राइल(यरूशलेम)</t>
+  </si>
+  <si>
+    <t>7-8 शताब्दी</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>इनका संबंध मूलतः किस राज्य से है?</t>
+  </si>
+  <si>
+    <t>इनका संबंध किस क्षेत्र से है?</t>
+  </si>
+  <si>
+    <t>उक्त इमारत किस शताब्दी के मध्य बनी?</t>
+  </si>
+  <si>
+    <t>उक्त चित्र किस महिला का है?</t>
+  </si>
+  <si>
+    <t>आशा पारेख</t>
+  </si>
+  <si>
+    <t>दादा साहेब फाल्के पुरस्कार</t>
+  </si>
+  <si>
+    <t>मुंबई</t>
+  </si>
+  <si>
+    <t>उत्तराखंड विधान सभा</t>
+  </si>
+  <si>
+    <t>यह किस शहर/जनपद में स्थित है?</t>
+  </si>
+  <si>
+    <t>गैरसैंण(चमोली)</t>
+  </si>
+  <si>
+    <t>9 जून 2014 को</t>
+  </si>
+  <si>
+    <t>उक्त लोगो किस का है?</t>
+  </si>
+  <si>
+    <t>एशियाई खेल हांग्जो (चीन)</t>
+  </si>
+  <si>
+    <t>इन्हें वर्तमान में कौनसा पुरस्कार मिला?</t>
+  </si>
+  <si>
+    <t>इनका जन्म किस शहर में हुआ?</t>
+  </si>
+  <si>
+    <t>गैरसैंण मे पहला विधानसभा सत्र कब हुआ?</t>
+  </si>
+  <si>
+    <t>उक्त चित्र किस खिलाड़ी का है?</t>
+  </si>
+  <si>
+    <t>रमेशबाबू प्रग्गनानंद</t>
+  </si>
+  <si>
+    <t>इनका संबंध किस खेल से है?</t>
+  </si>
+  <si>
+    <t>माउंट रशमोर राष्ट्रीय स्मारक</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>जॉर्ज वाशिंगटन, थॉमस जेफरसन, थियोडोर रूजवेल्ट और अब्राहम लिंकन</t>
+  </si>
+  <si>
+    <t>उक्त चित्र में अमेरिका के चारों राष्ट्रपति के नाम बताए?</t>
+  </si>
+  <si>
+    <t>प्रधानमंत्री जन आरोग्य योजना (PM-JAY)</t>
+  </si>
+  <si>
+    <t>उक्त चित्र किस का है?</t>
+  </si>
+  <si>
+    <t>भुवन चंद्र खंडूरी</t>
+  </si>
+  <si>
+    <t>भारतीय सेना के किस पद से सेवानिवृत्त हुए?</t>
+  </si>
+  <si>
+    <t>मेजर जनरल</t>
+  </si>
+  <si>
+    <t>उत्तराखंड के मुख्यमंत्री कब बने?</t>
+  </si>
+  <si>
+    <t>8 मार्च 2007</t>
+  </si>
+  <si>
+    <t>पैलेस ऑफ वेस्टमिन्स्टर</t>
+  </si>
+  <si>
+    <t>ब्रिटेन</t>
+  </si>
+  <si>
+    <t>वर्तमान में यहाँ ब्रिटेन का क्या है?</t>
+  </si>
+  <si>
+    <t>ब्रिटेन की संसद</t>
+  </si>
+  <si>
+    <t>उक्त झंडा किस देश का है?</t>
+  </si>
+  <si>
+    <t>इजराइल</t>
+  </si>
+  <si>
+    <t>मार्शल ऑफ द एयर फोर्स अर्जन सिंह</t>
+  </si>
+  <si>
+    <t>इन्होंने कौन से भारत पाकिस्तान युद्ध में प्रसिद्धि अर्जित की?</t>
+  </si>
+  <si>
+    <t>इनकी मृत्यु कब हुई?</t>
+  </si>
+  <si>
+    <t>16 सितम्बर 2017</t>
+  </si>
+  <si>
+    <t>उक्त मंदिर का नाम बताएं?</t>
+  </si>
+  <si>
+    <t>जागेश्वर धाम</t>
+  </si>
+  <si>
+    <t>ये उत्तराखंड के किस जनपद में स्थित है?</t>
+  </si>
+  <si>
+    <t>अल्मोडा</t>
+  </si>
+  <si>
+    <t>इसका निर्माण किस राजवंश ने कराया?</t>
+  </si>
+  <si>
+    <t>कत्यूरी राजवंश</t>
+  </si>
+  <si>
+    <t>यूरोपीय संघ</t>
+  </si>
+  <si>
+    <t>नरगिस सफ़ी मोहम्मदी</t>
+  </si>
+  <si>
+    <t>इनका संबंध किस देश से है?</t>
+  </si>
+  <si>
+    <t>ईरान</t>
+  </si>
+  <si>
+    <t>इन्हें 2023 में नोबल शांति पुरस्कार किस कार्य के लिए मिला?</t>
+  </si>
+  <si>
+    <t>मानवाधिकार कार्यकर्ता</t>
+  </si>
+  <si>
+    <t>अंकोरवाट मन्दिर</t>
+  </si>
+  <si>
+    <t>यह मंदिर किस देश में स्थित है?</t>
+  </si>
+  <si>
+    <t>कम्बोडिया</t>
+  </si>
+  <si>
+    <t>यह मंदिर किस भगवान का है?</t>
+  </si>
+  <si>
+    <t>विष्णु भगवान</t>
+  </si>
+  <si>
+    <t>उक्त लोगो(वस्तु) का नाम बताइए?</t>
+  </si>
+  <si>
+    <t>सेंगोल</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1777,6 +1771,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2096,10 +2096,10 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,11 +2108,11 @@
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2156,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="H2" s="5">
         <v>30</v>
@@ -2186,19 +2186,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="H3" s="7">
         <v>30</v>
@@ -2216,19 +2216,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -2246,25 +2246,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
       <c r="J5" s="8">
         <v>5</v>
@@ -2278,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
@@ -2308,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="H7" s="5">
         <v>30</v>
@@ -2338,19 +2338,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -2368,19 +2368,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -2398,25 +2398,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="J10" s="8">
         <v>5</v>
@@ -2430,19 +2430,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="H11" s="10">
         <v>60</v>
@@ -2460,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="H12" s="5">
         <v>30</v>
@@ -2490,19 +2490,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2520,19 +2520,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -2550,25 +2550,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="J15" s="8">
         <v>5</v>
@@ -2582,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="D16" s="10">
         <v>45</v>
@@ -2612,19 +2612,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="H17" s="5">
         <v>30</v>
@@ -2642,19 +2642,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2672,19 +2672,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2702,25 +2702,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="J20" s="8">
         <v>5</v>
@@ -2734,19 +2734,19 @@
         <v>4</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="H21" s="10">
         <v>60</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="H22" s="5">
         <v>30</v>
@@ -2794,19 +2794,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2824,19 +2824,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2854,25 +2854,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="J25" s="8">
         <v>5</v>
@@ -2886,19 +2886,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="H26" s="10">
         <v>60</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="H27" s="5">
         <v>30</v>
@@ -2946,19 +2946,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -2976,19 +2976,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -3006,25 +3006,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="J30" s="8">
         <v>5</v>
@@ -3038,19 +3038,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="H31" s="10">
         <v>60</v>
@@ -3078,45 +3078,45 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>38</v>
+      <c r="H1" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3130,13 +3130,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="E2" s="5">
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="G2" s="5">
         <v>15</v>
@@ -3149,22 +3149,22 @@
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="59">
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="7">
+        <v>361</v>
+      </c>
+      <c r="G3" s="59">
         <v>15</v>
       </c>
       <c r="H3" s="8">
@@ -3175,22 +3175,22 @@
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="59">
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="7">
+        <v>361</v>
+      </c>
+      <c r="G4" s="59">
         <v>15</v>
       </c>
       <c r="H4" s="8">
@@ -3201,22 +3201,22 @@
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="59">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="7">
+        <v>362</v>
+      </c>
+      <c r="G5" s="59">
         <v>15</v>
       </c>
       <c r="H5" s="8">
@@ -3227,22 +3227,22 @@
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="59">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="7">
+        <v>362</v>
+      </c>
+      <c r="G6" s="59">
         <v>15</v>
       </c>
       <c r="H6" s="8">
@@ -3253,22 +3253,22 @@
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="59">
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="7">
+        <v>362</v>
+      </c>
+      <c r="G7" s="59">
         <v>15</v>
       </c>
       <c r="H7" s="8">
@@ -3276,28 +3276,28 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="7">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="7">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="10">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="10">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11">
         <v>10</v>
       </c>
     </row>
@@ -3309,16 +3309,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="E9" s="5">
         <v>15</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="G9" s="5">
         <v>15</v>
@@ -3331,22 +3331,22 @@
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="59">
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="7">
+        <v>364</v>
+      </c>
+      <c r="G10" s="59">
         <v>15</v>
       </c>
       <c r="H10" s="8">
@@ -3357,22 +3357,22 @@
       <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="59">
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="7">
+        <v>364</v>
+      </c>
+      <c r="G11" s="59">
         <v>15</v>
       </c>
       <c r="H11" s="8">
@@ -3383,22 +3383,22 @@
       <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="59">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7">
+        <v>365</v>
+      </c>
+      <c r="G12" s="59">
         <v>15</v>
       </c>
       <c r="H12" s="8">
@@ -3409,22 +3409,22 @@
       <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7">
+        <v>389</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="59">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="7">
+        <v>365</v>
+      </c>
+      <c r="G13" s="59">
         <v>15</v>
       </c>
       <c r="H13" s="8">
@@ -3435,22 +3435,22 @@
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="C14" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="59">
         <v>15</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="7">
+        <v>365</v>
+      </c>
+      <c r="G14" s="59">
         <v>15</v>
       </c>
       <c r="H14" s="8">
@@ -3458,28 +3458,28 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="7">
-        <v>15</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="7">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="C15" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="10">
+        <v>15</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" s="10">
+        <v>15</v>
+      </c>
+      <c r="H15" s="11">
         <v>10</v>
       </c>
     </row>
@@ -3491,16 +3491,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>88</v>
+        <v>397</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>89</v>
+        <v>398</v>
       </c>
       <c r="E16" s="5">
         <v>15</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="G16" s="5">
         <v>15</v>
@@ -3517,16 +3517,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>399</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="E17" s="7">
         <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7">
         <v>15</v>
@@ -3543,16 +3543,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>92</v>
+        <v>381</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="E18" s="7">
         <v>15</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="G18" s="7">
         <v>15</v>
@@ -3568,17 +3568,17 @@
       <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>83</v>
+      <c r="C19" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>93</v>
+        <v>400</v>
       </c>
       <c r="E19" s="7">
         <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>101</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7">
         <v>15</v>
@@ -3595,16 +3595,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>94</v>
+        <v>377</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>95</v>
+        <v>401</v>
       </c>
       <c r="E20" s="7">
         <v>15</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>101</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7">
         <v>15</v>
@@ -3621,16 +3621,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>96</v>
+        <v>403</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="E21" s="7">
         <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>101</v>
+        <v>354</v>
       </c>
       <c r="G21" s="7">
         <v>15</v>
@@ -3647,16 +3647,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="E22" s="7">
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>102</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7">
         <v>15</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>103</v>
+        <v>405</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>104</v>
+        <v>406</v>
       </c>
       <c r="E23" s="5">
         <v>15</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="G23" s="5">
         <v>15</v>
@@ -3699,16 +3699,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="E24" s="7">
         <v>15</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="G24" s="7">
         <v>15</v>
@@ -3725,16 +3725,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>108</v>
+        <v>410</v>
       </c>
       <c r="E25" s="7">
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="G25" s="7">
         <v>15</v>
@@ -3750,17 +3750,17 @@
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>109</v>
+      <c r="C26" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>110</v>
+        <v>411</v>
       </c>
       <c r="E26" s="7">
         <v>15</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>117</v>
+        <v>368</v>
       </c>
       <c r="G26" s="7">
         <v>15</v>
@@ -3777,16 +3777,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="E27" s="7">
         <v>15</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>117</v>
+        <v>368</v>
       </c>
       <c r="G27" s="7">
         <v>15</v>
@@ -3803,16 +3803,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>113</v>
+        <v>413</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>114</v>
+        <v>414</v>
       </c>
       <c r="E28" s="7">
         <v>15</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>117</v>
+        <v>368</v>
       </c>
       <c r="G28" s="7">
         <v>15</v>
@@ -3829,16 +3829,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>115</v>
+        <v>416</v>
       </c>
       <c r="E29" s="7">
         <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>118</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7">
         <v>15</v>
@@ -3855,16 +3855,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>120</v>
+        <v>417</v>
       </c>
       <c r="E30" s="5">
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="G30" s="5">
         <v>15</v>
@@ -3877,22 +3877,22 @@
       <c r="A31" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="C31" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="59">
+        <v>1965</v>
+      </c>
+      <c r="E31" s="59">
         <v>15</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="7">
+        <v>357</v>
+      </c>
+      <c r="G31" s="59">
         <v>15</v>
       </c>
       <c r="H31" s="8">
@@ -3903,22 +3903,22 @@
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="C32" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" s="59">
         <v>15</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="7">
+        <v>357</v>
+      </c>
+      <c r="G32" s="59">
         <v>15</v>
       </c>
       <c r="H32" s="8">
@@ -3929,22 +3929,22 @@
       <c r="A33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="C33" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="E33" s="59">
         <v>15</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="7">
+        <v>358</v>
+      </c>
+      <c r="G33" s="59">
         <v>15</v>
       </c>
       <c r="H33" s="8">
@@ -3955,22 +3955,22 @@
       <c r="A34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="C34" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="E34" s="59">
         <v>15</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="7">
+        <v>358</v>
+      </c>
+      <c r="G34" s="59">
         <v>15</v>
       </c>
       <c r="H34" s="8">
@@ -3981,22 +3981,22 @@
       <c r="A35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="C35" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="E35" s="59">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="7">
+        <v>358</v>
+      </c>
+      <c r="G35" s="59">
         <v>15</v>
       </c>
       <c r="H35" s="8">
@@ -4004,28 +4004,28 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="7">
-        <v>15</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="7">
-        <v>15</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="C36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E36" s="10">
+        <v>15</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G36" s="10">
+        <v>15</v>
+      </c>
+      <c r="H36" s="11">
         <v>10</v>
       </c>
     </row>
@@ -4037,16 +4037,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>137</v>
+        <v>384</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>138</v>
+        <v>428</v>
       </c>
       <c r="E37" s="5">
         <v>15</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="G37" s="5">
         <v>15</v>
@@ -4062,17 +4062,17 @@
       <c r="B38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>139</v>
+      <c r="C38" s="59" t="s">
+        <v>429</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>71</v>
+        <v>430</v>
       </c>
       <c r="E38" s="7">
         <v>15</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="G38" s="7">
         <v>15</v>
@@ -4089,16 +4089,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>140</v>
+        <v>431</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>141</v>
+        <v>432</v>
       </c>
       <c r="E39" s="7">
         <v>15</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="G39" s="7">
         <v>15</v>
@@ -4114,17 +4114,17 @@
       <c r="B40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>109</v>
+      <c r="C40" s="59" t="s">
+        <v>421</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>142</v>
+        <v>433</v>
       </c>
       <c r="E40" s="7">
         <v>15</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>135</v>
+        <v>371</v>
       </c>
       <c r="G40" s="7">
         <v>15</v>
@@ -4141,16 +4141,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>143</v>
+        <v>434</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>144</v>
+        <v>435</v>
       </c>
       <c r="E41" s="7">
         <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>135</v>
+        <v>371</v>
       </c>
       <c r="G41" s="7">
         <v>15</v>
@@ -4167,16 +4167,16 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>145</v>
+        <v>436</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>146</v>
+        <v>437</v>
       </c>
       <c r="E42" s="7">
         <v>15</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>135</v>
+        <v>371</v>
       </c>
       <c r="G42" s="7">
         <v>15</v>
@@ -4193,16 +4193,16 @@
         <v>22</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>36</v>
+        <v>438</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="E43" s="10">
         <v>15</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="G43" s="10">
         <v>15</v>
@@ -4249,7 +4249,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>14</v>
@@ -4258,18 +4258,18 @@
         <v>18</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5">
         <v>120</v>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7">
         <v>120</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="C4" s="7">
         <v>120</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7">
         <v>120</v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7">
         <v>120</v>
@@ -4351,10 +4351,10 @@
     </row>
     <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="C7" s="10">
         <v>120</v>
@@ -4381,7 +4381,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,13 +4414,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5">
         <v>30</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="G2" s="5">
         <v>120</v>
@@ -4457,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7">
         <v>30</v>
@@ -4479,10 +4479,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10">
         <v>30</v>
@@ -4501,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5">
         <v>30</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="G5" s="5">
         <v>120</v>
@@ -4527,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7">
         <v>30</v>
@@ -4549,10 +4549,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E7" s="10">
         <v>30</v>
@@ -4571,16 +4571,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5">
         <v>30</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="G8" s="5">
         <v>120</v>
@@ -4597,10 +4597,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7">
         <v>30</v>
@@ -4619,10 +4619,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E10" s="10">
         <v>30</v>
@@ -4641,16 +4641,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5">
         <v>30</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="G11" s="5">
         <v>120</v>
@@ -4667,10 +4667,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E12" s="7">
         <v>30</v>
@@ -4689,10 +4689,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E13" s="10">
         <v>30</v>
@@ -4711,16 +4711,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5">
         <v>30</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="G14" s="5">
         <v>120</v>
@@ -4737,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7">
         <v>30</v>
@@ -4759,10 +4759,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E16" s="10">
         <v>30</v>
@@ -4781,16 +4781,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5">
         <v>30</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="G17" s="5">
         <v>120</v>
@@ -4807,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E18" s="7">
         <v>30</v>
@@ -4829,10 +4829,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E19" s="10">
         <v>30</v>
@@ -4857,7 +4857,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4888,7 +4888,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4899,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="E2" s="35">
         <v>60</v>
@@ -4919,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="38">
@@ -4937,10 +4937,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="38">
@@ -4955,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="D5" s="37">
         <v>7</v>
@@ -4973,10 +4973,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="38">
@@ -4991,10 +4991,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="38">
@@ -5009,10 +5009,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="38">
@@ -5024,13 +5024,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38">
@@ -5042,13 +5042,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38">
@@ -5060,13 +5060,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="40">
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="E12" s="35">
         <v>60</v>
@@ -5101,10 +5101,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38">
@@ -5119,10 +5119,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38">
@@ -5137,10 +5137,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38">
@@ -5155,10 +5155,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38">
@@ -5173,10 +5173,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38">
@@ -5191,10 +5191,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38">
@@ -5206,13 +5206,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
@@ -5224,13 +5224,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="38">
@@ -5242,13 +5242,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40">
@@ -5263,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="E22" s="35">
         <v>60</v>
@@ -5283,10 +5283,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38">
@@ -5301,10 +5301,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38">
@@ -5319,10 +5319,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38">
@@ -5337,10 +5337,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38">
@@ -5355,10 +5355,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38">
@@ -5373,10 +5373,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38">
@@ -5388,13 +5388,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38">
@@ -5406,13 +5406,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38">
@@ -5424,13 +5424,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="40">
@@ -5445,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="E32" s="35">
         <v>60</v>
@@ -5465,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38">
@@ -5483,10 +5483,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38">
@@ -5501,10 +5501,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>407</v>
+        <v>319</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38">
@@ -5519,10 +5519,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38">
@@ -5537,10 +5537,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38">
@@ -5555,10 +5555,10 @@
         <v>22</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38">
@@ -5570,13 +5570,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38">
@@ -5588,13 +5588,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38">
@@ -5606,13 +5606,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40">
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="E42" s="35">
         <v>60</v>
@@ -5647,10 +5647,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>415</v>
+        <v>327</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38">
@@ -5665,10 +5665,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38">
@@ -5701,10 +5701,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38">
@@ -5719,10 +5719,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38">
@@ -5737,10 +5737,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38">
@@ -5752,13 +5752,13 @@
         <v>10</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38">
@@ -5770,13 +5770,13 @@
         <v>10</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38">
@@ -5788,13 +5788,13 @@
         <v>10</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>423</v>
+        <v>335</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="40">
@@ -5809,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>424</v>
+        <v>336</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="E52" s="35">
         <v>60</v>
@@ -5829,10 +5829,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38">
@@ -5847,10 +5847,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38">
@@ -5865,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>427</v>
+        <v>339</v>
       </c>
       <c r="D55" s="37">
         <v>6</v>
@@ -5883,10 +5883,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>428</v>
+        <v>340</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="38">
@@ -5901,10 +5901,10 @@
         <v>21</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38">
@@ -5919,10 +5919,10 @@
         <v>22</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>430</v>
+        <v>342</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38">
@@ -5934,13 +5934,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38">
@@ -5952,13 +5952,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38">
@@ -5970,13 +5970,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="40">
@@ -6025,10 +6025,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -6036,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="D2" s="26">
         <v>30</v>
@@ -6056,10 +6056,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="D3" s="48">
         <v>30</v>
@@ -6076,10 +6076,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="D4" s="48">
         <v>30</v>
@@ -6096,10 +6096,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="D5" s="48">
         <v>30</v>
@@ -6116,10 +6116,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="D6" s="48">
         <v>30</v>
@@ -6136,10 +6136,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D7" s="48">
         <v>30</v>
@@ -6156,10 +6156,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="D8" s="48">
         <v>30</v>
@@ -6173,13 +6173,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="D9" s="48">
         <v>30</v>
@@ -6193,13 +6193,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="D10" s="48">
         <v>30</v>
@@ -6213,13 +6213,13 @@
     </row>
     <row r="11" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D11" s="48">
         <v>30</v>
@@ -6233,13 +6233,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="D12" s="48">
         <v>30</v>
@@ -6253,13 +6253,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="D13" s="48">
         <v>30</v>
@@ -6273,13 +6273,13 @@
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D14" s="48">
         <v>30</v>
@@ -6293,13 +6293,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D15" s="48">
         <v>30</v>
@@ -6313,13 +6313,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D16" s="48">
         <v>30</v>
@@ -6333,13 +6333,13 @@
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D17" s="29">
         <v>30</v>

--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\QUIZ\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFB460C-2A1C-44B2-9D6B-FE6080849AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147AA406-D09C-4B7C-B667-883F09FC5355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ Round" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>औरंगजेब ने श्री गुरूगोविन्द सिंह के साहिबजादे जोरावर सिंह साहब व फतेह सिंह साहब दोनों को दीवार में जिंदा चुनवा दिया था। इस दिन की याद में वीर बाल दिवस किस तिथि को मनाया जाता हैं?</t>
   </si>
   <si>
-    <t>अभी हाल में प्रधानमंत्री मोदी जी ने संसद के विशेष सत्र में नारी शक्ति वंदन अधिनियम पारित किया। यह कौनस वाॅ संविधान संशोधन था?</t>
-  </si>
-  <si>
     <t>भारत का एकमात्र राज्य जिसकी राज्य भाषा अंग्रजी है?</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>26 दिसम्बर</t>
   </si>
   <si>
-    <t>राॅसकाॅस्माॅस</t>
-  </si>
-  <si>
     <t>द एलिफेंट व्हिस्पर्स</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>माइकल फेलप्स</t>
   </si>
   <si>
-    <t>128 वाॅ संविधान संशोधन</t>
-  </si>
-  <si>
     <t>नीलम संजीव रेड्डी</t>
   </si>
   <si>
@@ -326,12 +317,6 @@
     <t>विश्व मानचित्र पर दर्शाये जा रहे सागर का नाम बतायेंघ्?</t>
   </si>
   <si>
-    <t>एक डाॅक्टर मरीज को 6 गोली देता है तथा प्रति 4 घण्टे बाद एक गोली लेने को कहता है। यदि मरीज पहली गोली 4 बजे सांय को लेता है तो अन्तिम गोली कब लेगा?</t>
-  </si>
-  <si>
-    <t>‘‘उत्तराखण्ड में चर्चा मे रहा ‘‘मिशन लाल लोमड़ी‘‘ या ‘‘रेड फाॅक्स‘‘ अभियान किसके लिए चलाया जायेगा?</t>
-  </si>
-  <si>
     <t>चन्द्रयान-3 भारतीय कैरियर राकेट का संबध किससे हैं?</t>
   </si>
   <si>
@@ -365,9 +350,6 @@
     <t>G-20 की शुरूआत किस रूप में हुई थी?</t>
   </si>
   <si>
-    <t>भुवन की ओर इशारा करते हुए मधु ने कहा, ‘‘ वह मेरे पिता के इकलौते बेटे का बेटा है‘‘। भुवन की माॅ का मधु से सम्बन्ध होगा?</t>
-  </si>
-  <si>
     <t>2011 की जनगणना के अनुसार उत्तरखण्ड के किस जिले की महिला साक्षरता न्यूनतम हैं?</t>
   </si>
   <si>
@@ -383,9 +365,6 @@
     <t>एक कक्षा में 15 छात्र गणित में अनुत्तीर्ण हुये, 20 छात्र भौतिक विज्ञान में अनुत्तीर्ण हुये तथा 10 छात्र दोनों गणित एवं भौतिक विज्ञान में अनुत्तीर्ण हुये। कक्षा में कितने छात्र अनुत्तीर्ण हुये?</t>
   </si>
   <si>
-    <t>यदि “SUMMER” को “RUNNER”से कूट किया जाता है तो आप “WINTER”को कैसे कूट करेेंगें?</t>
-  </si>
-  <si>
     <t>फ्रैंक स्मिथ</t>
   </si>
   <si>
@@ -437,9 +416,6 @@
     <t xml:space="preserve">23 अगस्त, 2023 </t>
   </si>
   <si>
-    <t xml:space="preserve">ग्रुप आॅफ ट्वेंटी </t>
-  </si>
-  <si>
     <t>25 छात्र</t>
   </si>
   <si>
@@ -479,9 +455,6 @@
     <t xml:space="preserve">21 अगस्त, 2023 </t>
   </si>
   <si>
-    <t xml:space="preserve">गोल आॅफ ट्वेंटी </t>
-  </si>
-  <si>
     <t>स्वेज नहर</t>
   </si>
   <si>
@@ -527,9 +500,6 @@
     <t xml:space="preserve">19 जुलाई, 2023 </t>
   </si>
   <si>
-    <t xml:space="preserve">गैंग आॅफ ट्वेंटी </t>
-  </si>
-  <si>
     <t xml:space="preserve">कील नहर </t>
   </si>
   <si>
@@ -569,9 +539,6 @@
     <t>लाल सागर</t>
   </si>
   <si>
-    <t>04 बजे साॅय</t>
-  </si>
-  <si>
     <t>लोमड़ी</t>
   </si>
   <si>
@@ -584,9 +551,6 @@
     <t>पुष्पेश पंत</t>
   </si>
   <si>
-    <t xml:space="preserve">प्रोपल्शन माॅड्यूल </t>
-  </si>
-  <si>
     <t>राॅकीज</t>
   </si>
   <si>
@@ -689,9 +653,6 @@
     <t xml:space="preserve">तिब्बत </t>
   </si>
   <si>
-    <t>ग्रेट आॅफ ट्वेंटी</t>
-  </si>
-  <si>
     <t>उत्तराखण्ड में ‘‘हरियाली दिवस‘‘ कब मनाया जाता है?</t>
   </si>
   <si>
@@ -722,9 +683,6 @@
     <t>‘‘भारतीय रिजर्व बैंक‘‘ की स्थापना कब हुई?</t>
   </si>
   <si>
-    <t>‘‘लिपुुलेख दर्रा‘‘ उत्तराखण्ड के किस जनपद में है?</t>
-  </si>
-  <si>
     <t>भारत की प्रथम महिला आई.पी.एस. अधिकारी का क्या नाम है?</t>
   </si>
   <si>
@@ -776,9 +734,6 @@
     <t>राज्य सरकार की बर्खास्तगी किस अनुच्छेद के द्वारा होती है?</t>
   </si>
   <si>
-    <t>‘‘आॅपरेशन सूर्य होप‘‘ उत्तराखण्ड में किससे सम्बन्धित हैं?</t>
-  </si>
-  <si>
     <t>मध्याह्न भोजन कार्यक्रम (MID DAY MEAL- MDM) की शुरूआत कब हुइ?</t>
   </si>
   <si>
@@ -884,9 +839,6 @@
     <t>असम</t>
   </si>
   <si>
-    <t>52 वाॅ संविधान संशोधन</t>
-  </si>
-  <si>
     <t>1 जुलाई, 2017</t>
   </si>
   <si>
@@ -942,9 +894,6 @@
   </si>
   <si>
     <t>आदित्य L-1</t>
-  </si>
-  <si>
-    <t>AUTOMATED TELLER MACHINE (आॅटोमेटेड टेलर मशीन)</t>
   </si>
   <si>
     <t>भारत के प्रसिद्व खिलाड़ीप्रज्ञानानंद का सम्बन्ध किस खेल से हैं?</t>
@@ -955,18 +904,6 @@
   <si>
     <t>National Institution for Transforming India_x000D_
 (राष्ट्रिय भारत परिवर्तन संसथान)</t>
-  </si>
-  <si>
-    <t>20 जुलाईए 2023 को रूस चन्द्रयान मिशन लूना.25 नष्ट हो गया। रूसी अंतरिक्ष एजेंसी का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>इस वर्ष भारत ने इतिहास रचाए जब पहली बार भारत को दो आॅस्कर अवार्ड मिलेए एक त्त्त् फिल्म के गाने नाटू.नाटू को एवं बतायें दूसरा अवार्ड किस डाॅक्यूमेंटी मूवी को मिला?</t>
-  </si>
-  <si>
-    <t>मोबाइल फोनए लैपटाॅपए डिजिटल कैमराए इलैक्टिक वाहन के लिए रिचार्बेल बैटरी में उपयोग होने वाला महत्वपूर्ण खनिज का अरबों का खजाना जम्मू.कश्मीर के रियासी में मिलाए उस खनिज का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>14 नवम्बरए 2012 को च्व्ब्ैव् एक्ट पास हुआ जो बच्चों से सम्बन्धित है। इसका शब्द विस्तार बतायें?</t>
   </si>
   <si>
     <t>प्रधानमंत्री मोदी जी के प्रयासों से दक्षिण अफ्रीकी देश नामीबिया से चीते की आठ शावकों को लाया गया। उन्हें देश के किस राष्टीय पार्क में रखा गया हैए उसका नाम बतायें?</t>
@@ -1035,9 +972,6 @@
     <t>‘‘राष्ट्रीय एकता दिवस ‘‘ किस तिथि को मनाया जाता है?</t>
   </si>
   <si>
-    <t>डाॅक्टर द्वारा आँख एवं नाक की जाँच करने के लिए किस दर्पण का प्रयोग किया जाता है?</t>
-  </si>
-  <si>
     <t>हीराकुंड परियोजना किस नदी पर बनी है?</t>
   </si>
   <si>
@@ -1357,6 +1291,72 @@
   </si>
   <si>
     <t>सेंगोल</t>
+  </si>
+  <si>
+    <t>यदि “SUMMER” को “RUNNER”से कूट किया जाता है तो आप “WINTER”को कैसे कूट करेंगे?</t>
+  </si>
+  <si>
+    <t>‘‘उत्तराखण्ड में चर्चा मे रहा ‘‘मिशन लाल लोमड़ी‘‘ या ‘‘रेड फैक्स‘‘ अभियान किसके लिए चलाया जायेगा?</t>
+  </si>
+  <si>
+    <t>भुवन की ओर इशारा करते हुए मधु ने कहा, ‘‘ वह मेरे पिता के इकलौते बेटे का बेटा है‘‘। भुवन की माँ का मधु से सम्बन्ध होगा?</t>
+  </si>
+  <si>
+    <t>ग्रुप आफ ट्वेन्टी</t>
+  </si>
+  <si>
+    <t>गोल आफॅफ ट्वेंटी</t>
+  </si>
+  <si>
+    <t>गैंग आफ ट्वेंटी</t>
+  </si>
+  <si>
+    <t>ग्रेट आफ़ ट्वेंटी</t>
+  </si>
+  <si>
+    <t>04 बजे सायं</t>
+  </si>
+  <si>
+    <t>प्रोपल्शन मॉड्यूल</t>
+  </si>
+  <si>
+    <t>52 वाँ संविधान संशोधन</t>
+  </si>
+  <si>
+    <t>AUTOMATED TELLER MACHINE (ऑटोमेटेड टेलर मशीन)</t>
+  </si>
+  <si>
+    <t>‘‘लिपुलेख दर्रा‘‘ उत्तराखण्ड के किस जनपद में है?</t>
+  </si>
+  <si>
+    <t>‘‘ऑपरेशन सूर्य होप‘‘ उत्तराखण्ड में किससे सम्बन्धित हैं?</t>
+  </si>
+  <si>
+    <t>डॉक्टर द्वारा आँख एवं नाक की जाँच करने के लिए किस दर्पण का प्रयोग किया जाता है?</t>
+  </si>
+  <si>
+    <t>एक डॉक्टर मरीज को 6 गोली देता है तथा प्रति 4 घण्टे बाद एक गोली लेने को कहता है। यदि मरीज पहली गोली 4 बजे सांय को लेता है तो अन्तिम गोली कब लेगा?</t>
+  </si>
+  <si>
+    <t>20 जुलाई 2023 को रूस चंद्रयान मिशन लूना.25 नष्ट हो गया। रूसी अंतरिक्ष एजेंसी का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>रोस्कोस्मॉस</t>
+  </si>
+  <si>
+    <t>इस वर्ष भारत ने इतिहास रचाए जब पहली बार भारत को दो ऑस्कर अवार्ड मिलेए एक त्त्त् फिल्म के गाने नाटू.नाटू को एवं बतायें दूसरा अवार्ड किस डाॅक्यूमेंटी मूवी को मिला?</t>
+  </si>
+  <si>
+    <t>मोबाइल फोन लैपटॉप डिजिटल कैमराए इलैक्टिक वाहन के लिए रिचार्बेल बैटरी में उपयोग होने वाला महत्वपूर्ण खनिज का अरबों का खजाना जम्मू.कश्मीर के रियासी में मिलाए उस खनिज का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>14 नवंबर 2012 को च्व्व् एक्ट पास हुआ जो बच्चों से सम्बन्धित है। इसका शब्द विस्तार बतायें?</t>
+  </si>
+  <si>
+    <t>128 वाँ संविधान संशोधन</t>
+  </si>
+  <si>
+    <t>अभी हाल में प्रधानमंत्री मोदी जी ने संसद के विशेष सत्र में नारी शक्ति वंदन अधिनियम पारित किया। यह कौनस वाँ संविधान संशोधन था?</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1771,12 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2095,11 +2089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80B8FA1-5345-4688-97AC-4E59F5750F89}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,19 +2150,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H2" s="5">
         <v>30</v>
@@ -2186,19 +2180,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H3" s="7">
         <v>30</v>
@@ -2216,19 +2210,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -2246,25 +2240,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="J5" s="8">
         <v>5</v>
@@ -2278,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
@@ -2308,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H7" s="5">
         <v>30</v>
@@ -2338,19 +2332,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -2368,19 +2362,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -2398,25 +2392,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="J10" s="8">
         <v>5</v>
@@ -2430,19 +2424,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>179</v>
+        <v>425</v>
       </c>
       <c r="H11" s="10">
         <v>60</v>
@@ -2460,19 +2454,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>99</v>
+        <v>419</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H12" s="5">
         <v>30</v>
@@ -2490,19 +2484,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2520,19 +2514,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -2550,25 +2544,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="J15" s="8">
         <v>5</v>
@@ -2582,7 +2576,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D16" s="10">
         <v>45</v>
@@ -2612,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H17" s="5">
         <v>30</v>
@@ -2642,19 +2636,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>184</v>
+        <v>426</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2672,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>54</v>
@@ -2702,25 +2696,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="J20" s="8">
         <v>5</v>
@@ -2734,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>62</v>
@@ -2743,7 +2737,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>61</v>
@@ -2764,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H22" s="5">
         <v>30</v>
@@ -2794,19 +2788,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2824,19 +2818,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2854,25 +2848,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="J25" s="8">
         <v>5</v>
@@ -2886,19 +2880,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>111</v>
+        <v>420</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="H26" s="10">
         <v>60</v>
@@ -2916,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H27" s="5">
         <v>30</v>
@@ -2946,19 +2940,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -2976,19 +2970,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>135</v>
+        <v>421</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>422</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>423</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>219</v>
+        <v>424</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -3006,25 +3000,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="J30" s="8">
         <v>5</v>
@@ -3038,19 +3032,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H31" s="10">
         <v>60</v>
@@ -3075,7 +3069,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
@@ -3130,13 +3124,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="E2" s="5">
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="G2" s="5">
         <v>15</v>
@@ -3149,22 +3143,22 @@
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="E3" s="59">
+      <c r="C3" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" s="7">
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G3" s="59">
+        <v>339</v>
+      </c>
+      <c r="G3" s="7">
         <v>15</v>
       </c>
       <c r="H3" s="8">
@@ -3175,22 +3169,22 @@
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="59">
+      <c r="C4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="7">
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G4" s="59">
+        <v>339</v>
+      </c>
+      <c r="G4" s="7">
         <v>15</v>
       </c>
       <c r="H4" s="8">
@@ -3201,22 +3195,22 @@
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="E5" s="59">
+      <c r="D5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="7">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G5" s="59">
+        <v>340</v>
+      </c>
+      <c r="G5" s="7">
         <v>15</v>
       </c>
       <c r="H5" s="8">
@@ -3227,22 +3221,22 @@
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="E6" s="59">
+      <c r="C6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="7">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G6" s="59">
+        <v>340</v>
+      </c>
+      <c r="G6" s="7">
         <v>15</v>
       </c>
       <c r="H6" s="8">
@@ -3253,22 +3247,22 @@
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" s="59">
+      <c r="C7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="7">
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G7" s="59">
+        <v>340</v>
+      </c>
+      <c r="G7" s="7">
         <v>15</v>
       </c>
       <c r="H7" s="8">
@@ -3286,13 +3280,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="E8" s="10">
         <v>15</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="G8" s="10">
         <v>15</v>
@@ -3309,16 +3303,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E9" s="5">
         <v>15</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G9" s="5">
         <v>15</v>
@@ -3331,22 +3325,22 @@
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" s="59">
+      <c r="C10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="7">
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="G10" s="59">
+        <v>342</v>
+      </c>
+      <c r="G10" s="7">
         <v>15</v>
       </c>
       <c r="H10" s="8">
@@ -3357,22 +3351,22 @@
       <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>395</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>387</v>
-      </c>
-      <c r="E11" s="59">
+      <c r="C11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" s="7">
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="G11" s="59">
+        <v>342</v>
+      </c>
+      <c r="G11" s="7">
         <v>15</v>
       </c>
       <c r="H11" s="8">
@@ -3383,22 +3377,22 @@
       <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="E12" s="59">
+      <c r="D12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" s="7">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G12" s="59">
+        <v>343</v>
+      </c>
+      <c r="G12" s="7">
         <v>15</v>
       </c>
       <c r="H12" s="8">
@@ -3409,22 +3403,22 @@
       <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="E13" s="59">
+        <v>367</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="7">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G13" s="59">
+        <v>343</v>
+      </c>
+      <c r="G13" s="7">
         <v>15</v>
       </c>
       <c r="H13" s="8">
@@ -3435,22 +3429,22 @@
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>391</v>
-      </c>
-      <c r="E14" s="59">
+      <c r="C14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14" s="7">
         <v>15</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G14" s="59">
+        <v>343</v>
+      </c>
+      <c r="G14" s="7">
         <v>15</v>
       </c>
       <c r="H14" s="8">
@@ -3465,16 +3459,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="E15" s="10">
         <v>15</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="G15" s="10">
         <v>15</v>
@@ -3491,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="E16" s="5">
         <v>15</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="G16" s="5">
         <v>15</v>
@@ -3517,16 +3511,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E17" s="7">
         <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7">
         <v>15</v>
@@ -3543,16 +3537,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="E18" s="7">
         <v>15</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="G18" s="7">
         <v>15</v>
@@ -3568,17 +3562,17 @@
       <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="E19" s="7">
         <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7">
         <v>15</v>
@@ -3595,16 +3589,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="E20" s="7">
         <v>15</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7">
         <v>15</v>
@@ -3621,16 +3615,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="E21" s="7">
         <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="G21" s="7">
         <v>15</v>
@@ -3650,13 +3644,13 @@
         <v>26</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="E22" s="7">
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="G22" s="7">
         <v>15</v>
@@ -3673,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="E23" s="5">
         <v>15</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="G23" s="5">
         <v>15</v>
@@ -3699,16 +3693,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="E24" s="7">
         <v>15</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7">
         <v>15</v>
@@ -3725,16 +3719,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="E25" s="7">
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7">
         <v>15</v>
@@ -3750,17 +3744,17 @@
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="E26" s="7">
         <v>15</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7">
         <v>15</v>
@@ -3777,16 +3771,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E27" s="7">
         <v>15</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="G27" s="7">
         <v>15</v>
@@ -3803,16 +3797,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="E28" s="7">
         <v>15</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="G28" s="7">
         <v>15</v>
@@ -3829,16 +3823,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="E29" s="7">
         <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="G29" s="7">
         <v>15</v>
@@ -3858,13 +3852,13 @@
         <v>24</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="E30" s="5">
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="G30" s="5">
         <v>15</v>
@@ -3877,22 +3871,22 @@
       <c r="A31" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="D31" s="59">
+      <c r="C31" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="7">
         <v>1965</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="7">
         <v>15</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G31" s="59">
+        <v>335</v>
+      </c>
+      <c r="G31" s="7">
         <v>15</v>
       </c>
       <c r="H31" s="8">
@@ -3903,22 +3897,22 @@
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>420</v>
-      </c>
-      <c r="E32" s="59">
+      <c r="C32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="7">
         <v>15</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G32" s="59">
+        <v>335</v>
+      </c>
+      <c r="G32" s="7">
         <v>15</v>
       </c>
       <c r="H32" s="8">
@@ -3929,22 +3923,22 @@
       <c r="A33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="E33" s="59">
+      <c r="C33" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E33" s="7">
         <v>15</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G33" s="59">
+        <v>336</v>
+      </c>
+      <c r="G33" s="7">
         <v>15</v>
       </c>
       <c r="H33" s="8">
@@ -3955,22 +3949,22 @@
       <c r="A34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>424</v>
-      </c>
-      <c r="E34" s="59">
+      <c r="C34" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E34" s="7">
         <v>15</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G34" s="59">
+        <v>336</v>
+      </c>
+      <c r="G34" s="7">
         <v>15</v>
       </c>
       <c r="H34" s="8">
@@ -3981,22 +3975,22 @@
       <c r="A35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="59" t="s">
-        <v>425</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>426</v>
-      </c>
-      <c r="E35" s="59">
+      <c r="C35" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" s="7">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G35" s="59">
+        <v>336</v>
+      </c>
+      <c r="G35" s="7">
         <v>15</v>
       </c>
       <c r="H35" s="8">
@@ -4014,13 +4008,13 @@
         <v>26</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="E36" s="10">
         <v>15</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="G36" s="10">
         <v>15</v>
@@ -4037,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="E37" s="5">
         <v>15</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="G37" s="5">
         <v>15</v>
@@ -4062,17 +4056,17 @@
       <c r="B38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="59" t="s">
-        <v>429</v>
+      <c r="C38" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="E38" s="7">
         <v>15</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="G38" s="7">
         <v>15</v>
@@ -4089,16 +4083,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="E39" s="7">
         <v>15</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="G39" s="7">
         <v>15</v>
@@ -4114,17 +4108,17 @@
       <c r="B40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="59" t="s">
-        <v>421</v>
+      <c r="C40" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="E40" s="7">
         <v>15</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="G40" s="7">
         <v>15</v>
@@ -4141,16 +4135,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="E41" s="7">
         <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="G41" s="7">
         <v>15</v>
@@ -4167,16 +4161,16 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="E42" s="7">
         <v>15</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="G42" s="7">
         <v>15</v>
@@ -4193,16 +4187,16 @@
         <v>22</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E43" s="10">
         <v>15</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="G43" s="10">
         <v>15</v>
@@ -4266,10 +4260,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5">
         <v>120</v>
@@ -4283,10 +4277,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="7">
         <v>120</v>
@@ -4300,10 +4294,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="7">
         <v>120</v>
@@ -4317,10 +4311,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7">
         <v>120</v>
@@ -4334,10 +4328,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7">
         <v>120</v>
@@ -4351,10 +4345,10 @@
     </row>
     <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="10">
         <v>120</v>
@@ -4440,7 +4434,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G2" s="5">
         <v>120</v>
@@ -4510,7 +4504,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G5" s="5">
         <v>120</v>
@@ -4580,7 +4574,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G8" s="5">
         <v>120</v>
@@ -4650,7 +4644,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G11" s="5">
         <v>120</v>
@@ -4720,7 +4714,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G14" s="5">
         <v>120</v>
@@ -4790,7 +4784,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G17" s="5">
         <v>120</v>
@@ -4854,10 +4848,10 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4899,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E2" s="35">
         <v>60</v>
@@ -4919,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="38">
@@ -4937,10 +4931,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="38">
@@ -4955,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D5" s="37">
         <v>7</v>
@@ -4973,10 +4967,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="38">
@@ -4991,10 +4985,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="38">
@@ -5009,10 +5003,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="38">
@@ -5027,10 +5021,10 @@
         <v>37</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38">
@@ -5045,10 +5039,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38">
@@ -5063,10 +5057,10 @@
         <v>39</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="40">
@@ -5081,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E12" s="35">
         <v>60</v>
@@ -5101,10 +5095,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38">
@@ -5119,10 +5113,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38">
@@ -5137,10 +5131,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38">
@@ -5155,10 +5149,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38">
@@ -5173,10 +5167,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38">
@@ -5191,10 +5185,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38">
@@ -5209,10 +5203,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
@@ -5227,10 +5221,10 @@
         <v>38</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="38">
@@ -5245,10 +5239,10 @@
         <v>39</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40">
@@ -5263,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E22" s="35">
         <v>60</v>
@@ -5283,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38">
@@ -5301,10 +5295,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38">
@@ -5319,10 +5313,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38">
@@ -5337,10 +5331,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38">
@@ -5355,10 +5349,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38">
@@ -5373,10 +5367,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38">
@@ -5391,10 +5385,10 @@
         <v>37</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38">
@@ -5409,10 +5403,10 @@
         <v>38</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38">
@@ -5427,10 +5421,10 @@
         <v>39</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="40">
@@ -5445,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>248</v>
+        <v>430</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E32" s="35">
         <v>60</v>
@@ -5465,10 +5459,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38">
@@ -5483,10 +5477,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38">
@@ -5501,10 +5495,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38">
@@ -5519,10 +5513,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38">
@@ -5537,10 +5531,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38">
@@ -5555,10 +5549,10 @@
         <v>22</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38">
@@ -5573,10 +5567,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38">
@@ -5591,10 +5585,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>284</v>
+        <v>427</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38">
@@ -5609,10 +5603,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40">
@@ -5627,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>58</v>
@@ -5647,10 +5641,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38">
@@ -5665,10 +5659,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38">
@@ -5683,10 +5677,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38">
@@ -5701,10 +5695,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38">
@@ -5719,10 +5713,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38">
@@ -5737,10 +5731,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>332</v>
+        <v>431</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38">
@@ -5755,10 +5749,10 @@
         <v>37</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38">
@@ -5773,10 +5767,10 @@
         <v>38</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38">
@@ -5791,10 +5785,10 @@
         <v>39</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="40">
@@ -5809,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E52" s="35">
         <v>60</v>
@@ -5829,10 +5823,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38">
@@ -5847,10 +5841,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38">
@@ -5865,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D55" s="37">
         <v>6</v>
@@ -5883,10 +5877,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="38">
@@ -5901,10 +5895,10 @@
         <v>21</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38">
@@ -5919,10 +5913,10 @@
         <v>22</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38">
@@ -5937,10 +5931,10 @@
         <v>37</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38">
@@ -5955,10 +5949,10 @@
         <v>38</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38">
@@ -5973,10 +5967,10 @@
         <v>39</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="40">
@@ -5993,7 +5987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C11C15-25E5-485C-A705-83AFDD377AA7}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6039,7 +6033,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="26">
         <v>30</v>
@@ -6056,10 +6050,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>308</v>
+        <v>433</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>70</v>
+        <v>434</v>
       </c>
       <c r="D3" s="48">
         <v>30</v>
@@ -6076,10 +6070,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="48">
         <v>30</v>
@@ -6096,10 +6090,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="48">
         <v>30</v>
@@ -6116,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>63</v>
@@ -6136,10 +6130,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="48">
         <v>30</v>
@@ -6156,10 +6150,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="48">
         <v>30</v>
@@ -6176,10 +6170,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>66</v>
+        <v>439</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>74</v>
+        <v>438</v>
       </c>
       <c r="D9" s="48">
         <v>30</v>
@@ -6196,10 +6190,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="48">
         <v>30</v>
@@ -6216,10 +6210,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="48">
         <v>30</v>
@@ -6236,10 +6230,10 @@
         <v>46</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="48">
         <v>30</v>
@@ -6256,10 +6250,10 @@
         <v>47</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="48">
         <v>30</v>
@@ -6279,7 +6273,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D14" s="48">
         <v>30</v>

--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\QUIZ\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147AA406-D09C-4B7C-B667-883F09FC5355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187FE53-170D-413D-9A14-66A48B8ADF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ Round" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="477">
   <si>
     <t>Q1</t>
   </si>
@@ -104,15 +104,9 @@
     <t>Answers</t>
   </si>
   <si>
-    <t>उक्त चित्र किस महापुरुष का है?</t>
-  </si>
-  <si>
     <t>अल्मोड़ा</t>
   </si>
   <si>
-    <t>उक्त लोगो किस संस्था का है?</t>
-  </si>
-  <si>
     <t>Marks</t>
   </si>
   <si>
@@ -125,24 +119,6 @@
     <t>Video TimeLimit(in sec)</t>
   </si>
   <si>
-    <t>मणिकर्णिका नाम क्यूँ रखा गया?</t>
-  </si>
-  <si>
-    <t>दृश्य में कितने व्यक्ति घोड़े पर बैठ क्र आते हैं?</t>
-  </si>
-  <si>
-    <t>प्रथम दृश्य किस स्थान का है?</t>
-  </si>
-  <si>
-    <t>मणिकर्णिका घाट के नाम पर.</t>
-  </si>
-  <si>
-    <t>तीन</t>
-  </si>
-  <si>
-    <t>वाराणसी (1828)</t>
-  </si>
-  <si>
     <t>Q8</t>
   </si>
   <si>
@@ -155,15 +131,9 @@
     <t>Negative Marking</t>
   </si>
   <si>
-    <t>1947 में जब भारत आज़ाद हुआ, उस समय ब्रिटेन के प्रधानमंत्री कौन थे?</t>
-  </si>
-  <si>
     <t>क्लीमेंट एटली</t>
   </si>
   <si>
-    <t>“सर फरोशी की तमन्ना अब हमारे दिल में है, देखना है जोर कितना बाजुए कातिल में है.” उक्त पंक्तियाँ मूल रूप में किसकी हैं?</t>
-  </si>
-  <si>
     <t>बिस्मिल अजिमाबादी</t>
   </si>
   <si>
@@ -188,30 +158,12 @@
     <t>Q16</t>
   </si>
   <si>
-    <t>भारत के एकमात्र राष्ट्रपति का नाम बताएं जो निर्विरोध चुने गए?</t>
-  </si>
-  <si>
     <t>नीलम संजीवा रेड्डी</t>
   </si>
   <si>
-    <t>ग्लास्गो</t>
-  </si>
-  <si>
-    <t>सिडनी</t>
-  </si>
-  <si>
-    <t>बर्मिंघम</t>
-  </si>
-  <si>
-    <t>टोक्यो</t>
-  </si>
-  <si>
     <t>पौड़ी गढ़वाल</t>
   </si>
   <si>
-    <t>उक्त ईमारत का नाम बताएं?</t>
-  </si>
-  <si>
     <t xml:space="preserve">SUTTER </t>
   </si>
   <si>
@@ -224,18 +176,6 @@
     <t>Protection Of Children From Sexual Offences</t>
   </si>
   <si>
-    <t>पानी 100° सेंटीग्रेड व 212° फ़रेन्हाइट पर उबलने लगता है. तो बताएं कितने डिग्री कैल्विन पर पानी उबलने लगता है?</t>
-  </si>
-  <si>
-    <t>औरंगजेब ने श्री गुरूगोविन्द सिंह के साहिबजादे जोरावर सिंह साहब व फतेह सिंह साहब दोनों को दीवार में जिंदा चुनवा दिया था। इस दिन की याद में वीर बाल दिवस किस तिथि को मनाया जाता हैं?</t>
-  </si>
-  <si>
-    <t>भारत का एकमात्र राज्य जिसकी राज्य भाषा अंग्रजी है?</t>
-  </si>
-  <si>
-    <t>हाल ही में भारतीय संसद में चर्चित शब्द कोलेजियम का सम्बन्ध किस संस्था से हैं?</t>
-  </si>
-  <si>
     <t>26 दिसम्बर</t>
   </si>
   <si>
@@ -290,81 +230,6 @@
     <t>भारतीय खेल</t>
   </si>
   <si>
-    <t>‘‘फूलों की घाटी‘‘ की खोज किसने की?</t>
-  </si>
-  <si>
-    <t>भारत में अन्तरिक्ष मिशन के जनक किसे कहा जाता हैं?</t>
-  </si>
-  <si>
-    <t>G-20 का पहला सम्मेलन किस वर्ष में आयोजित हुआ था?</t>
-  </si>
-  <si>
-    <t>विश्व मानचित्र पर दर्शाने जा रहे देश निम्नलिखित में से कौन सा हैं?</t>
-  </si>
-  <si>
-    <t>किसी स्कूल में प्रार्थना के दौरान 60 छात्रों की एक कतार में राम का स्थान बायें से 35वाॅ तथा कृष्ण का स्थान दायें से 32वाॅ है, तो राम और कृष्ण के बीच में छात्रों की संख्या कितनी होगी?</t>
-  </si>
-  <si>
-    <t>उत्तरखण्ड में ‘‘ब्रिटिश शासन‘‘ कब से प्रारम्भ हुआ था?</t>
-  </si>
-  <si>
-    <t>चन्द्रयान-1 मिशन के दौरान भारतीय अन्तरिक्ष अनुसंधान संगठन के अध्यक्ष कौन थे?</t>
-  </si>
-  <si>
-    <t>G-20 की पहली बैठक कहां पर आयोजित की गई थी?</t>
-  </si>
-  <si>
-    <t>विश्व मानचित्र पर दर्शाये जा रहे सागर का नाम बतायेंघ्?</t>
-  </si>
-  <si>
-    <t>चन्द्रयान-3 भारतीय कैरियर राकेट का संबध किससे हैं?</t>
-  </si>
-  <si>
-    <t>G-20 शिखर सम्मेलन- 2024 किस देश में आयोजित किया जायेगा?</t>
-  </si>
-  <si>
-    <t>विश्व मानचित्र पर दर्शाये जा रहे देश का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>10 छात्रों का एक समूह स्कूल के दौरान आपस में एक दूसरे से केवल एक बार हाथ मिलाते हैं तो कुल कितनी बार हाथ मिलाये गये?</t>
-  </si>
-  <si>
-    <t>‘‘तुम चुप क्यों रहे केदार‘‘ पुस्तक के लेखक कौन हैं?</t>
-  </si>
-  <si>
-    <t>चन्द्रयान-3 लैंडर को किस भारतीय नाम से जाना जाता हैं?</t>
-  </si>
-  <si>
-    <t>भारत G-20 का सदस्य किस वर्ष में बना था?</t>
-  </si>
-  <si>
-    <t>विश्व मानचित्र पर दर्शाई जा रही पर्वत श्रेणी का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>‘‘देवीधुरा मेला‘‘ उत्तरखण्ड के किस जनपद में आयोजित किया जाता  है?</t>
-  </si>
-  <si>
-    <t>सफल लैंडिग से भारत चंद्रमा पर साॅ लैडिंग करने वाला कौन सा देश बन गया हैं?</t>
-  </si>
-  <si>
-    <t>G-20 की शुरूआत किस रूप में हुई थी?</t>
-  </si>
-  <si>
-    <t>2011 की जनगणना के अनुसार उत्तरखण्ड के किस जिले की महिला साक्षरता न्यूनतम हैं?</t>
-  </si>
-  <si>
-    <t>चंद्रयान-3 के लैंडर और रोवर को दक्षिणी ध्रुव पर किस दिन सफलता पूर्वक उतारा गया?</t>
-  </si>
-  <si>
-    <t>G-20 का पूरा नाम क्या है?</t>
-  </si>
-  <si>
-    <t>विश्व मानचित्र पर दर्शाये जा रही नहर का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>एक कक्षा में 15 छात्र गणित में अनुत्तीर्ण हुये, 20 छात्र भौतिक विज्ञान में अनुत्तीर्ण हुये तथा 10 छात्र दोनों गणित एवं भौतिक विज्ञान में अनुत्तीर्ण हुये। कक्षा में कितने छात्र अनुत्तीर्ण हुये?</t>
-  </si>
-  <si>
     <t>फ्रैंक स्मिथ</t>
   </si>
   <si>
@@ -515,9 +380,6 @@
     <t>2009 में</t>
   </si>
   <si>
-    <t>पुर्तगाल</t>
-  </si>
-  <si>
     <t>जोसफ हूकर</t>
   </si>
   <si>
@@ -551,9 +413,6 @@
     <t>पुष्पेश पंत</t>
   </si>
   <si>
-    <t>राॅकीज</t>
-  </si>
-  <si>
     <t>पिथौरागढ</t>
   </si>
   <si>
@@ -587,9 +446,6 @@
     <t>27 अप्रैल, 1815</t>
   </si>
   <si>
-    <t>एस.एल.वी. मार्क-प्प्प्</t>
-  </si>
-  <si>
     <t>विक्रम</t>
   </si>
   <si>
@@ -611,9 +467,6 @@
     <t>बंदर</t>
   </si>
   <si>
-    <t xml:space="preserve">एसण्एलण्वीण् मार्क.प्ट </t>
-  </si>
-  <si>
     <t>पहला</t>
   </si>
   <si>
@@ -626,9 +479,6 @@
     <t xml:space="preserve">बहन </t>
   </si>
   <si>
-    <t>पीण्एसण्एलण्वीण् मार्क .प्प्प्</t>
-  </si>
-  <si>
     <t>WALKER</t>
   </si>
   <si>
@@ -641,9 +491,6 @@
     <t>बेटी</t>
   </si>
   <si>
-    <t>एसण्एलण्वीण् मार्क.ट</t>
-  </si>
-  <si>
     <t>दूसरा</t>
   </si>
   <si>
@@ -653,90 +500,6 @@
     <t xml:space="preserve">तिब्बत </t>
   </si>
   <si>
-    <t>उत्तराखण्ड में ‘‘हरियाली दिवस‘‘ कब मनाया जाता है?</t>
-  </si>
-  <si>
-    <t>भारत की पहली महिला मिस यूनिवर्स का नाम क्या है?</t>
-  </si>
-  <si>
-    <t>चन्द्रयान-3 किस तिथि को छोड़ा गया?</t>
-  </si>
-  <si>
-    <t>भारतीय खेल कबड्डी में कितने खिलाड़ी खेलते हैं?</t>
-  </si>
-  <si>
-    <t>महात्मा गांधी द्वारा चंपारण में किस सन् में आन्दोलन चलाया गया?</t>
-  </si>
-  <si>
-    <t>‘‘पराक्रम दिवस‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
-    <t>दूध की शुद्वता मापने वाले यन्त्र का नाम क्या होता है?</t>
-  </si>
-  <si>
-    <t>स्पेन व मोरक्को के मध्य कौन सी जलसन्धि है?</t>
-  </si>
-  <si>
-    <t>संविधान संशोधन किस अनुच्छेद के अन्तर्गत आता है?</t>
-  </si>
-  <si>
-    <t>‘‘भारतीय रिजर्व बैंक‘‘ की स्थापना कब हुई?</t>
-  </si>
-  <si>
-    <t>भारत की प्रथम महिला आई.पी.एस. अधिकारी का क्या नाम है?</t>
-  </si>
-  <si>
-    <t>ISRO की स्थापना कब हुई?</t>
-  </si>
-  <si>
-    <t>‘‘उबेर कप‘‘ का सम्बन्ध किस खेल से है?</t>
-  </si>
-  <si>
-    <t>खिलाफत आन्दोलन किस सन् में चलाया गया?</t>
-  </si>
-  <si>
-    <t>‘‘संविधान दिवस‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
-    <t>रेबीज के टीके का आविष्कार किसने किया?</t>
-  </si>
-  <si>
-    <t>वित्तीय आपातकाल किस अनुच्छेद के द्वारा लगाया जाता है?</t>
-  </si>
-  <si>
-    <t>‘‘दक्षिण की गंगा‘‘ किस नदी को कहा जाता है?</t>
-  </si>
-  <si>
-    <t>योजना आयोग के स्थान पर ‘‘नीति आयोग‘‘ कब बना?</t>
-  </si>
-  <si>
-    <t>उत्तराखण्ड में ‘‘पर्वतों की रानी‘‘ किस शहर को कहा जाता है?</t>
-  </si>
-  <si>
-    <t>भारत की प्रथम महिला अंतरिक्ष यात्री का नाम क्या है?</t>
-  </si>
-  <si>
-    <t>एक चन्द्र दिवस पृथ्वी के कितने दिनों के बराबर होता है?</t>
-  </si>
-  <si>
-    <t>आजाद हिन्द फौज की स्थापना किस सन् में हुई?</t>
-  </si>
-  <si>
-    <t>‘‘राष्ट्रीय बालिका दिवस‘‘ भारत में किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
-    <t>मानव की खोपड़ी (SKULL) में कुल अस्थियों की संख्या कितनी होती है?</t>
-  </si>
-  <si>
-    <t>रावतभाटा परमाणु संयत्र किस राज्य में स्थित हैं?</t>
-  </si>
-  <si>
-    <t>राज्य सरकार की बर्खास्तगी किस अनुच्छेद के द्वारा होती है?</t>
-  </si>
-  <si>
-    <t>मध्याह्न भोजन कार्यक्रम (MID DAY MEAL- MDM) की शुरूआत कब हुइ?</t>
-  </si>
-  <si>
     <t>5 जुलाई</t>
   </si>
   <si>
@@ -894,28 +657,781 @@
   </si>
   <si>
     <t>आदित्य L-1</t>
-  </si>
-  <si>
-    <t>भारत के प्रसिद्व खिलाड़ीप्रज्ञानानंद का सम्बन्ध किस खेल से हैं?</t>
-  </si>
-  <si>
-    <t>एम0एस0 स्वामीनाथन</t>
   </si>
   <si>
     <t>National Institution for Transforming India_x000D_
 (राष्ट्रिय भारत परिवर्तन संसथान)</t>
   </si>
   <si>
-    <t>प्रधानमंत्री मोदी जी के प्रयासों से दक्षिण अफ्रीकी देश नामीबिया से चीते की आठ शावकों को लाया गया। उन्हें देश के किस राष्टीय पार्क में रखा गया हैए उसका नाम बतायें?</t>
-  </si>
-  <si>
-    <t>एक ओलंपिक में सबसे अधिक 8 स्वर्ण पदक जीतने का रिकार्ड 2008 के बीजिंग ओलंपिक में बनायाए जिन्हें हम गोल्डन शार्क के नाम से भी जानते हैं उस खिलाड़ी का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>भारत के एकमात्र राष्टपति जो निर्विरोध चुने गयेए उनका नाम बतायें?</t>
-  </si>
-  <si>
-    <t>"कुछ काम करोए कुछ काम करोए
+    <t>सेन्ट्रल विस्टा</t>
+  </si>
+  <si>
+    <t>महिला आरक्षण बिल</t>
+  </si>
+  <si>
+    <t>धारा-370</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team1.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team2.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team3.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team4.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team5.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\MCQ\MCQ_Team6.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic2.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic3.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic1.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic1.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic2.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic1.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic3.jpg</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic1.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic2.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic3.png</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic1.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic2.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic3.png</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic1.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic2.png</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic3.png</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic3.webp</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic2.webp</t>
+  </si>
+  <si>
+    <t>डॉ. एम. एस. स्वामीनाथन</t>
+  </si>
+  <si>
+    <t>अल-अक्सा मस्जिद</t>
+  </si>
+  <si>
+    <t>चेन्नई, तमिलनाडु</t>
+  </si>
+  <si>
+    <t>कृषि वैज्ञानिक</t>
+  </si>
+  <si>
+    <t>इज़राइल(यरूशलेम)</t>
+  </si>
+  <si>
+    <t>7-8 शताब्दी</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>आशा पारेख</t>
+  </si>
+  <si>
+    <t>दादा साहेब फाल्के पुरस्कार</t>
+  </si>
+  <si>
+    <t>मुंबई</t>
+  </si>
+  <si>
+    <t>उत्तराखंड विधान सभा</t>
+  </si>
+  <si>
+    <t>गैरसैंण(चमोली)</t>
+  </si>
+  <si>
+    <t>9 जून 2014 को</t>
+  </si>
+  <si>
+    <t>एशियाई खेल हांग्जो (चीन)</t>
+  </si>
+  <si>
+    <t>रमेशबाबू प्रग्गनानंद</t>
+  </si>
+  <si>
+    <t>माउंट रशमोर राष्ट्रीय स्मारक</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>जॉर्ज वाशिंगटन, थॉमस जेफरसन, थियोडोर रूजवेल्ट और अब्राहम लिंकन</t>
+  </si>
+  <si>
+    <t>प्रधानमंत्री जन आरोग्य योजना (PM-JAY)</t>
+  </si>
+  <si>
+    <t>भुवन चंद्र खंडूरी</t>
+  </si>
+  <si>
+    <t>मेजर जनरल</t>
+  </si>
+  <si>
+    <t>8 मार्च 2007</t>
+  </si>
+  <si>
+    <t>पैलेस ऑफ वेस्टमिन्स्टर</t>
+  </si>
+  <si>
+    <t>ब्रिटेन</t>
+  </si>
+  <si>
+    <t>ब्रिटेन की संसद</t>
+  </si>
+  <si>
+    <t>इजराइल</t>
+  </si>
+  <si>
+    <t>मार्शल ऑफ द एयर फोर्स अर्जन सिंह</t>
+  </si>
+  <si>
+    <t>16 सितम्बर 2017</t>
+  </si>
+  <si>
+    <t>जागेश्वर धाम</t>
+  </si>
+  <si>
+    <t>अल्मोडा</t>
+  </si>
+  <si>
+    <t>कत्यूरी राजवंश</t>
+  </si>
+  <si>
+    <t>यूरोपीय संघ</t>
+  </si>
+  <si>
+    <t>नरगिस सफ़ी मोहम्मदी</t>
+  </si>
+  <si>
+    <t>ईरान</t>
+  </si>
+  <si>
+    <t>मानवाधिकार कार्यकर्ता</t>
+  </si>
+  <si>
+    <t>अंकोरवाट मन्दिर</t>
+  </si>
+  <si>
+    <t>कम्बोडिया</t>
+  </si>
+  <si>
+    <t>विष्णु भगवान</t>
+  </si>
+  <si>
+    <t>सेंगोल</t>
+  </si>
+  <si>
+    <t>गोल आफॅफ ट्वेंटी</t>
+  </si>
+  <si>
+    <t>गैंग आफ ट्वेंटी</t>
+  </si>
+  <si>
+    <t>ग्रेट आफ़ ट्वेंटी</t>
+  </si>
+  <si>
+    <t>04 बजे सायं</t>
+  </si>
+  <si>
+    <t>प्रोपल्शन मॉड्यूल</t>
+  </si>
+  <si>
+    <t>52 वाँ संविधान संशोधन</t>
+  </si>
+  <si>
+    <t>AUTOMATED TELLER MACHINE (ऑटोमेटेड टेलर मशीन)</t>
+  </si>
+  <si>
+    <t>रोस्कोस्मॉस</t>
+  </si>
+  <si>
+    <t>128 वाँ संविधान संशोधन</t>
+  </si>
+  <si>
+    <t>फ़्रान्स</t>
+  </si>
+  <si>
+    <t>एल.वी.एम-III</t>
+  </si>
+  <si>
+    <t>एस.एल.वी. मार्क-V</t>
+  </si>
+  <si>
+    <t>एस.एल.वी-IV</t>
+  </si>
+  <si>
+    <t>पी.एस.एल.वी. मार्क-III</t>
+  </si>
+  <si>
+    <t>अमिताभ कांत</t>
+  </si>
+  <si>
+    <t>पीयूष गोयल</t>
+  </si>
+  <si>
+    <t>शशि थरूर</t>
+  </si>
+  <si>
+    <t>उदय शंकर</t>
+  </si>
+  <si>
+    <t>रॉकीज</t>
+  </si>
+  <si>
+    <t>चाची</t>
+  </si>
+  <si>
+    <t>ग्रुप आफ ट्वेंटी</t>
+  </si>
+  <si>
+    <t>फ़ुटबॉल</t>
+  </si>
+  <si>
+    <t>ई श्रीधरन</t>
+  </si>
+  <si>
+    <t>25 जनवरी</t>
+  </si>
+  <si>
+    <t>हुक</t>
+  </si>
+  <si>
+    <t>ई ब्लॉक</t>
+  </si>
+  <si>
+    <t>दो बजे साढ़े सात मिनट का</t>
+  </si>
+  <si>
+    <t>मार्कस कैसे लाएँ</t>
+  </si>
+  <si>
+    <t>काले \ नेवी ब्लू</t>
+  </si>
+  <si>
+    <t>जॉय</t>
+  </si>
+  <si>
+    <t>वाइल्ड लाइफ़ फ़ोटोग्राफ़र</t>
+  </si>
+  <si>
+    <t>राजू के घर</t>
+  </si>
+  <si>
+    <t>पाँच</t>
+  </si>
+  <si>
+    <t>26 कम्पनियां</t>
+  </si>
+  <si>
+    <t>चार</t>
+  </si>
+  <si>
+    <t>कॉलेज से निष्कासित हो गया था</t>
+  </si>
+  <si>
+    <t>जिस काम में मजा. आए</t>
+  </si>
+  <si>
+    <t>दो</t>
+  </si>
+  <si>
+    <t>आर्ट्स एंड कॉमर्स कॉलेज</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Video\Visual_Team1.m4v</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Video\Visual_Team2.m4v</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Video\Visual_Team3.m4v</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Video\Visual_Team4.m4v</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Video\Visual_Team5.m4v</t>
+  </si>
+  <si>
+    <t>..\public\inputQuiz\Video\Visual_Team6.m4v</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘फूलों की घाटी‘‘ की खोज किसने की?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- उत्तरखण्ड में ‘‘ब्रिटिश शासन‘‘ कब से प्रारम्भ हुआ था?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘उत्तराखण्ड में चर्चा मे रहा ‘‘मिशन लाल लोमड़ी‘‘ या ‘‘रेड फॉक्स‘‘ अभियान किसके आतंक के विरुद्ध चलाया गया?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘तुम चुप क्यों रहे केदार‘‘ पुस्तक के लेखक कौन हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘देवीधुरा मेला‘‘ उत्तरखण्ड के किस जनपद में आयोजित किया जाता  है?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- 2011 की जनगणना के अनुसार उत्तरखण्ड के किस जिले की महिला साक्षरता न्यूनतम हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- भारत में अन्तरिक्ष मिशन के जनक किसे कहा जाता हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- चन्द्रयान-1 मिशन के दौरान भारतीय अन्तरिक्ष अनुसंधान संगठन के अध्यक्ष कौन थे?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- चन्द्रयान-3 भारतीय कैरियर राकेट का संबध किससे हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- चन्द्रयान-3 लैंडर को किस भारतीय नाम से जाना जाता हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- सफल लैंडिग से भारत चंद्रमा पर सॉफ़्ट लैडिंग करने वाला कौन सा देश बन गया हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- चंद्रयान-3 के लैंडर और रोवर को दक्षिणी ध्रुव पर किस दिन सफलता पूर्वक उतारा गया?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- G-20 का पहला सम्मेलन किस वर्ष में आयोजित हुआ था?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- G-20 की पहली बैठक कहां पर आयोजित की गई थी?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- G-20 का पूरा नाम क्या है?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- G-20 की शुरूआत किस रूप में हुई थी?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- वर्ष 2023 में G-20 का शेरपा किसे नियुक्त किया गया?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- G-20 शिखर सम्मेलन- 2024 किस देश में आयोजित किया जायेगा?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- विश्व मानचित्र पर दर्शाएँ जा रहे देश निम्नलिखित में से कौन सा हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- विश्व मानचित्र पर दर्शाये जा रहे सागर का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- विश्व मानचित्र पर दर्शाये जा रहे देश का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- विश्व मानचित्र पर दर्शाई जा रही पर्वत श्रेणी का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- विश्व मानचित्र पर दर्शाये जा रही नहर का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- किसी स्कूल में प्रार्थना के दौरान 60 छात्रों की एक कतार में राम का स्थान बायें से 35वॉ तथा कृष्ण का स्थान दायें से 32वॉ है, तो राम और कृष्ण के बीच में छात्रों की संख्या कितनी होगी?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- एक डॉक्टर मरीज को 6 गोली देता है तथा प्रति 4 घण्टे बाद एक गोली लेने को कहता है। यदि मरीज पहली गोली 4 बजे सांय को लेता है तो अन्तिम गोली कब लेगा?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- 10 छात्रों का एक समूह स्कूल के दौरान आपस में एक दूसरे से केवल एक बार हाथ मिलाते हैं तो कुल कितनी बार हाथ मिलाये गये?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- भुवन की ओर इशारा करते हुए मधु ने कहा, ‘‘वह मेरे पिता के इकलौते बेटे का बेटा है‘‘। भुवन की माँ का मधु से सम्बन्ध होगा?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- यदि “SUMMER” को “RUNNER”से कूट किया जाता है तो आप “WINTER”को कैसे कूट करेंगे?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- एक कक्षा में 15 छात्र गणित में अनुत्तीर्ण हुये, 20 छात्र भौतिक विज्ञान में अनुत्तीर्ण हुये तथा 10 छात्र दोनों गणित एवं भौतिक विज्ञान में अनुत्तीर्ण हुये। कक्षा में कितने छात्र अनुत्तीर्ण हुये?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- उक्त चित्र किस महापुरुष का है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- इनका संबंध मूलतः किस राज्य से है?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- इनका संबंध किस क्षेत्र से है?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- उक्त ईमारत का नाम बताएं?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- यह किस देश में स्थित है?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- उक्त इमारत किस शताब्दी के मध्य बनी?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- उक्त लोगो किस संस्था का है?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- उक्त चित्र किस महिला का है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- इन्हें वर्तमान में कौनसा पुरस्कार मिला?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- इनका जन्म किस शहर में हुआ?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- यह किस शहर/जनपद में स्थित है?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- गैरसैंण मे पहला विधानसभा सत्र कब हुआ?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- उक्त लोगो किस का है?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- उक्त चित्र किस खिलाड़ी का है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- इनका संबंध किस खेल से है?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- इनका संबंध मूलतः किस राज्य से है?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- उक्त चित्र में अमेरिका के चारों राष्ट्रपति के नाम बताए?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- उक्त चित्र किस का है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- भारतीय सेना के किस पद से सेवानिवृत्त हुए?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- उत्तराखंड के मुख्यमंत्री कब बने?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- वर्तमान में यहाँ ब्रिटेन का क्या है?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- उक्त झंडा किस देश का है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- इन्होंने कौन से भारत पाकिस्तान युद्ध में प्रसिद्धि अर्जित की?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- इनकी मृत्यु कब हुई?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- उक्त मंदिर का नाम बताएं?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- ये उत्तराखंड के किस जनपद में स्थित है?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- इसका निर्माण किस राजवंश ने कराया?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- इनका संबंध किस देश से है?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- इन्हें 2023 में नोबल शांति पुरस्कार किस कार्य के लिए मिला?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- यह मंदिर किस देश में स्थित है?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- यह मंदिर किस भगवान का है?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- उक्त लोगो(वस्तु) का नाम बताइए?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- प्रोफ़ेसर (वायरस) कितने बजे व कितने समय का 'पावर नैप' लेते थे?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- प्रोफ़ेसर (वायरस) हॉस्टल के किस ब्लॉक के सामने खड़े होकर छात्रों को निर्देशित कर रहे है?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- सुसाइड करने वाले छात्र का क्या नाम था?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- छात्र के अनुसार कॉलेज में ज्ञान देने के स्थान पर क्या सिखाया जा रहा है?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- प्रोफ़ेसर ने किस रंग के मोज़े पहने हुए हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- फरहान के घर पर खाना ना मिलने पर तीनों दोस्त भूखा पेट भरने कहाँ जाते हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- फरहान के खींचे हुए कुल कितने फ़ोटो बड़े करके (Zoom in) दिखाए गए हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- दो महीने बाद कितनी कम्पनियां छात्रों को जॉब ऑफर करने कॉलेज कैम्पस में आएंगी?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- छात्र (Raju) ने क्या प्रश्न पूछा?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- प्रश्न पूछने वाले छात्र के दोनों हाथों की उंगलियों में कुल कितनी अंगूठियां पहनी हुई हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- इन्टरव्यू बोर्ड में कुल कितने सदस्य बैठे हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- इन्टरव्यू देने वाला छात्र तीसरी मंजिल से क्यों कूदा था?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- रेंचो के अनुसार किस काम को अपना प्रोफेशन बनाना चाहिए?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- प्रोफ़ेसर के प्रश्न करने पर उत्तर देने के लिए कितने हाथ उठते हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- प्रोफ़ेसर अंत में कौन से कॉलेज जॉइन करने को कहते हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- कक्षा में ऑरेंज कलर की मशीन पर क्या नंबर लिखा था?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- उत्तराखण्ड में ‘‘हरियाली दिवस‘‘ कब मनाया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- भारत की पहली महिला मिस यूनिवर्स का नाम क्या है?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- चन्द्रयान-3 किस तिथि को छोड़ा गया?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- भारतीय खेल कबड्डी में कितने खिलाड़ी खेलते हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- महात्मा गांधी द्वारा चंपारण में किस सन् में आन्दोलन चलाया गया?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- ‘‘पराक्रम दिवस‘‘ किस तिथि को मनाया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- दूध की शुद्वता मापने वाले यन्त्र का नाम क्या होता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न8- स्पेन व मोरक्को के मध्य कौन सी जलसन्धि है?</t>
+  </si>
+  <si>
+    <t>प्रश्न9- संविधान संशोधन किस अनुच्छेद के अन्तर्गत आता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न10- ‘‘भारतीय रिजर्व बैंक‘‘ की स्थापना कब हुई?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘लिपुलेख दर्रा‘‘ उत्तराखण्ड के किस जनपद में है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- भारत की प्रथम महिला आई.पी.एस. अधिकारी का क्या नाम है?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- ISRO की स्थापना कब हुई?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- ‘‘उबेर कप‘‘ का सम्बन्ध किस खेल से है?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- खिलाफत आन्दोलन किस सन् में चलाया गया?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- ‘‘संविधान दिवस‘‘ किस तिथि को मनाया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- रेबीज के टीके का आविष्कार किसने किया?</t>
+  </si>
+  <si>
+    <t>प्रश्न8- ‘‘दक्षिण की गंगा‘‘ किस नदी को कहा जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न9- वित्तीय आपातकाल किस अनुच्छेद के द्वारा लगाया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न10- योजना आयोग के स्थान पर ‘‘नीति आयोग‘‘ कब बना?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- उत्तराखण्ड में ‘‘पर्वतों की रानी‘‘ किस शहर को कहा जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- भारत की प्रथम महिला अंतरिक्ष यात्री का नाम क्या है?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- एक चन्द्र दिवस पृथ्वी के कितने दिनों के बराबर होता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- प्रसिद्व खिलाड़ी किलियन एम्बापे का सम्बन्ध किस खेल से हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- आजाद हिन्द फौज की स्थापना किस सन् में हुई?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- ‘‘राष्ट्रीय बालिका दिवस‘‘ भारत में किस तिथि को मनाया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- मानव की खोपड़ी (SKULL) में कुल अस्थियों की संख्या कितनी होती है?</t>
+  </si>
+  <si>
+    <t>प्रश्न8- रावतभाटा परमाणु संयत्र किस राज्य में स्थित हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न9- राज्य सरकार की बर्खास्तगी किस अनुच्छेद के द्वारा होती है?</t>
+  </si>
+  <si>
+    <t>प्रश्न10- भारत में ‘‘मेट्रो रेल‘‘ के जनक कौन हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘ऑपरेशन सूर्य होप‘‘ उत्तराखण्ड में किससे सम्बन्धित हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- भारत की प्रथम महिला लोकसभा अध्यक्षा का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- ISRO के वर्तमान अध्यक्ष का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- भारत ने किक्रेट का पहला विश्व कप (1983) में किसकी कप्तानी में जीता था?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- चैरी-चैरा कांड किस सन् में हुआ?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- ‘‘मतदाता दिवस‘‘ किस तिथि को मनाया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- किस विटाामिन की कमी से स्कर्वी रोग होता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न8- काजीरंगा राष्ट्रीय पार्क किस राज्य में स्थित है?</t>
+  </si>
+  <si>
+    <t>प्रश्न9- किस संविधान संशोधन के द्वारा दल-बदल पर रोक लगा दी गई है?</t>
+  </si>
+  <si>
+    <t>प्रश्न10- भारत में G.S.T कब लागू हुआ?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘वीर चन्द्र सिंह गढ़वाली‘‘ किस जनपद से सम्बन्धित है?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- भारत की पहली महिला राज्यपाल का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- पृथ्वी से चन्द्रमा की दूरी लगभग कितने किलोमीटर हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- भारत ने ओलंपिक में अब तक कुल कितने स्वर्ण पदक जीते हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- बंगाल का विभाजन किस वर्ष हुआ?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- ‘‘राष्ट्रीय एकता दिवस ‘‘ किस तिथि को मनाया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- डॉक्टर द्वारा आँख एवं नाक की जाँच करने के लिए किस दर्पण का प्रयोग किया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न8- हीराकुंड परियोजना किस नदी पर बनी है?</t>
+  </si>
+  <si>
+    <t>प्रश्न9- सम्पत्ति के मौलिक अधिकार को किस संविधान संशोधन के द्वारा समाप्त कर दिया गया?</t>
+  </si>
+  <si>
+    <t>प्रश्न10- ATM का सामान्यतः पूर्ण विस्तार रूप बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- महात्मा गाँधी ने किस शहर को ‘‘उत्तराखण्ड का स्विट्जरलैंड‘‘ कहा था?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- भारत की पहली महिला राष्ट्रपति का नाम बताय?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- सूर्य के लिए छोड़े गये भारतीय मिशन का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- वॉलीबॉल में कितने खिलाड़ी खेलते हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- भारत छोड़ो आन्दोलन किस वर्ष हुआ?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- ‘‘योग दिवस ‘‘ किस तिथि को मनाया जाता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- टेलीफोन का आविष्कार किसने किया था?</t>
+  </si>
+  <si>
+    <t>प्रश्न8- स्वेज नहर किन दो सागरों को जोड़ती हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न9- सर्वप्रथम अनुच्छेद-356 के द्वारा किस राज्य की सरकार बर्खास्त की गई?</t>
+  </si>
+  <si>
+    <t>प्रश्न10- मध्याह्न भोजन कार्यक्रम (MID DAY MEAL- MDM) की शुरूआत कब हुइ?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- औरंगजेब ने श्री गुरूगोविन्द सिंह के साहिबजादे जोरावर सिंह साहब व फतेह सिंह साहब दोनों को दीवार में जिंदा चुनवा दिया था। इस दिन की याद में वीर बाल दिवस किस तिथि को मनाया जाता हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न2- 20 जुलाई 2023 को रूस चंद्रयान मिशन लूना 25 नष्ट हो गया। रूसी अंतरिक्ष एजेंसी का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न4- मोबाइल फोन लैपटॉप डिजिटल कैमराए इलैक्टिक वाहन के लिए रिचार्बेल बैटरी में उपयोग होने वाला महत्वपूर्ण खनिज का अरबों का खजाना जम्मू.कश्मीर के रियासी में मिलाए उस खनिज का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- 14 नवंबर 2012 को च्व्व् एक्ट पास हुआ जो बच्चों से सम्बन्धित है। इसका शब्द विस्तार बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- प्रधानमंत्री मोदी जी के प्रयासों से दक्षिण अफ्रीकी देश नामीबिया से चीते की आठ शावकों को लाया गया। उन्हें देश के किस राष्टीय पार्क में रखा गया हैए उसका नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न7- एक ओलंपिक में सबसे अधिक 8 स्वर्ण पदक जीतने का रिकार्ड 2008 के बीजिंग ओलंपिक में बनायाए जिन्हें हम गोल्डन शार्क के नाम से भी जानते हैं उस खिलाड़ी का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न8- अभी हाल में प्रधानमंत्री मोदी जी ने संसद के विशेष सत्र में नारी शक्ति वंदन अधिनियम पारित किया। यह कौनस वाँ संविधान संशोधन था?</t>
+  </si>
+  <si>
+    <t>प्रश्न9- भारत के एकमात्र राष्टपति जो निर्विरोध चुने गयेए उनका नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न10- "कुछ काम करोए कुछ काम करोए
 जग में रहकर कुछ नाम करोए
 यह जन्म में हुआ किस अर्थ अहोए
 समझो जिसमें यह व्यर्थ न होए
@@ -924,439 +1440,34 @@
 उक्त पंक्तियां किस कवि की हैं?</t>
   </si>
   <si>
-    <t>भारत की प्रथम महिला लोकसभा अध्यक्षा का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>भारत में ‘‘हरित क्रांति‘‘ के जनक कौन हैं?</t>
-  </si>
-  <si>
-    <t>ISRO के वर्तमान अध्यक्ष का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>भारत ने किक्रेट का पहला विश्व कप (1983) में किसकी कप्तानी में जीता था?</t>
-  </si>
-  <si>
-    <t>चैरी-चैरा कांड किस सन् में हुआ?</t>
-  </si>
-  <si>
-    <t>‘‘मतदाता दिवस‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
-    <t>किस विटाामिन की कमी से स्कर्वी रोग होता है?</t>
-  </si>
-  <si>
-    <t>काजीरंगा राष्ट्रीय पार्क किस राज्य में स्थित है?</t>
-  </si>
-  <si>
-    <t>किस संविधान संशोधन के द्वारा दल-बदल पर रोक लगा दी गई है?</t>
-  </si>
-  <si>
-    <t>भारत में G.S.T कब लागू हुआ?</t>
-  </si>
-  <si>
-    <t>‘‘वीर चन्द्र सिंह गढ़वाली‘‘ किस जनपद से सम्बन्धित है?</t>
-  </si>
-  <si>
-    <t>भारत की पहली महिला राज्यपाल का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>पृथ्वी से चन्द्रमा की दूरी लगभग कितने किलोमीटर हैं?</t>
-  </si>
-  <si>
-    <t>भारत ने ओलंपिक में अब तक कुल कितने स्वर्ण पदक जीते हैं?</t>
-  </si>
-  <si>
-    <t>बंगाल का विभाजन किस वर्ष हुआ?</t>
-  </si>
-  <si>
-    <t>‘‘राष्ट्रीय एकता दिवस ‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
-    <t>हीराकुंड परियोजना किस नदी पर बनी है?</t>
-  </si>
-  <si>
-    <t>सम्पत्ति के मौलिक अधिकार को किस संविधान संशोधन के द्वारा समाप्त कर दिया गया?</t>
-  </si>
-  <si>
-    <t>ATM का सामान्यतः पूर्ण विस्तार रूप बतायें?</t>
-  </si>
-  <si>
-    <t>महात्मा गाँधी ने किस शहर को ‘‘उत्तराखण्ड का स्विट्जरलैंड‘‘ कहा था?</t>
-  </si>
-  <si>
-    <t>भारत की पहली महिला राष्ट्रपति का नाम बताय?</t>
-  </si>
-  <si>
-    <t>सूर्य के लिए छोड़े गये भारतीय मिशन का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>वाॅलीबाॅल में कितने खिलाड़ी खेलते हैं?</t>
-  </si>
-  <si>
-    <t>भारत छोड़ो आन्दोलन किस वर्ष हुआ?</t>
-  </si>
-  <si>
-    <t>‘‘योग दिवस ‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
-    <t>टेलीफोन का आविष्कार किसने किया था?</t>
-  </si>
-  <si>
-    <t>स्वेज नहर किन दो सागरों को जोड़ती हैं?</t>
-  </si>
-  <si>
-    <t>सर्वप्रथम अनुच्छेद-356 के द्वारा किस राज्य की सरकार बर्खास्त की गई?</t>
-  </si>
-  <si>
-    <t>सेन्ट्रल विस्टा</t>
-  </si>
-  <si>
-    <t>महिला आरक्षण बिल</t>
-  </si>
-  <si>
-    <t>धारा-370</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\MCQ\MCQ_Team1.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\MCQ\MCQ_Team2.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\MCQ\MCQ_Team3.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\MCQ\MCQ_Team4.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\MCQ\MCQ_Team5.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\MCQ\MCQ_Team6.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic2.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic3.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic2.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic1.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic3.jpg</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic1.webp</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic2.webp</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team1_Pic3.png</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic1.webp</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic2.webp</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team2_Pic3.png</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team3_Pic1.webp</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic2.png</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team4_Pic3.png</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team5_Pic3.webp</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual\Visual_Team6_Pic2.webp</t>
-  </si>
-  <si>
-    <t>..\public\inputQuiz\Visual_Team1.m4v</t>
-  </si>
-  <si>
-    <t>डॉ. एम. एस. स्वामीनाथन</t>
-  </si>
-  <si>
-    <t>अल-अक्सा मस्जिद</t>
-  </si>
-  <si>
-    <t>चेन्नई, तमिलनाडु</t>
-  </si>
-  <si>
-    <t>कृषि वैज्ञानिक</t>
-  </si>
-  <si>
-    <t>यह किस देश में स्थित है?</t>
-  </si>
-  <si>
-    <t>इज़राइल(यरूशलेम)</t>
-  </si>
-  <si>
-    <t>7-8 शताब्दी</t>
-  </si>
-  <si>
-    <t>ASEAN</t>
-  </si>
-  <si>
-    <t>इनका संबंध मूलतः किस राज्य से है?</t>
-  </si>
-  <si>
-    <t>इनका संबंध किस क्षेत्र से है?</t>
-  </si>
-  <si>
-    <t>उक्त इमारत किस शताब्दी के मध्य बनी?</t>
-  </si>
-  <si>
-    <t>उक्त चित्र किस महिला का है?</t>
-  </si>
-  <si>
-    <t>आशा पारेख</t>
-  </si>
-  <si>
-    <t>दादा साहेब फाल्के पुरस्कार</t>
-  </si>
-  <si>
-    <t>मुंबई</t>
-  </si>
-  <si>
-    <t>उत्तराखंड विधान सभा</t>
-  </si>
-  <si>
-    <t>यह किस शहर/जनपद में स्थित है?</t>
-  </si>
-  <si>
-    <t>गैरसैंण(चमोली)</t>
-  </si>
-  <si>
-    <t>9 जून 2014 को</t>
-  </si>
-  <si>
-    <t>उक्त लोगो किस का है?</t>
-  </si>
-  <si>
-    <t>एशियाई खेल हांग्जो (चीन)</t>
-  </si>
-  <si>
-    <t>इन्हें वर्तमान में कौनसा पुरस्कार मिला?</t>
-  </si>
-  <si>
-    <t>इनका जन्म किस शहर में हुआ?</t>
-  </si>
-  <si>
-    <t>गैरसैंण मे पहला विधानसभा सत्र कब हुआ?</t>
-  </si>
-  <si>
-    <t>उक्त चित्र किस खिलाड़ी का है?</t>
-  </si>
-  <si>
-    <t>रमेशबाबू प्रग्गनानंद</t>
-  </si>
-  <si>
-    <t>इनका संबंध किस खेल से है?</t>
-  </si>
-  <si>
-    <t>माउंट रशमोर राष्ट्रीय स्मारक</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>जॉर्ज वाशिंगटन, थॉमस जेफरसन, थियोडोर रूजवेल्ट और अब्राहम लिंकन</t>
-  </si>
-  <si>
-    <t>उक्त चित्र में अमेरिका के चारों राष्ट्रपति के नाम बताए?</t>
-  </si>
-  <si>
-    <t>प्रधानमंत्री जन आरोग्य योजना (PM-JAY)</t>
-  </si>
-  <si>
-    <t>उक्त चित्र किस का है?</t>
-  </si>
-  <si>
-    <t>भुवन चंद्र खंडूरी</t>
-  </si>
-  <si>
-    <t>भारतीय सेना के किस पद से सेवानिवृत्त हुए?</t>
-  </si>
-  <si>
-    <t>मेजर जनरल</t>
-  </si>
-  <si>
-    <t>उत्तराखंड के मुख्यमंत्री कब बने?</t>
-  </si>
-  <si>
-    <t>8 मार्च 2007</t>
-  </si>
-  <si>
-    <t>पैलेस ऑफ वेस्टमिन्स्टर</t>
-  </si>
-  <si>
-    <t>ब्रिटेन</t>
-  </si>
-  <si>
-    <t>वर्तमान में यहाँ ब्रिटेन का क्या है?</t>
-  </si>
-  <si>
-    <t>ब्रिटेन की संसद</t>
-  </si>
-  <si>
-    <t>उक्त झंडा किस देश का है?</t>
-  </si>
-  <si>
-    <t>इजराइल</t>
-  </si>
-  <si>
-    <t>मार्शल ऑफ द एयर फोर्स अर्जन सिंह</t>
-  </si>
-  <si>
-    <t>इन्होंने कौन से भारत पाकिस्तान युद्ध में प्रसिद्धि अर्जित की?</t>
-  </si>
-  <si>
-    <t>इनकी मृत्यु कब हुई?</t>
-  </si>
-  <si>
-    <t>16 सितम्बर 2017</t>
-  </si>
-  <si>
-    <t>उक्त मंदिर का नाम बताएं?</t>
-  </si>
-  <si>
-    <t>जागेश्वर धाम</t>
-  </si>
-  <si>
-    <t>ये उत्तराखंड के किस जनपद में स्थित है?</t>
-  </si>
-  <si>
-    <t>अल्मोडा</t>
-  </si>
-  <si>
-    <t>इसका निर्माण किस राजवंश ने कराया?</t>
-  </si>
-  <si>
-    <t>कत्यूरी राजवंश</t>
-  </si>
-  <si>
-    <t>यूरोपीय संघ</t>
-  </si>
-  <si>
-    <t>नरगिस सफ़ी मोहम्मदी</t>
-  </si>
-  <si>
-    <t>इनका संबंध किस देश से है?</t>
-  </si>
-  <si>
-    <t>ईरान</t>
-  </si>
-  <si>
-    <t>इन्हें 2023 में नोबल शांति पुरस्कार किस कार्य के लिए मिला?</t>
-  </si>
-  <si>
-    <t>मानवाधिकार कार्यकर्ता</t>
-  </si>
-  <si>
-    <t>अंकोरवाट मन्दिर</t>
-  </si>
-  <si>
-    <t>यह मंदिर किस देश में स्थित है?</t>
-  </si>
-  <si>
-    <t>कम्बोडिया</t>
-  </si>
-  <si>
-    <t>यह मंदिर किस भगवान का है?</t>
-  </si>
-  <si>
-    <t>विष्णु भगवान</t>
-  </si>
-  <si>
-    <t>उक्त लोगो(वस्तु) का नाम बताइए?</t>
-  </si>
-  <si>
-    <t>सेंगोल</t>
-  </si>
-  <si>
-    <t>यदि “SUMMER” को “RUNNER”से कूट किया जाता है तो आप “WINTER”को कैसे कूट करेंगे?</t>
-  </si>
-  <si>
-    <t>‘‘उत्तराखण्ड में चर्चा मे रहा ‘‘मिशन लाल लोमड़ी‘‘ या ‘‘रेड फैक्स‘‘ अभियान किसके लिए चलाया जायेगा?</t>
-  </si>
-  <si>
-    <t>भुवन की ओर इशारा करते हुए मधु ने कहा, ‘‘ वह मेरे पिता के इकलौते बेटे का बेटा है‘‘। भुवन की माँ का मधु से सम्बन्ध होगा?</t>
-  </si>
-  <si>
-    <t>ग्रुप आफ ट्वेन्टी</t>
-  </si>
-  <si>
-    <t>गोल आफॅफ ट्वेंटी</t>
-  </si>
-  <si>
-    <t>गैंग आफ ट्वेंटी</t>
-  </si>
-  <si>
-    <t>ग्रेट आफ़ ट्वेंटी</t>
-  </si>
-  <si>
-    <t>04 बजे सायं</t>
-  </si>
-  <si>
-    <t>प्रोपल्शन मॉड्यूल</t>
-  </si>
-  <si>
-    <t>52 वाँ संविधान संशोधन</t>
-  </si>
-  <si>
-    <t>AUTOMATED TELLER MACHINE (ऑटोमेटेड टेलर मशीन)</t>
-  </si>
-  <si>
-    <t>‘‘लिपुलेख दर्रा‘‘ उत्तराखण्ड के किस जनपद में है?</t>
-  </si>
-  <si>
-    <t>‘‘ऑपरेशन सूर्य होप‘‘ उत्तराखण्ड में किससे सम्बन्धित हैं?</t>
-  </si>
-  <si>
-    <t>डॉक्टर द्वारा आँख एवं नाक की जाँच करने के लिए किस दर्पण का प्रयोग किया जाता है?</t>
-  </si>
-  <si>
-    <t>एक डॉक्टर मरीज को 6 गोली देता है तथा प्रति 4 घण्टे बाद एक गोली लेने को कहता है। यदि मरीज पहली गोली 4 बजे सांय को लेता है तो अन्तिम गोली कब लेगा?</t>
-  </si>
-  <si>
-    <t>20 जुलाई 2023 को रूस चंद्रयान मिशन लूना.25 नष्ट हो गया। रूसी अंतरिक्ष एजेंसी का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>रोस्कोस्मॉस</t>
-  </si>
-  <si>
-    <t>इस वर्ष भारत ने इतिहास रचाए जब पहली बार भारत को दो ऑस्कर अवार्ड मिलेए एक त्त्त् फिल्म के गाने नाटू.नाटू को एवं बतायें दूसरा अवार्ड किस डाॅक्यूमेंटी मूवी को मिला?</t>
-  </si>
-  <si>
-    <t>मोबाइल फोन लैपटॉप डिजिटल कैमराए इलैक्टिक वाहन के लिए रिचार्बेल बैटरी में उपयोग होने वाला महत्वपूर्ण खनिज का अरबों का खजाना जम्मू.कश्मीर के रियासी में मिलाए उस खनिज का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>14 नवंबर 2012 को च्व्व् एक्ट पास हुआ जो बच्चों से सम्बन्धित है। इसका शब्द विस्तार बतायें?</t>
-  </si>
-  <si>
-    <t>128 वाँ संविधान संशोधन</t>
-  </si>
-  <si>
-    <t>अभी हाल में प्रधानमंत्री मोदी जी ने संसद के विशेष सत्र में नारी शक्ति वंदन अधिनियम पारित किया। यह कौनस वाँ संविधान संशोधन था?</t>
+    <t>प्रश्न11- भारत का एकमात्र राज्य जिसकी राज्य भाषा अंग्रजी है?</t>
+  </si>
+  <si>
+    <t>प्रश्न12- हाल ही में भारतीय संसद में चर्चित शब्द कोलेजियम का सम्बन्ध किस संस्था से हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न13- पानी 100° सेंटीग्रेड व 212° फ़रेन्हाइट पर उबलने लगता है. तो बताएं कितने डिग्री कैल्विन पर पानी उबलने लगता है?</t>
+  </si>
+  <si>
+    <t>प्रश्न14- 1947 में जब भारत आज़ाद हुआ, उस समय ब्रिटेन के प्रधानमंत्री कौन थे?</t>
+  </si>
+  <si>
+    <t>प्रश्न15- भारत के एकमात्र राष्ट्रपति का नाम बताएं जो निर्विरोध चुने गए?</t>
+  </si>
+  <si>
+    <t>प्रश्न16- “सर फरोशी की तमन्ना अब हमारे दिल में है, देखना है जोर कितना बाजुए कातिल में है.” उक्त पंक्तियाँ मूल रूप में किसकी हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न3- इस वर्ष भारत ने इतिहास रचाए जब पहली बार भारत को दो ऑस्कर अवार्ड मिलेए एक त्त्त् फिल्म के गाने नाटू.नाटू को एवं बतायें दूसरा अवार्ड किस डॉक्यूमेंट्री मूवी को मिला?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- टाइम बचाने के लिए 'वायरस' टाई में क्या लगाते थे?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- फरहान को जीवन में क्या बनने का शौक़ था?</t>
+  </si>
+  <si>
+    <t>‘यदि किसी स्टूडेन्ट को नौकरी मिल जाए और फाइनल एग्ज़ाम में वह 1 या 2 अंकों से फेल हो जाए तो नौकरी रहेगी या ………’</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,6 +1881,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2089,25 +2203,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80B8FA1-5345-4688-97AC-4E59F5750F89}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2139,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2150,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="H2" s="5">
         <v>30</v>
@@ -2180,19 +2294,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="H3" s="7">
         <v>30</v>
@@ -2210,19 +2324,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -2240,25 +2354,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>89</v>
+        <v>339</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="J5" s="8">
         <v>5</v>
@@ -2272,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>90</v>
+        <v>344</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
@@ -2302,19 +2416,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>91</v>
+        <v>322</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="H7" s="5">
         <v>30</v>
@@ -2332,19 +2446,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -2362,19 +2476,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -2392,25 +2506,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>94</v>
+        <v>340</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>327</v>
+        <v>214</v>
       </c>
       <c r="J10" s="8">
         <v>5</v>
@@ -2424,19 +2538,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>425</v>
+        <v>279</v>
       </c>
       <c r="H11" s="10">
         <v>60</v>
@@ -2454,19 +2568,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>419</v>
+        <v>323</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="H12" s="5">
         <v>30</v>
@@ -2484,19 +2598,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2514,19 +2628,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -2544,25 +2658,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>328</v>
+        <v>215</v>
       </c>
       <c r="J15" s="8">
         <v>5</v>
@@ -2576,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="D16" s="10">
         <v>45</v>
@@ -2606,19 +2720,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="H17" s="5">
         <v>30</v>
@@ -2636,19 +2750,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>426</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2666,19 +2780,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2696,25 +2810,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="J20" s="8">
         <v>5</v>
@@ -2728,19 +2842,19 @@
         <v>4</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H21" s="10">
         <v>60</v>
@@ -2758,19 +2872,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="H22" s="5">
         <v>30</v>
@@ -2788,19 +2902,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2818,19 +2932,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>105</v>
+        <v>336</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2848,25 +2962,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="J25" s="8">
         <v>5</v>
@@ -2880,19 +2994,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="H26" s="10">
         <v>60</v>
@@ -2910,19 +3024,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="H27" s="5">
         <v>30</v>
@@ -2940,19 +3054,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -2970,19 +3084,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>421</v>
+        <v>296</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>422</v>
+        <v>276</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>423</v>
+        <v>277</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>424</v>
+        <v>278</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -3000,25 +3114,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="J30" s="8">
         <v>5</v>
@@ -3032,19 +3146,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>110</v>
+        <v>349</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="H31" s="10">
         <v>60</v>
@@ -3069,17 +3183,17 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
@@ -3110,7 +3224,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3121,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="E2" s="5">
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="G2" s="5">
         <v>15</v>
@@ -3147,16 +3261,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>353</v>
+        <v>239</v>
       </c>
       <c r="E3" s="7">
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="G3" s="7">
         <v>15</v>
@@ -3173,16 +3287,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>354</v>
+        <v>240</v>
       </c>
       <c r="E4" s="7">
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7">
         <v>15</v>
@@ -3199,16 +3313,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="E5" s="7">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7">
         <v>15</v>
@@ -3225,16 +3339,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="E6" s="7">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="G6" s="7">
         <v>15</v>
@@ -3251,16 +3365,16 @@
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="E7" s="7">
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7">
         <v>15</v>
@@ -3277,16 +3391,16 @@
         <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>356</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="E8" s="10">
         <v>15</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="G8" s="10">
         <v>15</v>
@@ -3303,16 +3417,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="E9" s="5">
         <v>15</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="G9" s="5">
         <v>15</v>
@@ -3329,16 +3443,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>364</v>
+        <v>245</v>
       </c>
       <c r="E10" s="7">
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7">
         <v>15</v>
@@ -3355,16 +3469,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>365</v>
+        <v>246</v>
       </c>
       <c r="E11" s="7">
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>342</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7">
         <v>15</v>
@@ -3381,16 +3495,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="E12" s="7">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>343</v>
+        <v>230</v>
       </c>
       <c r="G12" s="7">
         <v>15</v>
@@ -3407,16 +3521,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="E13" s="7">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>343</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7">
         <v>15</v>
@@ -3433,16 +3547,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="E14" s="7">
         <v>15</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>343</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7">
         <v>15</v>
@@ -3459,16 +3573,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="E15" s="10">
         <v>15</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>344</v>
+        <v>231</v>
       </c>
       <c r="G15" s="10">
         <v>15</v>
@@ -3485,16 +3599,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="E16" s="5">
         <v>15</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="G16" s="5">
         <v>15</v>
@@ -3511,16 +3625,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="E17" s="7">
         <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7">
         <v>15</v>
@@ -3537,16 +3651,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>353</v>
+        <v>239</v>
       </c>
       <c r="E18" s="7">
         <v>15</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="G18" s="7">
         <v>15</v>
@@ -3563,16 +3677,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="E19" s="7">
         <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>332</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7">
         <v>15</v>
@@ -3589,16 +3703,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="E20" s="7">
         <v>15</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>332</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7">
         <v>15</v>
@@ -3615,16 +3729,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
       <c r="E21" s="7">
         <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>332</v>
+        <v>219</v>
       </c>
       <c r="G21" s="7">
         <v>15</v>
@@ -3641,16 +3755,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>26</v>
+        <v>356</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>382</v>
+        <v>255</v>
       </c>
       <c r="E22" s="7">
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7">
         <v>15</v>
@@ -3667,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="E23" s="5">
         <v>15</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="G23" s="5">
         <v>15</v>
@@ -3693,16 +3807,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>386</v>
+        <v>257</v>
       </c>
       <c r="E24" s="7">
         <v>15</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="G24" s="7">
         <v>15</v>
@@ -3719,16 +3833,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="E25" s="7">
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="G25" s="7">
         <v>15</v>
@@ -3745,16 +3859,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>389</v>
+        <v>259</v>
       </c>
       <c r="E26" s="7">
         <v>15</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="G26" s="7">
         <v>15</v>
@@ -3771,16 +3885,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="E27" s="7">
         <v>15</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="G27" s="7">
         <v>15</v>
@@ -3797,16 +3911,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="E28" s="7">
         <v>15</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="G28" s="7">
         <v>15</v>
@@ -3823,16 +3937,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="E29" s="7">
         <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>347</v>
+        <v>234</v>
       </c>
       <c r="G29" s="7">
         <v>15</v>
@@ -3849,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>395</v>
+        <v>263</v>
       </c>
       <c r="E30" s="5">
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="G30" s="5">
         <v>15</v>
@@ -3875,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="D31" s="7">
         <v>1965</v>
@@ -3884,7 +3998,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7">
         <v>15</v>
@@ -3901,16 +4015,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="E32" s="7">
         <v>15</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7">
         <v>15</v>
@@ -3927,16 +4041,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="E33" s="7">
         <v>15</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="G33" s="7">
         <v>15</v>
@@ -3953,16 +4067,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>402</v>
+        <v>266</v>
       </c>
       <c r="E34" s="7">
         <v>15</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7">
         <v>15</v>
@@ -3979,16 +4093,16 @@
         <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>404</v>
+        <v>267</v>
       </c>
       <c r="E35" s="7">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="G35" s="7">
         <v>15</v>
@@ -4005,16 +4119,16 @@
         <v>22</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>26</v>
+        <v>356</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>405</v>
+        <v>268</v>
       </c>
       <c r="E36" s="10">
         <v>15</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="G36" s="10">
         <v>15</v>
@@ -4031,16 +4145,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>406</v>
+        <v>269</v>
       </c>
       <c r="E37" s="5">
         <v>15</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="G37" s="5">
         <v>15</v>
@@ -4057,16 +4171,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="E38" s="7">
         <v>15</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="G38" s="7">
         <v>15</v>
@@ -4083,16 +4197,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>410</v>
+        <v>271</v>
       </c>
       <c r="E39" s="7">
         <v>15</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="G39" s="7">
         <v>15</v>
@@ -4109,16 +4223,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="E40" s="7">
         <v>15</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="G40" s="7">
         <v>15</v>
@@ -4135,16 +4249,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>413</v>
+        <v>273</v>
       </c>
       <c r="E41" s="7">
         <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="G41" s="7">
         <v>15</v>
@@ -4161,16 +4275,16 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="E42" s="7">
         <v>15</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="G42" s="7">
         <v>15</v>
@@ -4187,16 +4301,16 @@
         <v>22</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>417</v>
+        <v>275</v>
       </c>
       <c r="E43" s="10">
         <v>15</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="G43" s="10">
         <v>15</v>
@@ -4228,12 +4342,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" style="13" bestFit="1" customWidth="1"/>
@@ -4242,28 +4356,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>45</v>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5">
         <v>120</v>
@@ -4277,15 +4391,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="7">
+        <v>59</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="59">
         <v>120</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="59">
         <v>10</v>
       </c>
       <c r="E3" s="8">
@@ -4294,15 +4408,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="7">
+        <v>57</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="59">
         <v>120</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="59">
         <v>10</v>
       </c>
       <c r="E4" s="8">
@@ -4311,15 +4425,15 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="7">
+        <v>210</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="59">
         <v>120</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="59">
         <v>10</v>
       </c>
       <c r="E5" s="8">
@@ -4328,15 +4442,15 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="59">
         <v>120</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="59">
         <v>10</v>
       </c>
       <c r="E6" s="8">
@@ -4345,10 +4459,10 @@
     </row>
     <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C7" s="10">
         <v>120</v>
@@ -4371,22 +4485,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8547F5E1-314B-4971-91FD-BE41512E171B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -4408,13 +4522,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4425,16 +4539,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>474</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="E2" s="5">
         <v>30</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G2" s="5">
         <v>120</v>
@@ -4451,10 +4565,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="E3" s="7">
         <v>30</v>
@@ -4473,10 +4587,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
+        <v>383</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>301</v>
       </c>
       <c r="E4" s="10">
         <v>30</v>
@@ -4495,16 +4609,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>384</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="E5" s="5">
         <v>30</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="G5" s="5">
         <v>120</v>
@@ -4521,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>385</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>303</v>
       </c>
       <c r="E6" s="7">
         <v>30</v>
@@ -4543,10 +4657,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>386</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="E7" s="10">
         <v>30</v>
@@ -4565,16 +4679,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="E8" s="5">
         <v>30</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="G8" s="5">
         <v>120</v>
@@ -4591,10 +4705,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>387</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="E9" s="7">
         <v>30</v>
@@ -4613,10 +4727,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>388</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="E10" s="10">
         <v>30</v>
@@ -4635,16 +4749,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>389</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="E11" s="5">
         <v>30</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="G11" s="5">
         <v>120</v>
@@ -4653,7 +4767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -4661,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>390</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>476</v>
       </c>
       <c r="E12" s="7">
         <v>30</v>
@@ -4683,10 +4797,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="E13" s="10">
         <v>30</v>
@@ -4705,16 +4819,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>392</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="E14" s="5">
         <v>30</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="G14" s="5">
         <v>120</v>
@@ -4731,10 +4845,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>393</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="E15" s="7">
         <v>30</v>
@@ -4753,10 +4867,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>33</v>
+        <v>394</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="E16" s="10">
         <v>30</v>
@@ -4775,16 +4889,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="E17" s="5">
         <v>30</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G17" s="5">
         <v>120</v>
@@ -4801,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>396</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="E18" s="7">
         <v>30</v>
@@ -4823,10 +4937,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>36</v>
+        <v>397</v>
+      </c>
+      <c r="D19" s="10">
+        <v>21</v>
       </c>
       <c r="E19" s="10">
         <v>30</v>
@@ -4847,19 +4961,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF476FA-922C-4D84-A345-0E6E6133C9F8}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
@@ -4882,7 +4996,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4893,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>207</v>
+        <v>398</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="E2" s="35">
         <v>60</v>
@@ -4913,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>208</v>
+        <v>399</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="38">
@@ -4931,10 +5045,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>209</v>
+        <v>400</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="38">
@@ -4949,7 +5063,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>210</v>
+        <v>401</v>
       </c>
       <c r="D5" s="37">
         <v>7</v>
@@ -4967,10 +5081,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>211</v>
+        <v>402</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="38">
@@ -4985,10 +5099,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>212</v>
+        <v>403</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="38">
@@ -5003,10 +5117,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>213</v>
+        <v>404</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="38">
@@ -5018,13 +5132,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38">
@@ -5036,13 +5150,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>215</v>
+        <v>406</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38">
@@ -5054,13 +5168,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>216</v>
+        <v>407</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="40">
@@ -5075,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="E12" s="35">
         <v>60</v>
@@ -5095,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>217</v>
+        <v>409</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38">
@@ -5113,10 +5227,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>218</v>
+        <v>410</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38">
@@ -5131,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>219</v>
+        <v>411</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38">
@@ -5149,10 +5263,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>220</v>
+        <v>412</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38">
@@ -5167,10 +5281,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>221</v>
+        <v>413</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38">
@@ -5185,10 +5299,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>222</v>
+        <v>414</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38">
@@ -5200,13 +5314,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>224</v>
+        <v>415</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
@@ -5218,13 +5332,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>223</v>
+        <v>416</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="38">
@@ -5236,13 +5350,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40">
@@ -5257,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="E22" s="35">
         <v>60</v>
@@ -5277,10 +5391,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38">
@@ -5295,10 +5409,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>228</v>
+        <v>420</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38">
@@ -5313,10 +5427,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>288</v>
+        <v>421</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38">
@@ -5331,10 +5445,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>229</v>
+        <v>422</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38">
@@ -5349,10 +5463,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>230</v>
+        <v>423</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38">
@@ -5367,10 +5481,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>231</v>
+        <v>424</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38">
@@ -5382,13 +5496,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>232</v>
+        <v>425</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38">
@@ -5400,13 +5514,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>233</v>
+        <v>426</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38">
@@ -5418,13 +5532,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="40">
@@ -5439,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="E32" s="35">
         <v>60</v>
@@ -5459,10 +5573,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>295</v>
+        <v>429</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38">
@@ -5477,10 +5591,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>297</v>
+        <v>430</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38">
@@ -5495,10 +5609,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38">
@@ -5513,10 +5627,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>299</v>
+        <v>432</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38">
@@ -5531,10 +5645,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38">
@@ -5549,10 +5663,10 @@
         <v>22</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38">
@@ -5564,13 +5678,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>302</v>
+        <v>435</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38">
@@ -5582,13 +5696,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>303</v>
+        <v>436</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>427</v>
+        <v>281</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38">
@@ -5600,13 +5714,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40">
@@ -5621,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>305</v>
+        <v>438</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E42" s="35">
         <v>60</v>
@@ -5641,10 +5755,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>306</v>
+        <v>439</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38">
@@ -5659,10 +5773,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>307</v>
+        <v>440</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38">
@@ -5677,10 +5791,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>308</v>
+        <v>441</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38">
@@ -5695,10 +5809,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>309</v>
+        <v>442</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38">
@@ -5713,10 +5827,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>310</v>
+        <v>443</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38">
@@ -5731,10 +5845,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38">
@@ -5746,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>311</v>
+        <v>445</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38">
@@ -5764,13 +5878,13 @@
         <v>10</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>312</v>
+        <v>446</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38">
@@ -5782,13 +5896,13 @@
         <v>10</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>313</v>
+        <v>447</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>428</v>
+        <v>282</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="40">
@@ -5803,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>314</v>
+        <v>448</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="E52" s="35">
         <v>60</v>
@@ -5823,10 +5937,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>315</v>
+        <v>449</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38">
@@ -5841,10 +5955,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38">
@@ -5859,7 +5973,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>317</v>
+        <v>451</v>
       </c>
       <c r="D55" s="37">
         <v>6</v>
@@ -5877,10 +5991,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>318</v>
+        <v>452</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="38">
@@ -5895,10 +6009,10 @@
         <v>21</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>319</v>
+        <v>453</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38">
@@ -5913,10 +6027,10 @@
         <v>22</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38">
@@ -5928,13 +6042,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>321</v>
+        <v>455</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38">
@@ -5946,13 +6060,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>322</v>
+        <v>456</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38">
@@ -5964,13 +6078,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>234</v>
+        <v>457</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="40">
@@ -5987,18 +6101,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C11C15-25E5-485C-A705-83AFDD377AA7}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
@@ -6019,10 +6133,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -6030,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>65</v>
+        <v>458</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D2" s="26">
         <v>30</v>
@@ -6050,10 +6164,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>434</v>
+        <v>283</v>
       </c>
       <c r="D3" s="48">
         <v>30</v>
@@ -6070,10 +6184,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D4" s="48">
         <v>30</v>
@@ -6090,10 +6204,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D5" s="48">
         <v>30</v>
@@ -6110,10 +6224,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D6" s="48">
         <v>30</v>
@@ -6130,10 +6244,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>291</v>
+        <v>462</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D7" s="48">
         <v>30</v>
@@ -6150,10 +6264,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D8" s="48">
         <v>30</v>
@@ -6167,13 +6281,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>438</v>
+        <v>284</v>
       </c>
       <c r="D9" s="48">
         <v>30</v>
@@ -6187,13 +6301,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>293</v>
+        <v>465</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D10" s="48">
         <v>30</v>
@@ -6207,13 +6321,13 @@
     </row>
     <row r="11" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>294</v>
+        <v>466</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D11" s="48">
         <v>30</v>
@@ -6227,13 +6341,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>66</v>
+        <v>467</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D12" s="48">
         <v>30</v>
@@ -6247,13 +6361,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>67</v>
+        <v>468</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D13" s="48">
         <v>30</v>
@@ -6267,13 +6381,13 @@
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>64</v>
+        <v>469</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="D14" s="48">
         <v>30</v>
@@ -6287,13 +6401,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>41</v>
+        <v>470</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D15" s="48">
         <v>30</v>
@@ -6307,13 +6421,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>52</v>
+        <v>471</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D16" s="48">
         <v>30</v>
@@ -6327,13 +6441,13 @@
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>43</v>
+        <v>472</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D17" s="29">
         <v>30</v>

--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\QUIZ\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187FE53-170D-413D-9A14-66A48B8ADF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA5AB7-7FA3-49A2-8A72-B7A42AC514C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ Round" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>सुप्रीम कोर्ट के न्यायाधीशों</t>
   </si>
   <si>
-    <t>कूनों नेशनल पार्क, मध्य प्रदेशद्ध</t>
-  </si>
-  <si>
     <t>चन्द्रयान-3</t>
   </si>
   <si>
@@ -659,10 +656,6 @@
     <t>आदित्य L-1</t>
   </si>
   <si>
-    <t>National Institution for Transforming India_x000D_
-(राष्ट्रिय भारत परिवर्तन संसथान)</t>
-  </si>
-  <si>
     <t>सेन्ट्रल विस्टा</t>
   </si>
   <si>
@@ -996,21 +989,6 @@
     <t>..\public\inputQuiz\Video\Visual_Team6.m4v</t>
   </si>
   <si>
-    <t>प्रश्न1- ‘‘फूलों की घाटी‘‘ की खोज किसने की?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- उत्तरखण्ड में ‘‘ब्रिटिश शासन‘‘ कब से प्रारम्भ हुआ था?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- ‘‘उत्तराखण्ड में चर्चा मे रहा ‘‘मिशन लाल लोमड़ी‘‘ या ‘‘रेड फॉक्स‘‘ अभियान किसके आतंक के विरुद्ध चलाया गया?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- ‘‘तुम चुप क्यों रहे केदार‘‘ पुस्तक के लेखक कौन हैं?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- ‘‘देवीधुरा मेला‘‘ उत्तरखण्ड के किस जनपद में आयोजित किया जाता  है?</t>
-  </si>
-  <si>
     <t>प्रश्न1- 2011 की जनगणना के अनुसार उत्तरखण्ड के किस जिले की महिला साक्षरता न्यूनतम हैं?</t>
   </si>
   <si>
@@ -1227,9 +1205,6 @@
     <t>प्रश्न3- कक्षा में ऑरेंज कलर की मशीन पर क्या नंबर लिखा था?</t>
   </si>
   <si>
-    <t>प्रश्न1- उत्तराखण्ड में ‘‘हरियाली दिवस‘‘ कब मनाया जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न2- भारत की पहली महिला मिस यूनिवर्स का नाम क्या है?</t>
   </si>
   <si>
@@ -1242,9 +1217,6 @@
     <t>प्रश्न5- महात्मा गांधी द्वारा चंपारण में किस सन् में आन्दोलन चलाया गया?</t>
   </si>
   <si>
-    <t>प्रश्न6- ‘‘पराक्रम दिवस‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न7- दूध की शुद्वता मापने वाले यन्त्र का नाम क्या होता है?</t>
   </si>
   <si>
@@ -1254,42 +1226,18 @@
     <t>प्रश्न9- संविधान संशोधन किस अनुच्छेद के अन्तर्गत आता है?</t>
   </si>
   <si>
-    <t>प्रश्न10- ‘‘भारतीय रिजर्व बैंक‘‘ की स्थापना कब हुई?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- ‘‘लिपुलेख दर्रा‘‘ उत्तराखण्ड के किस जनपद में है?</t>
-  </si>
-  <si>
     <t>प्रश्न2- भारत की प्रथम महिला आई.पी.एस. अधिकारी का क्या नाम है?</t>
   </si>
   <si>
-    <t>प्रश्न3- ISRO की स्थापना कब हुई?</t>
-  </si>
-  <si>
-    <t>प्रश्न4- ‘‘उबेर कप‘‘ का सम्बन्ध किस खेल से है?</t>
-  </si>
-  <si>
     <t>प्रश्न5- खिलाफत आन्दोलन किस सन् में चलाया गया?</t>
   </si>
   <si>
-    <t>प्रश्न6- ‘‘संविधान दिवस‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न7- रेबीज के टीके का आविष्कार किसने किया?</t>
   </si>
   <si>
-    <t>प्रश्न8- ‘‘दक्षिण की गंगा‘‘ किस नदी को कहा जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न9- वित्तीय आपातकाल किस अनुच्छेद के द्वारा लगाया जाता है?</t>
   </si>
   <si>
-    <t>प्रश्न10- योजना आयोग के स्थान पर ‘‘नीति आयोग‘‘ कब बना?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- उत्तराखण्ड में ‘‘पर्वतों की रानी‘‘ किस शहर को कहा जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न2- भारत की प्रथम महिला अंतरिक्ष यात्री का नाम क्या है?</t>
   </si>
   <si>
@@ -1302,9 +1250,6 @@
     <t>प्रश्न5- आजाद हिन्द फौज की स्थापना किस सन् में हुई?</t>
   </si>
   <si>
-    <t>प्रश्न6- ‘‘राष्ट्रीय बालिका दिवस‘‘ भारत में किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न7- मानव की खोपड़ी (SKULL) में कुल अस्थियों की संख्या कितनी होती है?</t>
   </si>
   <si>
@@ -1314,12 +1259,6 @@
     <t>प्रश्न9- राज्य सरकार की बर्खास्तगी किस अनुच्छेद के द्वारा होती है?</t>
   </si>
   <si>
-    <t>प्रश्न10- भारत में ‘‘मेट्रो रेल‘‘ के जनक कौन हैं?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- ‘‘ऑपरेशन सूर्य होप‘‘ उत्तराखण्ड में किससे सम्बन्धित हैं?</t>
-  </si>
-  <si>
     <t>प्रश्न2- भारत की प्रथम महिला लोकसभा अध्यक्षा का नाम बतायें?</t>
   </si>
   <si>
@@ -1332,9 +1271,6 @@
     <t>प्रश्न5- चैरी-चैरा कांड किस सन् में हुआ?</t>
   </si>
   <si>
-    <t>प्रश्न6- ‘‘मतदाता दिवस‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न7- किस विटाामिन की कमी से स्कर्वी रोग होता है?</t>
   </si>
   <si>
@@ -1347,9 +1283,6 @@
     <t>प्रश्न10- भारत में G.S.T कब लागू हुआ?</t>
   </si>
   <si>
-    <t>प्रश्न1- ‘‘वीर चन्द्र सिंह गढ़वाली‘‘ किस जनपद से सम्बन्धित है?</t>
-  </si>
-  <si>
     <t>प्रश्न2- भारत की पहली महिला राज्यपाल का नाम बतायें?</t>
   </si>
   <si>
@@ -1362,9 +1295,6 @@
     <t>प्रश्न5- बंगाल का विभाजन किस वर्ष हुआ?</t>
   </si>
   <si>
-    <t>प्रश्न6- ‘‘राष्ट्रीय एकता दिवस ‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न7- डॉक्टर द्वारा आँख एवं नाक की जाँच करने के लिए किस दर्पण का प्रयोग किया जाता है?</t>
   </si>
   <si>
@@ -1374,12 +1304,6 @@
     <t>प्रश्न9- सम्पत्ति के मौलिक अधिकार को किस संविधान संशोधन के द्वारा समाप्त कर दिया गया?</t>
   </si>
   <si>
-    <t>प्रश्न10- ATM का सामान्यतः पूर्ण विस्तार रूप बतायें?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- महात्मा गाँधी ने किस शहर को ‘‘उत्तराखण्ड का स्विट्जरलैंड‘‘ कहा था?</t>
-  </si>
-  <si>
     <t>प्रश्न2- भारत की पहली महिला राष्ट्रपति का नाम बताय?</t>
   </si>
   <si>
@@ -1392,9 +1316,6 @@
     <t>प्रश्न5- भारत छोड़ो आन्दोलन किस वर्ष हुआ?</t>
   </si>
   <si>
-    <t>प्रश्न6- ‘‘योग दिवस ‘‘ किस तिथि को मनाया जाता है?</t>
-  </si>
-  <si>
     <t>प्रश्न7- टेलीफोन का आविष्कार किसने किया था?</t>
   </si>
   <si>
@@ -1413,68 +1334,671 @@
     <t>प्रश्न2- 20 जुलाई 2023 को रूस चंद्रयान मिशन लूना 25 नष्ट हो गया। रूसी अंतरिक्ष एजेंसी का नाम बतायें?</t>
   </si>
   <si>
-    <t>प्रश्न4- मोबाइल फोन लैपटॉप डिजिटल कैमराए इलैक्टिक वाहन के लिए रिचार्बेल बैटरी में उपयोग होने वाला महत्वपूर्ण खनिज का अरबों का खजाना जम्मू.कश्मीर के रियासी में मिलाए उस खनिज का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>प्रश्न5- 14 नवंबर 2012 को च्व्व् एक्ट पास हुआ जो बच्चों से सम्बन्धित है। इसका शब्द विस्तार बतायें?</t>
-  </si>
-  <si>
-    <t>प्रश्न6- प्रधानमंत्री मोदी जी के प्रयासों से दक्षिण अफ्रीकी देश नामीबिया से चीते की आठ शावकों को लाया गया। उन्हें देश के किस राष्टीय पार्क में रखा गया हैए उसका नाम बतायें?</t>
-  </si>
-  <si>
-    <t>प्रश्न7- एक ओलंपिक में सबसे अधिक 8 स्वर्ण पदक जीतने का रिकार्ड 2008 के बीजिंग ओलंपिक में बनायाए जिन्हें हम गोल्डन शार्क के नाम से भी जानते हैं उस खिलाड़ी का नाम बतायें?</t>
-  </si>
-  <si>
-    <t>प्रश्न8- अभी हाल में प्रधानमंत्री मोदी जी ने संसद के विशेष सत्र में नारी शक्ति वंदन अधिनियम पारित किया। यह कौनस वाँ संविधान संशोधन था?</t>
-  </si>
-  <si>
-    <t>प्रश्न9- भारत के एकमात्र राष्टपति जो निर्विरोध चुने गयेए उनका नाम बतायें?</t>
-  </si>
-  <si>
-    <t>प्रश्न10- "कुछ काम करोए कुछ काम करोए
-जग में रहकर कुछ नाम करोए
-यह जन्म में हुआ किस अर्थ अहोए
-समझो जिसमें यह व्यर्थ न होए
-कुछ तो उपयुक्त करो तन कोए
-नर होए न निराश करो मन को।"
+    <t>प्रश्न11- भारत का एकमात्र राज्य जिसकी राज्य भाषा अंग्रजी है?</t>
+  </si>
+  <si>
+    <t>प्रश्न14- 1947 में जब भारत आज़ाद हुआ, उस समय ब्रिटेन के प्रधानमंत्री कौन थे?</t>
+  </si>
+  <si>
+    <t>प्रश्न15- भारत के एकमात्र राष्ट्रपति का नाम बताएं जो निर्विरोध चुने गए?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- टाइम बचाने के लिए 'वायरस' टाई में क्या लगाते थे?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- फरहान को जीवन में क्या बनने का शौक़ था?</t>
+  </si>
+  <si>
+    <t>‘यदि किसी स्टूडेन्ट को नौकरी मिल जाए और फाइनल एग्ज़ाम में वह 1 या 2 अंकों से फेल हो जाए तो नौकरी रहेगी या ………’</t>
+  </si>
+  <si>
+    <t>प्रश्न4- मोबाइल, फोन, लैपटॉप, डिजिटल कैमरा इलैक्टिक वाहन के लिए रिचार्बेल बैटरी में उपयोग होने वाला महत्वपूर्ण खनिज का अरबों का खजाना जम्मू.कश्मीर के रियासी में मिला उस खनिज का नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न5- 14 नवंबर 2012 को POSCO एक्ट पास हुआ जो बच्चों से सम्बन्धित है। इसका शब्द विस्तार बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न6- प्रधानमंत्री मोदी जी के प्रयासों से दक्षिण अफ्रीकी देश नामीबिया से चीते के आठ शावकों को लाया गया। उन्हें देश के किस राष्टीय पार्क में रखा गया है, उसका नाम बतायें?</t>
+  </si>
+  <si>
+    <t>कूनों नेशनल पार्क, मध्य प्रदेश</t>
+  </si>
+  <si>
+    <t>प्रश्न9- भारत के एकमात्र राष्टपति जो निर्विरोध चुने गये, उनका नाम बतायें?</t>
+  </si>
+  <si>
+    <t>प्रश्न13- पानी 100° सेंटीग्रेड व 212° फ़रेन्हाइट पर उबलने लगता है, तो बताएं कितने डिग्री कैल्विन पर पानी उबलने लगता है?</t>
+  </si>
+  <si>
+    <t>373.15 केल्विन</t>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न16- “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>सर फरोशी की तमन्ना अब हमारे दिल में है, देखना है जोर कितना बाजुए कातिल में है।</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” उक्त पंक्तियाँ मूल रूप में किसकी हैं?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न10- “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>कुछ काम करो, कुछ काम करो,
+जग में रहकर कुछ नाम करो,
+यह जन्म में हुआ किस अर्थ अहो,
+समझो जिसमें यह व्यर्थ न हो,
+कुछ तो उपयुक्त करो तन को,
+नर हो, न निराश करो मन को।</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”
 उक्त पंक्तियां किस कवि की हैं?</t>
-  </si>
-  <si>
-    <t>प्रश्न11- भारत का एकमात्र राज्य जिसकी राज्य भाषा अंग्रजी है?</t>
-  </si>
-  <si>
-    <t>प्रश्न12- हाल ही में भारतीय संसद में चर्चित शब्द कोलेजियम का सम्बन्ध किस संस्था से हैं?</t>
-  </si>
-  <si>
-    <t>प्रश्न13- पानी 100° सेंटीग्रेड व 212° फ़रेन्हाइट पर उबलने लगता है. तो बताएं कितने डिग्री कैल्विन पर पानी उबलने लगता है?</t>
-  </si>
-  <si>
-    <t>प्रश्न14- 1947 में जब भारत आज़ाद हुआ, उस समय ब्रिटेन के प्रधानमंत्री कौन थे?</t>
-  </si>
-  <si>
-    <t>प्रश्न15- भारत के एकमात्र राष्ट्रपति का नाम बताएं जो निर्विरोध चुने गए?</t>
-  </si>
-  <si>
-    <t>प्रश्न16- “सर फरोशी की तमन्ना अब हमारे दिल में है, देखना है जोर कितना बाजुए कातिल में है.” उक्त पंक्तियाँ मूल रूप में किसकी हैं?</t>
-  </si>
-  <si>
-    <t>प्रश्न3- इस वर्ष भारत ने इतिहास रचाए जब पहली बार भारत को दो ऑस्कर अवार्ड मिलेए एक त्त्त् फिल्म के गाने नाटू.नाटू को एवं बतायें दूसरा अवार्ड किस डॉक्यूमेंट्री मूवी को मिला?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- टाइम बचाने के लिए 'वायरस' टाई में क्या लगाते थे?</t>
-  </si>
-  <si>
-    <t>प्रश्न1- फरहान को जीवन में क्या बनने का शौक़ था?</t>
-  </si>
-  <si>
-    <t>‘यदि किसी स्टूडेन्ट को नौकरी मिल जाए और फाइनल एग्ज़ाम में वह 1 या 2 अंकों से फेल हो जाए तो नौकरी रहेगी या ………’</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न12- हाल ही में भारतीय संसद में चर्चित शब्द “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>कोलेजियम</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” का सम्बन्ध किस संस्था से हैं?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न8- अभी हाल में प्रधानमंत्री मोदी जी ने संसद के विशेष सत्र में “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>नारी शक्ति वंदन</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” अधिनियम पारित किया। यह कौनस वाँ संविधान संशोधन था?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न7- एक ओलंपिक में सबसे अधिक 8 स्वर्ण पदक जीतने का रिकार्ड 2008 के बीजिंग ओलंपिक में बनाया, जिन्हें हम “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>गोल्डन शार्क</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” के नाम से भी जानते हैं उस खिलाड़ी का नाम बतायें?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न3- इस वर्ष भारत ने इतिहास रचा, जब पहली बार भारत को दो ऑस्कर अवार्ड मिले, एक “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RRR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” फिल्म के गाने नाटू.नाटू को एवं बतायें दूसरा अवार्ड किस डॉक्यूमेंट्री मूवी को मिला?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न1- उत्तराखण्ड में ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>हरियाली दिवस</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” कब मनाया जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न6- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>पराक्रम दिवस</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” किस तिथि को मनाया जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न10- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>भारतीय रिजर्व बैंक</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” की स्थापना कब हुई?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न1- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>लिपुलेख दर्रा</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” उत्तराखण्ड के किस जनपद में है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न4- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>उबेर कप</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” का सम्बन्ध किस खेल से है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">प्रश्न3- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ISRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> की स्थापना कब हुई?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न6- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>संविधान दिवस</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” किस तिथि को मनाया जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न8- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>दक्षिण की गंगा</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” किस नदी को कहा जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न10- योजना आयोग के स्थान पर ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>नीति आयोग</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” कब बना?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न1- उत्तराखण्ड में ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>पर्वतों की रानी</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” किस शहर को कहा जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न6- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>राष्ट्रीय बालिका दिवस</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” भारत में किस तिथि को मनाया जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न10- भारत में ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>मेट्रो रेल</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” के जनक कौन हैं?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न1- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ऑपरेशन सूर्य होप</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” उत्तराखण्ड में किससे सम्बन्धित हैं?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न6- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>मतदाता दिवस</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” किस तिथि को मनाया जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न1- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>वीर चन्द्र सिंह गढ़वाली</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” किस जनपद से सम्बन्धित है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न6- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>राष्ट्रीय एकता दिवस</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” किस तिथि को मनाया जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न1- महात्मा गाँधी ने किस शहर को ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>उत्तराखण्ड का स्विट्जरलैंड</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” कहा था?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">प्रश्न10- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ATM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> का सामान्यतः पूर्ण विस्तार रूप बतायें?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>प्रश्न6- ‘‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>योग दिवस</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” किस तिथि को मनाया जाता है?</t>
+    </r>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘फूलों की घाटी” की खोज किसने की?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- उत्तरखण्ड में ‘‘ब्रिटिश शासन” कब से प्रारम्भ हुआ था?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘उत्तराखण्ड में चर्चा मे रहा ‘‘मिशन लाल लोमड़ी‘‘ या ‘‘रेड फॉक्स” अभियान किसके आतंक के विरुद्ध चलाया गया?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘तुम चुप क्यों रहे केदार” पुस्तक के लेखक कौन हैं?</t>
+  </si>
+  <si>
+    <t>प्रश्न1- ‘‘देवीधुरा मेला” उत्तरखण्ड के किस जनपद में आयोजित किया जाता  है?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,6 +2040,20 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1709,7 +2247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1881,9 +2419,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2204,10 +2739,10 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,19 +2799,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>321</v>
+        <v>472</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H2" s="5">
         <v>30</v>
@@ -2294,19 +2829,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="7">
         <v>30</v>
@@ -2324,19 +2859,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -2354,25 +2889,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J5" s="8">
         <v>5</v>
@@ -2386,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
@@ -2416,19 +2951,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>322</v>
+        <v>473</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="5">
         <v>30</v>
@@ -2446,19 +2981,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -2476,19 +3011,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -2506,25 +3041,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J10" s="8">
         <v>5</v>
@@ -2538,19 +3073,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H11" s="10">
         <v>60</v>
@@ -2568,19 +3103,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>323</v>
+        <v>474</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="5">
         <v>30</v>
@@ -2598,19 +3133,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="F13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2628,19 +3163,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -2658,25 +3193,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J15" s="8">
         <v>5</v>
@@ -2690,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D16" s="10">
         <v>45</v>
@@ -2720,19 +3255,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>324</v>
+        <v>475</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="5">
         <v>30</v>
@@ -2750,19 +3285,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2780,19 +3315,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2810,25 +3345,25 @@
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J20" s="8">
         <v>5</v>
@@ -2842,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>46</v>
@@ -2851,7 +3386,7 @@
         <v>44</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>45</v>
@@ -2872,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>325</v>
+        <v>476</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="5">
         <v>30</v>
@@ -2902,19 +3437,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2932,19 +3467,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2962,25 +3497,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J25" s="8">
         <v>5</v>
@@ -2994,19 +3529,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26" s="10">
         <v>60</v>
@@ -3024,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="5">
         <v>30</v>
@@ -3054,19 +3589,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3084,19 +3619,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -3114,25 +3649,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J30" s="8">
         <v>5</v>
@@ -3146,19 +3681,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="10">
         <v>60</v>
@@ -3183,7 +3718,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -3235,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E2" s="5">
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G2" s="5">
         <v>15</v>
@@ -3261,16 +3796,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E3" s="7">
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G3" s="7">
         <v>15</v>
@@ -3287,16 +3822,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E4" s="7">
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7">
         <v>15</v>
@@ -3313,16 +3848,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" s="7">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7">
         <v>15</v>
@@ -3339,16 +3874,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" s="7">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7">
         <v>15</v>
@@ -3365,16 +3900,16 @@
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E7" s="7">
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7">
         <v>15</v>
@@ -3391,16 +3926,16 @@
         <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E8" s="10">
         <v>15</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G8" s="10">
         <v>15</v>
@@ -3417,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E9" s="5">
         <v>15</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G9" s="5">
         <v>15</v>
@@ -3443,16 +3978,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E10" s="7">
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7">
         <v>15</v>
@@ -3469,16 +4004,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E11" s="7">
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7">
         <v>15</v>
@@ -3495,16 +4030,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E12" s="7">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G12" s="7">
         <v>15</v>
@@ -3521,16 +4056,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" s="7">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7">
         <v>15</v>
@@ -3547,16 +4082,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" s="7">
         <v>15</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7">
         <v>15</v>
@@ -3573,16 +4108,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E15" s="10">
         <v>15</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G15" s="10">
         <v>15</v>
@@ -3599,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E16" s="5">
         <v>15</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G16" s="5">
         <v>15</v>
@@ -3625,16 +4160,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="7">
         <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7">
         <v>15</v>
@@ -3651,16 +4186,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E18" s="7">
         <v>15</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G18" s="7">
         <v>15</v>
@@ -3677,16 +4212,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E19" s="7">
         <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7">
         <v>15</v>
@@ -3703,16 +4238,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E20" s="7">
         <v>15</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7">
         <v>15</v>
@@ -3729,16 +4264,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E21" s="7">
         <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G21" s="7">
         <v>15</v>
@@ -3755,16 +4290,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E22" s="7">
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G22" s="7">
         <v>15</v>
@@ -3781,16 +4316,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E23" s="5">
         <v>15</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G23" s="5">
         <v>15</v>
@@ -3807,16 +4342,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E24" s="7">
         <v>15</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G24" s="7">
         <v>15</v>
@@ -3833,16 +4368,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E25" s="7">
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7">
         <v>15</v>
@@ -3859,16 +4394,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E26" s="7">
         <v>15</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7">
         <v>15</v>
@@ -3885,16 +4420,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E27" s="7">
         <v>15</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G27" s="7">
         <v>15</v>
@@ -3911,16 +4446,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E28" s="7">
         <v>15</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" s="7">
         <v>15</v>
@@ -3937,16 +4472,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E29" s="7">
         <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7">
         <v>15</v>
@@ -3963,16 +4498,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E30" s="5">
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G30" s="5">
         <v>15</v>
@@ -3989,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D31" s="7">
         <v>1965</v>
@@ -3998,7 +4533,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7">
         <v>15</v>
@@ -4015,16 +4550,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E32" s="7">
         <v>15</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7">
         <v>15</v>
@@ -4041,16 +4576,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E33" s="7">
         <v>15</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G33" s="7">
         <v>15</v>
@@ -4067,16 +4602,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E34" s="7">
         <v>15</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7">
         <v>15</v>
@@ -4093,16 +4628,16 @@
         <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E35" s="7">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G35" s="7">
         <v>15</v>
@@ -4119,16 +4654,16 @@
         <v>22</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E36" s="10">
         <v>15</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G36" s="10">
         <v>15</v>
@@ -4145,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E37" s="5">
         <v>15</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G37" s="5">
         <v>15</v>
@@ -4171,16 +4706,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E38" s="7">
         <v>15</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G38" s="7">
         <v>15</v>
@@ -4197,16 +4732,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E39" s="7">
         <v>15</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G39" s="7">
         <v>15</v>
@@ -4223,16 +4758,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E40" s="7">
         <v>15</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G40" s="7">
         <v>15</v>
@@ -4249,16 +4784,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E41" s="7">
         <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G41" s="7">
         <v>15</v>
@@ -4275,16 +4810,16 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E42" s="7">
         <v>15</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G42" s="7">
         <v>15</v>
@@ -4301,16 +4836,16 @@
         <v>22</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E43" s="10">
         <v>15</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G43" s="10">
         <v>15</v>
@@ -4374,10 +4909,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5">
         <v>120</v>
@@ -4391,15 +4926,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="59">
+        <v>58</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7">
         <v>120</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="7">
         <v>10</v>
       </c>
       <c r="E3" s="8">
@@ -4408,15 +4943,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="59">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="7">
         <v>120</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="7">
         <v>10</v>
       </c>
       <c r="E4" s="8">
@@ -4425,15 +4960,15 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="59">
+        <v>208</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7">
         <v>120</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="7">
         <v>10</v>
       </c>
       <c r="E5" s="8">
@@ -4442,15 +4977,15 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="59">
+        <v>209</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7">
         <v>120</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="7">
         <v>10</v>
       </c>
       <c r="E6" s="8">
@@ -4459,10 +4994,10 @@
     </row>
     <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10">
         <v>120</v>
@@ -4485,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8547F5E1-314B-4971-91FD-BE41512E171B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
@@ -4539,16 +5074,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E2" s="5">
         <v>30</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G2" s="5">
         <v>120</v>
@@ -4565,10 +5100,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E3" s="7">
         <v>30</v>
@@ -4587,10 +5122,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" s="10">
         <v>30</v>
@@ -4609,16 +5144,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E5" s="5">
         <v>30</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G5" s="5">
         <v>120</v>
@@ -4635,10 +5170,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E6" s="7">
         <v>30</v>
@@ -4657,10 +5192,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E7" s="10">
         <v>30</v>
@@ -4679,16 +5214,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E8" s="5">
         <v>30</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G8" s="5">
         <v>120</v>
@@ -4705,10 +5240,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E9" s="7">
         <v>30</v>
@@ -4727,10 +5262,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E10" s="10">
         <v>30</v>
@@ -4749,16 +5284,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E11" s="5">
         <v>30</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G11" s="5">
         <v>120</v>
@@ -4775,10 +5310,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E12" s="7">
         <v>30</v>
@@ -4797,10 +5332,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E13" s="10">
         <v>30</v>
@@ -4819,16 +5354,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E14" s="5">
         <v>30</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G14" s="5">
         <v>120</v>
@@ -4845,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E15" s="7">
         <v>30</v>
@@ -4867,10 +5402,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E16" s="10">
         <v>30</v>
@@ -4889,16 +5424,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E17" s="5">
         <v>30</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G17" s="5">
         <v>120</v>
@@ -4915,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E18" s="7">
         <v>30</v>
@@ -4937,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D19" s="10">
         <v>21</v>
@@ -4961,11 +5496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF476FA-922C-4D84-A345-0E6E6133C9F8}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="35">
         <v>60</v>
@@ -5027,10 +5562,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="38">
@@ -5045,10 +5580,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="38">
@@ -5063,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D5" s="37">
         <v>7</v>
@@ -5081,10 +5616,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="38">
@@ -5099,10 +5634,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="38">
@@ -5117,10 +5652,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="38">
@@ -5135,10 +5670,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38">
@@ -5153,10 +5688,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38">
@@ -5171,10 +5706,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="40">
@@ -5189,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="35">
         <v>60</v>
@@ -5209,10 +5744,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38">
@@ -5227,10 +5762,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38">
@@ -5245,10 +5780,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38">
@@ -5263,10 +5798,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38">
@@ -5281,10 +5816,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38">
@@ -5299,10 +5834,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38">
@@ -5317,10 +5852,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
@@ -5335,10 +5870,10 @@
         <v>30</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="38">
@@ -5353,10 +5888,10 @@
         <v>31</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40">
@@ -5371,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="35">
         <v>60</v>
@@ -5391,10 +5926,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38">
@@ -5409,10 +5944,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38">
@@ -5427,10 +5962,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38">
@@ -5445,10 +5980,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38">
@@ -5463,10 +5998,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38">
@@ -5481,10 +6016,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38">
@@ -5499,10 +6034,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38">
@@ -5517,10 +6052,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38">
@@ -5535,10 +6070,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="40">
@@ -5553,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" s="35">
         <v>60</v>
@@ -5573,10 +6108,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38">
@@ -5591,10 +6126,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38">
@@ -5609,10 +6144,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38">
@@ -5627,10 +6162,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38">
@@ -5645,10 +6180,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38">
@@ -5663,10 +6198,10 @@
         <v>22</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38">
@@ -5681,10 +6216,10 @@
         <v>29</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38">
@@ -5699,10 +6234,10 @@
         <v>30</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38">
@@ -5717,10 +6252,10 @@
         <v>31</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40">
@@ -5735,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>43</v>
@@ -5755,10 +6290,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38">
@@ -5773,10 +6308,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38">
@@ -5791,10 +6326,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38">
@@ -5809,10 +6344,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38">
@@ -5827,10 +6362,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38">
@@ -5845,10 +6380,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38">
@@ -5863,10 +6398,10 @@
         <v>29</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38">
@@ -5881,10 +6416,10 @@
         <v>30</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38">
@@ -5899,10 +6434,10 @@
         <v>31</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="40">
@@ -5917,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E52" s="35">
         <v>60</v>
@@ -5937,10 +6472,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38">
@@ -5955,10 +6490,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38">
@@ -5973,7 +6508,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="D55" s="37">
         <v>6</v>
@@ -5991,10 +6526,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="38">
@@ -6009,10 +6544,10 @@
         <v>21</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38">
@@ -6027,10 +6562,10 @@
         <v>22</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38">
@@ -6045,10 +6580,10 @@
         <v>29</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38">
@@ -6063,10 +6598,10 @@
         <v>30</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38">
@@ -6081,10 +6616,10 @@
         <v>31</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="40">
@@ -6101,11 +6636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C11C15-25E5-485C-A705-83AFDD377AA7}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6144,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>48</v>
@@ -6164,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3" s="48">
         <v>30</v>
@@ -6184,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>49</v>
@@ -6204,7 +6739,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>50</v>
@@ -6224,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>47</v>
@@ -6244,10 +6779,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>56</v>
+        <v>443</v>
       </c>
       <c r="D7" s="48">
         <v>30</v>
@@ -6264,7 +6799,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>51</v>
@@ -6284,10 +6819,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D9" s="48">
         <v>30</v>
@@ -6304,7 +6839,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>52</v>
@@ -6324,7 +6859,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>53</v>
@@ -6344,7 +6879,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>54</v>
@@ -6364,7 +6899,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>55</v>
@@ -6379,15 +6914,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>209</v>
+        <v>446</v>
       </c>
       <c r="D14" s="48">
         <v>30</v>
@@ -6404,7 +6939,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>33</v>
@@ -6424,7 +6959,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>42</v>
@@ -6444,7 +6979,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>34</v>

--- a/public/inputQuiz/Template.xlsx
+++ b/public/inputQuiz/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\QUIZ\quiz-app\public\inputQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA5AB7-7FA3-49A2-8A72-B7A42AC514C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8838633-94A6-4F40-9EA1-962C4CF0DE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0C723560-6435-4BE6-81A6-ADB39D116BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ Round" sheetId="1" r:id="rId1"/>
@@ -536,9 +536,6 @@
     <t>बैडमिन्टन</t>
   </si>
   <si>
-    <t>सन् 1920 में</t>
-  </si>
-  <si>
     <t>26 नवम्बर को</t>
   </si>
   <si>
@@ -648,9 +645,6 @@
   </si>
   <si>
     <t>पंजाब</t>
-  </si>
-  <si>
-    <t>15 अगस्त, 1947</t>
   </si>
   <si>
     <t>आदित्य L-1</t>
@@ -1992,6 +1986,12 @@
   </si>
   <si>
     <t>प्रश्न1- ‘‘देवीधुरा मेला” उत्तरखण्ड के किस जनपद में आयोजित किया जाता  है?</t>
+  </si>
+  <si>
+    <t>सन् 1919 में</t>
+  </si>
+  <si>
+    <t>15 अगस्त, 1995</t>
   </si>
 </sst>
 </file>
@@ -2738,11 +2738,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80B8FA1-5345-4688-97AC-4E59F5750F89}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>65</v>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>66</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>67</v>
@@ -2889,13 +2889,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>118</v>
@@ -2907,7 +2907,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J5" s="8">
         <v>5</v>
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>136</v>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>69</v>
@@ -3011,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>70</v>
@@ -3041,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>71</v>
@@ -3059,7 +3059,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J10" s="8">
         <v>5</v>
@@ -3073,7 +3073,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>72</v>
@@ -3085,7 +3085,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H11" s="10">
         <v>60</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>73</v>
@@ -3133,19 +3133,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="F13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3163,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>74</v>
@@ -3193,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>75</v>
@@ -3211,7 +3211,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J15" s="8">
         <v>5</v>
@@ -3225,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D16" s="10">
         <v>45</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>76</v>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>137</v>
@@ -3297,7 +3297,7 @@
         <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -3315,19 +3315,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>77</v>
@@ -3357,13 +3357,13 @@
         <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J20" s="8">
         <v>5</v>
@@ -3377,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>46</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>78</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>138</v>
@@ -3467,7 +3467,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>139</v>
@@ -3497,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>79</v>
@@ -3515,7 +3515,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J25" s="8">
         <v>5</v>
@@ -3529,7 +3529,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>140</v>
@@ -3538,7 +3538,7 @@
         <v>147</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>151</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>80</v>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>81</v>
@@ -3619,19 +3619,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -3649,7 +3649,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>141</v>
@@ -3667,7 +3667,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J30" s="8">
         <v>5</v>
@@ -3681,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>82</v>
@@ -3718,10 +3718,10 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3770,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E2" s="5">
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="5">
         <v>15</v>
@@ -3796,16 +3796,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E3" s="7">
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G3" s="7">
         <v>15</v>
@@ -3822,16 +3822,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="7">
         <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7">
         <v>15</v>
@@ -3848,16 +3848,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E5" s="7">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7">
         <v>15</v>
@@ -3874,16 +3874,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E6" s="7">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7">
         <v>15</v>
@@ -3900,16 +3900,16 @@
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E7" s="7">
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7">
         <v>15</v>
@@ -3926,16 +3926,16 @@
         <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E8" s="10">
         <v>15</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G8" s="10">
         <v>15</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E9" s="5">
         <v>15</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G9" s="5">
         <v>15</v>
@@ -3978,16 +3978,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E10" s="7">
         <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7">
         <v>15</v>
@@ -4004,16 +4004,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E11" s="7">
         <v>15</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7">
         <v>15</v>
@@ -4030,16 +4030,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E12" s="7">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G12" s="7">
         <v>15</v>
@@ -4056,16 +4056,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E13" s="7">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7">
         <v>15</v>
@@ -4082,16 +4082,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E14" s="7">
         <v>15</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7">
         <v>15</v>
@@ -4108,16 +4108,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E15" s="10">
         <v>15</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G15" s="10">
         <v>15</v>
@@ -4134,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E16" s="5">
         <v>15</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G16" s="5">
         <v>15</v>
@@ -4160,16 +4160,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="7">
         <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7">
         <v>15</v>
@@ -4186,16 +4186,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E18" s="7">
         <v>15</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G18" s="7">
         <v>15</v>
@@ -4212,16 +4212,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E19" s="7">
         <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7">
         <v>15</v>
@@ -4238,16 +4238,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E20" s="7">
         <v>15</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7">
         <v>15</v>
@@ -4264,16 +4264,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E21" s="7">
         <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G21" s="7">
         <v>15</v>
@@ -4290,16 +4290,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E22" s="7">
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7">
         <v>15</v>
@@ -4316,16 +4316,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E23" s="5">
         <v>15</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G23" s="5">
         <v>15</v>
@@ -4342,16 +4342,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E24" s="7">
         <v>15</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G24" s="7">
         <v>15</v>
@@ -4368,16 +4368,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E25" s="7">
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7">
         <v>15</v>
@@ -4394,16 +4394,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E26" s="7">
         <v>15</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G26" s="7">
         <v>15</v>
@@ -4420,16 +4420,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E27" s="7">
         <v>15</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G27" s="7">
         <v>15</v>
@@ -4446,16 +4446,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E28" s="7">
         <v>15</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G28" s="7">
         <v>15</v>
@@ -4472,16 +4472,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E29" s="7">
         <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G29" s="7">
         <v>15</v>
@@ -4498,16 +4498,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E30" s="5">
         <v>15</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G30" s="5">
         <v>15</v>
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D31" s="7">
         <v>1965</v>
@@ -4533,7 +4533,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7">
         <v>15</v>
@@ -4550,16 +4550,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E32" s="7">
         <v>15</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7">
         <v>15</v>
@@ -4576,16 +4576,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E33" s="7">
         <v>15</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G33" s="7">
         <v>15</v>
@@ -4602,16 +4602,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E34" s="7">
         <v>15</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G34" s="7">
         <v>15</v>
@@ -4628,16 +4628,16 @@
         <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E35" s="7">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G35" s="7">
         <v>15</v>
@@ -4654,16 +4654,16 @@
         <v>22</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E36" s="10">
         <v>15</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G36" s="10">
         <v>15</v>
@@ -4680,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E37" s="5">
         <v>15</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G37" s="5">
         <v>15</v>
@@ -4706,16 +4706,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E38" s="7">
         <v>15</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G38" s="7">
         <v>15</v>
@@ -4732,16 +4732,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E39" s="7">
         <v>15</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G39" s="7">
         <v>15</v>
@@ -4758,16 +4758,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E40" s="7">
         <v>15</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G40" s="7">
         <v>15</v>
@@ -4784,16 +4784,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E41" s="7">
         <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G41" s="7">
         <v>15</v>
@@ -4810,16 +4810,16 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E42" s="7">
         <v>15</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G42" s="7">
         <v>15</v>
@@ -4836,16 +4836,16 @@
         <v>22</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E43" s="10">
         <v>15</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G43" s="10">
         <v>15</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>59</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>62</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>63</v>
@@ -5024,7 +5024,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5074,16 +5074,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E2" s="5">
         <v>30</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G2" s="5">
         <v>120</v>
@@ -5100,10 +5100,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E3" s="7">
         <v>30</v>
@@ -5122,10 +5122,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E4" s="10">
         <v>30</v>
@@ -5144,16 +5144,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E5" s="5">
         <v>30</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G5" s="5">
         <v>120</v>
@@ -5170,10 +5170,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E6" s="7">
         <v>30</v>
@@ -5192,10 +5192,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E7" s="10">
         <v>30</v>
@@ -5214,16 +5214,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" s="5">
         <v>30</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G8" s="5">
         <v>120</v>
@@ -5240,10 +5240,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E9" s="7">
         <v>30</v>
@@ -5262,10 +5262,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E10" s="10">
         <v>30</v>
@@ -5284,16 +5284,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E11" s="5">
         <v>30</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G11" s="5">
         <v>120</v>
@@ -5310,10 +5310,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E12" s="7">
         <v>30</v>
@@ -5332,10 +5332,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E13" s="10">
         <v>30</v>
@@ -5354,16 +5354,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E14" s="5">
         <v>30</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G14" s="5">
         <v>120</v>
@@ -5380,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E15" s="7">
         <v>30</v>
@@ -5402,10 +5402,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E16" s="10">
         <v>30</v>
@@ -5424,16 +5424,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E17" s="5">
         <v>30</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G17" s="5">
         <v>120</v>
@@ -5450,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E18" s="7">
         <v>30</v>
@@ -5472,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D19" s="10">
         <v>21</v>
@@ -5496,11 +5496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF476FA-922C-4D84-A345-0E6E6133C9F8}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>155</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>156</v>
@@ -5580,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>157</v>
@@ -5598,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D5" s="37">
         <v>7</v>
@@ -5616,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>158</v>
@@ -5634,7 +5634,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>159</v>
@@ -5652,7 +5652,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>160</v>
@@ -5670,7 +5670,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>161</v>
@@ -5688,7 +5688,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>162</v>
@@ -5706,7 +5706,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>163</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>164</v>
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>165</v>
@@ -5762,7 +5762,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>166</v>
@@ -5780,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>167</v>
@@ -5798,10 +5798,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>168</v>
+        <v>475</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38">
@@ -5816,10 +5816,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38">
@@ -5834,10 +5834,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38">
@@ -5852,10 +5852,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
@@ -5870,10 +5870,10 @@
         <v>30</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="38">
@@ -5888,10 +5888,10 @@
         <v>31</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40">
@@ -5906,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="35">
         <v>60</v>
@@ -5926,10 +5926,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38">
@@ -5944,10 +5944,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38">
@@ -5962,10 +5962,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38">
@@ -5980,10 +5980,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38">
@@ -5998,10 +5998,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38">
@@ -6016,10 +6016,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="38">
@@ -6034,10 +6034,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38">
@@ -6052,10 +6052,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38">
@@ -6070,10 +6070,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="40">
@@ -6088,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E32" s="35">
         <v>60</v>
@@ -6108,10 +6108,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38">
@@ -6126,10 +6126,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38">
@@ -6144,10 +6144,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38">
@@ -6162,10 +6162,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="38">
@@ -6180,10 +6180,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38">
@@ -6198,10 +6198,10 @@
         <v>22</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38">
@@ -6216,10 +6216,10 @@
         <v>29</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38">
@@ -6234,10 +6234,10 @@
         <v>30</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38">
@@ -6252,10 +6252,10 @@
         <v>31</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40">
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>43</v>
@@ -6290,10 +6290,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38">
@@ -6308,10 +6308,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38">
@@ -6326,10 +6326,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="38">
@@ -6344,10 +6344,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="38">
@@ -6362,10 +6362,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="38">
@@ -6380,10 +6380,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="38">
@@ -6398,10 +6398,10 @@
         <v>29</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="38">
@@ -6416,10 +6416,10 @@
         <v>30</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="38">
@@ -6434,10 +6434,10 @@
         <v>31</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="40">
@@ -6452,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E52" s="35">
         <v>60</v>
@@ -6472,10 +6472,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="38">
@@ -6490,10 +6490,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="38">
@@ -6508,7 +6508,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D55" s="37">
         <v>6</v>
@@ -6526,10 +6526,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="38">
@@ -6544,10 +6544,10 @@
         <v>21</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="38">
@@ -6562,10 +6562,10 @@
         <v>22</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="38">
@@ -6580,10 +6580,10 @@
         <v>29</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="38">
@@ -6598,10 +6598,10 @@
         <v>30</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38">
@@ -6616,10 +6616,10 @@
         <v>31</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>206</v>
+        <v>476</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="40">
@@ -6636,7 +6636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C11C15-25E5-485C-A705-83AFDD377AA7}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>48</v>
@@ -6699,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D3" s="48">
         <v>30</v>
@@ -6719,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>49</v>
@@ -6739,7 +6739,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>50</v>
@@ -6759,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>47</v>
@@ -6779,10 +6779,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D7" s="48">
         <v>30</v>
@@ -6799,7 +6799,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>51</v>
@@ -6819,10 +6819,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D9" s="48">
         <v>30</v>
@@ -6839,7 +6839,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>52</v>
@@ -6859,7 +6859,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>53</v>
@@ -6879,7 +6879,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>54</v>
@@ -6899,7 +6899,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>55</v>
@@ -6919,10 +6919,10 @@
         <v>38</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D14" s="48">
         <v>30</v>
@@ -6939,7 +6939,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>33</v>
@@ -6959,7 +6959,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>42</v>
@@ -6979,7 +6979,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>34</v>
